--- a/icd_files/91548.xlsx
+++ b/icd_files/91548.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\datiphy\Documents\NEO Excel\icd_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B86707-C930-47E4-B8BB-234273AD575B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0F1F17-B680-455C-BBBC-51A080154BD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADDS Chart" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="497">
   <si>
     <t>CHARTTIME</t>
   </si>
@@ -729,15 +729,33 @@
     <t>07-10</t>
   </si>
   <si>
+    <t>07-11</t>
+  </si>
+  <si>
+    <t>07-12</t>
+  </si>
+  <si>
+    <t>07-13</t>
+  </si>
+  <si>
     <t>07-14</t>
   </si>
   <si>
+    <t>07-15</t>
+  </si>
+  <si>
     <t>07-16</t>
   </si>
   <si>
     <t>07-17</t>
   </si>
   <si>
+    <t>07-18</t>
+  </si>
+  <si>
+    <t>07-19</t>
+  </si>
+  <si>
     <t>08-18</t>
   </si>
   <si>
@@ -750,9 +768,21 @@
     <t>08-21</t>
   </si>
   <si>
+    <t>08-22</t>
+  </si>
+  <si>
+    <t>08-23</t>
+  </si>
+  <si>
     <t>08-24</t>
   </si>
   <si>
+    <t>08-25</t>
+  </si>
+  <si>
+    <t>08-26</t>
+  </si>
+  <si>
     <t>GCS: Verbal</t>
   </si>
   <si>
@@ -762,15 +792,171 @@
     <t>GCS: Total</t>
   </si>
   <si>
+    <t>1/2 NS</t>
+  </si>
+  <si>
     <t>0.9% Sodium Chloride</t>
   </si>
   <si>
     <t>Insulin</t>
   </si>
   <si>
+    <t>Sodium Chloride 0.9%  Flush</t>
+  </si>
+  <si>
+    <t>Amlodipine</t>
+  </si>
+  <si>
+    <t>Potassium Chloride</t>
+  </si>
+  <si>
+    <t>Lisinopril</t>
+  </si>
+  <si>
+    <t>Metoprolol Tartrate</t>
+  </si>
+  <si>
+    <t>Sodium Bicarbonate</t>
+  </si>
+  <si>
+    <t>Magnesium Sulfate</t>
+  </si>
+  <si>
+    <t>Propofol</t>
+  </si>
+  <si>
+    <t>Famotidine</t>
+  </si>
+  <si>
     <t>HydrALAzine</t>
   </si>
   <si>
+    <t>NS (Mini Bag Plus)</t>
+  </si>
+  <si>
+    <t>Meropenem</t>
+  </si>
+  <si>
+    <t>Diazepam</t>
+  </si>
+  <si>
+    <t>Vancomycin</t>
+  </si>
+  <si>
+    <t>Iso-Osmotic Dextrose</t>
+  </si>
+  <si>
+    <t>Labetalol</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>Insulin Human Regular</t>
+  </si>
+  <si>
+    <t>Gentamicin</t>
+  </si>
+  <si>
+    <t>Isotonic Sodium Chloride</t>
+  </si>
+  <si>
+    <t>Acyclovir</t>
+  </si>
+  <si>
+    <t>Ondansetron</t>
+  </si>
+  <si>
+    <t>Thiamine</t>
+  </si>
+  <si>
+    <t>Multivitamins</t>
+  </si>
+  <si>
+    <t>FoLIC Acid</t>
+  </si>
+  <si>
+    <t>Fluconazole</t>
+  </si>
+  <si>
+    <t>Hydrochlorothiazide</t>
+  </si>
+  <si>
+    <t>Succinylcholine</t>
+  </si>
+  <si>
+    <t>Potassium Chl 40 mEq / 1000 mL D5 1/2 NS</t>
+  </si>
+  <si>
+    <t>Syringe</t>
+  </si>
+  <si>
+    <t>Iso-Osmotic Sodium Chloride</t>
+  </si>
+  <si>
+    <t>D5 1/2NS</t>
+  </si>
+  <si>
+    <t>Acetaminophen</t>
+  </si>
+  <si>
+    <t>Syringe (0.9% Sodium Chloride)</t>
+  </si>
+  <si>
+    <t>Alteplase (Catheter Clearance)</t>
+  </si>
+  <si>
+    <t>Metoprolol Succinate XL</t>
+  </si>
+  <si>
+    <t>Vancomycin Oral Liquid</t>
+  </si>
+  <si>
+    <t>Magnesium Oxide</t>
+  </si>
+  <si>
+    <t>Senna</t>
+  </si>
+  <si>
+    <t>traZODONE</t>
+  </si>
+  <si>
+    <t>5% Dextrose</t>
+  </si>
+  <si>
+    <t>Furosemide</t>
+  </si>
+  <si>
+    <t>Pantoprazole</t>
+  </si>
+  <si>
+    <t>Aquaphor Ointment</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>MetRONIDAZOLE (FLagyl)</t>
+  </si>
+  <si>
+    <t>Albuterol 0.083% Neb Soln</t>
+  </si>
+  <si>
+    <t>Calcium Gluconate</t>
+  </si>
+  <si>
+    <t>Olanzapine (Disintegrating Tablet)</t>
+  </si>
+  <si>
+    <t>Potassium Chl 40 mEq / 1000 mL D5W</t>
+  </si>
+  <si>
+    <t>Ciprofloxacin IV</t>
+  </si>
+  <si>
+    <t>D5NS</t>
+  </si>
+  <si>
     <t>23:46</t>
   </si>
   <si>
@@ -786,12 +972,63 @@
     <t>500 mL</t>
   </si>
   <si>
+    <t>10 mL</t>
+  </si>
+  <si>
+    <t>60 TAB</t>
+  </si>
+  <si>
+    <t>25 TAB</t>
+  </si>
+  <si>
+    <t>10 VIAL</t>
+  </si>
+  <si>
+    <t>1000 BAG</t>
+  </si>
+  <si>
+    <t>50 BAG</t>
+  </si>
+  <si>
+    <t>100 mL</t>
+  </si>
+  <si>
+    <t>120 BAG</t>
+  </si>
+  <si>
+    <t>700 mL</t>
+  </si>
+  <si>
+    <t>4 VIAL</t>
+  </si>
+  <si>
+    <t>100 TAB</t>
+  </si>
+  <si>
+    <t>1 UDCUP</t>
+  </si>
+  <si>
+    <t>1 TAB</t>
+  </si>
+  <si>
+    <t>1 mL</t>
+  </si>
+  <si>
+    <t>200 mL</t>
+  </si>
+  <si>
+    <t>1000 mL</t>
+  </si>
+  <si>
+    <t>1 SYR</t>
+  </si>
+  <si>
+    <t>5 VIAL</t>
+  </si>
+  <si>
     <t>18 VIAL</t>
   </si>
   <si>
-    <t>10 VIAL</t>
-  </si>
-  <si>
     <t>04:00</t>
   </si>
   <si>
@@ -822,6 +1059,9 @@
     <t>5-10 VIAL</t>
   </si>
   <si>
+    <t>400 BAG</t>
+  </si>
+  <si>
     <t>08:49</t>
   </si>
   <si>
@@ -831,6 +1071,27 @@
     <t>16:16</t>
   </si>
   <si>
+    <t>60 PKT</t>
+  </si>
+  <si>
+    <t>4 BAG</t>
+  </si>
+  <si>
+    <t>1000 VIAL</t>
+  </si>
+  <si>
+    <t>20 BAG</t>
+  </si>
+  <si>
+    <t>100 BAG</t>
+  </si>
+  <si>
+    <t>100 VIAL</t>
+  </si>
+  <si>
+    <t>200 VIAL</t>
+  </si>
+  <si>
     <t>08:08</t>
   </si>
   <si>
@@ -840,7 +1101,7 @@
     <t>17:30</t>
   </si>
   <si>
-    <t>100 BAG</t>
+    <t>50 TAB</t>
   </si>
   <si>
     <t>04:02</t>
@@ -855,24 +1116,36 @@
     <t>16:04</t>
   </si>
   <si>
+    <t>0 VIAL</t>
+  </si>
+  <si>
+    <t>20 VIAL</t>
+  </si>
+  <si>
+    <t>5 TAB</t>
+  </si>
+  <si>
+    <t>400 TAB</t>
+  </si>
+  <si>
     <t>6 VIAL</t>
   </si>
   <si>
-    <t>20 VIAL</t>
-  </si>
-  <si>
     <t>08:00</t>
   </si>
   <si>
     <t>20:16</t>
   </si>
   <si>
+    <t>16 mL</t>
+  </si>
+  <si>
+    <t>8 VIAL</t>
+  </si>
+  <si>
     <t>25 VIAL</t>
   </si>
   <si>
-    <t>8 VIAL</t>
-  </si>
-  <si>
     <t>30 VIAL</t>
   </si>
   <si>
@@ -882,21 +1155,57 @@
     <t>08:17</t>
   </si>
   <si>
-    <t>1000 BAG</t>
+    <t>500-1000 UDCUP</t>
   </si>
   <si>
     <t>40 VIAL</t>
   </si>
   <si>
+    <t>10 SYR</t>
+  </si>
+  <si>
+    <t>20 TAB</t>
+  </si>
+  <si>
+    <t>20 PKT</t>
+  </si>
+  <si>
+    <t>40 TAB</t>
+  </si>
+  <si>
     <t>35 VIAL</t>
   </si>
   <si>
+    <t>40 mL</t>
+  </si>
+  <si>
+    <t>150 VIAL</t>
+  </si>
+  <si>
+    <t>10 TAB</t>
+  </si>
+  <si>
+    <t>125 SYR</t>
+  </si>
+  <si>
+    <t>500 BAG</t>
+  </si>
+  <si>
+    <t>1 VIAL</t>
+  </si>
+  <si>
+    <t>40 PKT</t>
+  </si>
+  <si>
     <t>14:00</t>
   </si>
   <si>
     <t>20:30</t>
   </si>
   <si>
+    <t>2 BAG</t>
+  </si>
+  <si>
     <t>00:19</t>
   </si>
   <si>
@@ -906,6 +1215,9 @@
     <t>17:00</t>
   </si>
   <si>
+    <t>3 SYR</t>
+  </si>
+  <si>
     <t>08:21</t>
   </si>
   <si>
@@ -913,6 +1225,18 @@
   </si>
   <si>
     <t>16:50</t>
+  </si>
+  <si>
+    <t>37.5 TAB</t>
+  </si>
+  <si>
+    <t>650 TAB</t>
+  </si>
+  <si>
+    <t>1 JAR</t>
+  </si>
+  <si>
+    <t>2 mL</t>
   </si>
   <si>
     <t>16 VIAL</t>
@@ -4490,7 +4814,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4D8E-4EF9-AB26-40B711E5912E}"/>
+              <c16:uniqueId val="{00000000-6D2B-4176-9819-CB76FE34DB4E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5764,7 +6088,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4D8E-4EF9-AB26-40B711E5912E}"/>
+              <c16:uniqueId val="{00000001-6D2B-4176-9819-CB76FE34DB4E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7038,7 +7362,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4D8E-4EF9-AB26-40B711E5912E}"/>
+              <c16:uniqueId val="{00000002-6D2B-4176-9819-CB76FE34DB4E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8387,7 +8711,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-4D8E-4EF9-AB26-40B711E5912E}"/>
+              <c16:uniqueId val="{00000003-6D2B-4176-9819-CB76FE34DB4E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9727,7 +10051,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-4D8E-4EF9-AB26-40B711E5912E}"/>
+              <c16:uniqueId val="{00000004-6D2B-4176-9819-CB76FE34DB4E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10593,7 +10917,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-4D8E-4EF9-AB26-40B711E5912E}"/>
+              <c16:uniqueId val="{00000005-6D2B-4176-9819-CB76FE34DB4E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11334,7 +11658,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-4D8E-4EF9-AB26-40B711E5912E}"/>
+              <c16:uniqueId val="{00000006-6D2B-4176-9819-CB76FE34DB4E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12075,7 +12399,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-4D8E-4EF9-AB26-40B711E5912E}"/>
+              <c16:uniqueId val="{00000007-6D2B-4176-9819-CB76FE34DB4E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12816,7 +13140,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-4D8E-4EF9-AB26-40B711E5912E}"/>
+              <c16:uniqueId val="{00000008-6D2B-4176-9819-CB76FE34DB4E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13259,7 +13583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642196B4-92C1-42EC-A8A3-5B95B2595E2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D86B0FF1-8110-4B99-9BAE-663D1F37977E}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:AL76"/>
   <sheetViews>
@@ -13284,7 +13608,7 @@
     <row r="1" spans="2:25" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>298</v>
+        <v>406</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -13297,7 +13621,7 @@
     </row>
     <row r="3" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>299</v>
+        <v>407</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
@@ -13310,7 +13634,7 @@
     </row>
     <row r="4" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>300</v>
+        <v>408</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="12"/>
@@ -13323,7 +13647,7 @@
     </row>
     <row r="5" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>301</v>
+        <v>409</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="14"/>
@@ -13336,27 +13660,27 @@
     </row>
     <row r="6" spans="2:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
-        <v>302</v>
+        <v>410</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="19" t="s">
-        <v>303</v>
+        <v>411</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="21" t="s">
-        <v>304</v>
+        <v>412</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="22" t="s">
-        <v>305</v>
+        <v>413</v>
       </c>
     </row>
     <row r="7" spans="2:25" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>306</v>
+        <v>414</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
@@ -13384,7 +13708,7 @@
     </row>
     <row r="9" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="30" t="s">
-        <v>307</v>
+        <v>415</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="32"/>
@@ -13412,11 +13736,11 @@
     </row>
     <row r="10" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="36" t="s">
-        <v>308</v>
+        <v>416</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="38" t="s">
-        <v>309</v>
+        <v>417</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="40"/>
@@ -13439,7 +13763,7 @@
       <c r="W10" s="40"/>
       <c r="X10" s="40"/>
       <c r="Y10" s="41" t="s">
-        <v>309</v>
+        <v>417</v>
       </c>
     </row>
     <row r="11" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13476,7 +13800,7 @@
       <c r="B12" s="42"/>
       <c r="C12" s="43"/>
       <c r="D12" s="48" t="s">
-        <v>310</v>
+        <v>418</v>
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="50"/>
@@ -13499,14 +13823,14 @@
       <c r="W12" s="50"/>
       <c r="X12" s="50"/>
       <c r="Y12" s="51" t="s">
-        <v>310</v>
+        <v>418</v>
       </c>
     </row>
     <row r="13" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="42"/>
       <c r="C13" s="43"/>
       <c r="D13" s="52" t="s">
-        <v>311</v>
+        <v>419</v>
       </c>
       <c r="E13" s="53"/>
       <c r="F13" s="54"/>
@@ -13529,14 +13853,14 @@
       <c r="W13" s="54"/>
       <c r="X13" s="54"/>
       <c r="Y13" s="55" t="s">
-        <v>311</v>
+        <v>419</v>
       </c>
     </row>
     <row r="14" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="42"/>
       <c r="C14" s="43"/>
       <c r="D14" s="56" t="s">
-        <v>312</v>
+        <v>420</v>
       </c>
       <c r="E14" s="57"/>
       <c r="F14" s="58"/>
@@ -13559,14 +13883,14 @@
       <c r="W14" s="58"/>
       <c r="X14" s="58"/>
       <c r="Y14" s="59" t="s">
-        <v>312</v>
+        <v>420</v>
       </c>
     </row>
     <row r="15" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="42"/>
       <c r="C15" s="43"/>
       <c r="D15" s="44" t="s">
-        <v>313</v>
+        <v>421</v>
       </c>
       <c r="E15" s="45"/>
       <c r="F15" s="46"/>
@@ -13589,14 +13913,14 @@
       <c r="W15" s="46"/>
       <c r="X15" s="46"/>
       <c r="Y15" s="47" t="s">
-        <v>313</v>
+        <v>421</v>
       </c>
     </row>
     <row r="16" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="60"/>
       <c r="C16" s="61"/>
       <c r="D16" s="62" t="s">
-        <v>314</v>
+        <v>422</v>
       </c>
       <c r="E16" s="63"/>
       <c r="F16" s="64"/>
@@ -13619,16 +13943,16 @@
       <c r="W16" s="64"/>
       <c r="X16" s="64"/>
       <c r="Y16" s="65" t="s">
-        <v>314</v>
+        <v>422</v>
       </c>
     </row>
     <row r="17" spans="2:38" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="36" t="s">
-        <v>315</v>
+        <v>423</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="66" t="s">
-        <v>316</v>
+        <v>424</v>
       </c>
       <c r="E17" s="67"/>
       <c r="F17" s="68"/>
@@ -13651,14 +13975,14 @@
       <c r="W17" s="68"/>
       <c r="X17" s="68"/>
       <c r="Y17" s="69" t="s">
-        <v>316</v>
+        <v>424</v>
       </c>
     </row>
     <row r="18" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
       <c r="C18" s="43"/>
       <c r="D18" s="52" t="s">
-        <v>317</v>
+        <v>425</v>
       </c>
       <c r="E18" s="53"/>
       <c r="F18" s="54"/>
@@ -13681,10 +14005,10 @@
       <c r="W18" s="54"/>
       <c r="X18" s="54"/>
       <c r="Y18" s="55" t="s">
-        <v>317</v>
+        <v>425</v>
       </c>
       <c r="Z18" s="70" t="s">
-        <v>318</v>
+        <v>426</v>
       </c>
       <c r="AA18" s="71"/>
       <c r="AB18" s="71"/>
@@ -13692,7 +14016,7 @@
       <c r="AD18" s="71"/>
       <c r="AE18" s="72"/>
       <c r="AF18" s="73" t="s">
-        <v>319</v>
+        <v>427</v>
       </c>
       <c r="AG18" s="73"/>
       <c r="AH18" s="73"/>
@@ -13704,7 +14028,7 @@
       <c r="B19" s="60"/>
       <c r="C19" s="61"/>
       <c r="D19" s="75" t="s">
-        <v>320</v>
+        <v>428</v>
       </c>
       <c r="E19" s="76"/>
       <c r="F19" s="77"/>
@@ -13727,7 +14051,7 @@
       <c r="W19" s="77"/>
       <c r="X19" s="77"/>
       <c r="Y19" s="78" t="s">
-        <v>320</v>
+        <v>428</v>
       </c>
       <c r="Z19" s="79"/>
       <c r="AA19" s="80"/>
@@ -13743,11 +14067,11 @@
     </row>
     <row r="20" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="87" t="s">
-        <v>321</v>
+        <v>429</v>
       </c>
       <c r="C20" s="88"/>
       <c r="D20" s="89" t="s">
-        <v>322</v>
+        <v>430</v>
       </c>
       <c r="E20" s="90"/>
       <c r="F20" s="91"/>
@@ -13770,7 +14094,7 @@
       <c r="W20" s="91"/>
       <c r="X20" s="91"/>
       <c r="Y20" s="92" t="s">
-        <v>322</v>
+        <v>430</v>
       </c>
       <c r="Z20" s="79"/>
       <c r="AA20" s="93"/>
@@ -13788,7 +14112,7 @@
       <c r="B21" s="99"/>
       <c r="C21" s="100"/>
       <c r="D21" s="56" t="s">
-        <v>323</v>
+        <v>431</v>
       </c>
       <c r="E21" s="57"/>
       <c r="F21" s="58"/>
@@ -13811,7 +14135,7 @@
       <c r="W21" s="58"/>
       <c r="X21" s="58"/>
       <c r="Y21" s="59" t="s">
-        <v>323</v>
+        <v>431</v>
       </c>
       <c r="Z21" s="101"/>
       <c r="AA21" s="102"/>
@@ -13830,7 +14154,7 @@
       <c r="B22" s="99"/>
       <c r="C22" s="100"/>
       <c r="D22" s="48" t="s">
-        <v>324</v>
+        <v>432</v>
       </c>
       <c r="E22" s="49"/>
       <c r="F22" s="50"/>
@@ -13853,10 +14177,10 @@
       <c r="W22" s="50"/>
       <c r="X22" s="50"/>
       <c r="Y22" s="51" t="s">
-        <v>324</v>
+        <v>432</v>
       </c>
       <c r="Z22" s="104" t="s">
-        <v>325</v>
+        <v>433</v>
       </c>
       <c r="AA22" s="105"/>
       <c r="AB22" s="105"/>
@@ -13874,7 +14198,7 @@
       <c r="B23" s="107"/>
       <c r="C23" s="108"/>
       <c r="D23" s="109" t="s">
-        <v>326</v>
+        <v>434</v>
       </c>
       <c r="E23" s="110"/>
       <c r="F23" s="111"/>
@@ -13897,52 +14221,52 @@
       <c r="W23" s="111"/>
       <c r="X23" s="111"/>
       <c r="Y23" s="112" t="s">
-        <v>326</v>
+        <v>434</v>
       </c>
       <c r="Z23" s="113" t="s">
-        <v>327</v>
+        <v>435</v>
       </c>
       <c r="AA23" s="77" t="s">
-        <v>328</v>
+        <v>436</v>
       </c>
       <c r="AB23" s="76" t="s">
-        <v>329</v>
+        <v>437</v>
       </c>
       <c r="AC23" s="77" t="s">
-        <v>330</v>
+        <v>438</v>
       </c>
       <c r="AD23" s="76" t="s">
-        <v>331</v>
+        <v>439</v>
       </c>
       <c r="AE23" s="77" t="s">
-        <v>332</v>
+        <v>440</v>
       </c>
       <c r="AF23" s="76" t="s">
-        <v>333</v>
+        <v>441</v>
       </c>
       <c r="AG23" s="77" t="s">
-        <v>334</v>
+        <v>442</v>
       </c>
       <c r="AH23" s="76" t="s">
-        <v>335</v>
+        <v>443</v>
       </c>
       <c r="AI23" s="77" t="s">
-        <v>336</v>
+        <v>444</v>
       </c>
       <c r="AJ23" s="76" t="s">
-        <v>337</v>
+        <v>445</v>
       </c>
       <c r="AK23" s="114" t="s">
-        <v>338</v>
+        <v>446</v>
       </c>
     </row>
     <row r="24" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="87" t="s">
-        <v>339</v>
+        <v>447</v>
       </c>
       <c r="C24" s="88"/>
       <c r="D24" s="115" t="s">
-        <v>340</v>
+        <v>448</v>
       </c>
       <c r="E24" s="116"/>
       <c r="F24" s="117"/>
@@ -13965,53 +14289,53 @@
       <c r="W24" s="117"/>
       <c r="X24" s="117"/>
       <c r="Y24" s="118" t="s">
-        <v>340</v>
+        <v>448</v>
       </c>
       <c r="Z24" s="119" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AA24" s="120" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AB24" s="121" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AC24" s="122" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AD24" s="123" t="s">
-        <v>343</v>
+        <v>451</v>
       </c>
       <c r="AE24" s="124" t="s">
-        <v>343</v>
+        <v>451</v>
       </c>
       <c r="AF24" s="123" t="s">
-        <v>343</v>
+        <v>451</v>
       </c>
       <c r="AG24" s="125" t="s">
-        <v>344</v>
+        <v>452</v>
       </c>
       <c r="AH24" s="126" t="s">
-        <v>344</v>
+        <v>452</v>
       </c>
       <c r="AI24" s="125" t="s">
-        <v>345</v>
+        <v>453</v>
       </c>
       <c r="AJ24" s="126" t="s">
-        <v>346</v>
+        <v>454</v>
       </c>
       <c r="AK24" s="125" t="s">
-        <v>346</v>
+        <v>454</v>
       </c>
       <c r="AL24" s="127" t="s">
-        <v>347</v>
+        <v>455</v>
       </c>
     </row>
     <row r="25" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="99"/>
       <c r="C25" s="100"/>
       <c r="D25" s="48" t="s">
-        <v>327</v>
+        <v>435</v>
       </c>
       <c r="E25" s="49"/>
       <c r="F25" s="50"/>
@@ -14034,43 +14358,43 @@
       <c r="W25" s="50"/>
       <c r="X25" s="50"/>
       <c r="Y25" s="51" t="s">
-        <v>327</v>
+        <v>435</v>
       </c>
       <c r="Z25" s="128" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AA25" s="129" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AB25" s="128" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AC25" s="130" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AD25" s="131" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AE25" s="130" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AF25" s="132" t="s">
-        <v>343</v>
+        <v>451</v>
       </c>
       <c r="AG25" s="133" t="s">
-        <v>343</v>
+        <v>451</v>
       </c>
       <c r="AH25" s="134" t="s">
-        <v>344</v>
+        <v>452</v>
       </c>
       <c r="AI25" s="135" t="s">
-        <v>344</v>
+        <v>452</v>
       </c>
       <c r="AJ25" s="134" t="s">
-        <v>345</v>
+        <v>453</v>
       </c>
       <c r="AK25" s="135" t="s">
-        <v>345</v>
+        <v>453</v>
       </c>
       <c r="AL25" s="136"/>
     </row>
@@ -14078,7 +14402,7 @@
       <c r="B26" s="99"/>
       <c r="C26" s="100"/>
       <c r="D26" s="48" t="s">
-        <v>328</v>
+        <v>436</v>
       </c>
       <c r="E26" s="49"/>
       <c r="F26" s="50"/>
@@ -14101,43 +14425,43 @@
       <c r="W26" s="50"/>
       <c r="X26" s="50"/>
       <c r="Y26" s="51" t="s">
-        <v>328</v>
+        <v>436</v>
       </c>
       <c r="Z26" s="137" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AA26" s="138" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AB26" s="137" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AC26" s="138" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AD26" s="137" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AE26" s="139" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AF26" s="140" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AG26" s="141" t="s">
-        <v>343</v>
+        <v>451</v>
       </c>
       <c r="AH26" s="142" t="s">
-        <v>343</v>
+        <v>451</v>
       </c>
       <c r="AI26" s="143" t="s">
-        <v>344</v>
+        <v>452</v>
       </c>
       <c r="AJ26" s="144" t="s">
-        <v>344</v>
+        <v>452</v>
       </c>
       <c r="AK26" s="143" t="s">
-        <v>345</v>
+        <v>453</v>
       </c>
       <c r="AL26" s="136"/>
     </row>
@@ -14145,7 +14469,7 @@
       <c r="B27" s="99"/>
       <c r="C27" s="100"/>
       <c r="D27" s="48" t="s">
-        <v>329</v>
+        <v>437</v>
       </c>
       <c r="E27" s="49"/>
       <c r="F27" s="50"/>
@@ -14168,43 +14492,43 @@
       <c r="W27" s="50"/>
       <c r="X27" s="50"/>
       <c r="Y27" s="51" t="s">
-        <v>329</v>
+        <v>437</v>
       </c>
       <c r="Z27" s="145" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AA27" s="146" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AB27" s="147" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AC27" s="146" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AD27" s="147" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AE27" s="148" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AF27" s="149" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AG27" s="150" t="s">
-        <v>343</v>
+        <v>451</v>
       </c>
       <c r="AH27" s="151" t="s">
-        <v>343</v>
+        <v>451</v>
       </c>
       <c r="AI27" s="152" t="s">
-        <v>344</v>
+        <v>452</v>
       </c>
       <c r="AJ27" s="153" t="s">
-        <v>344</v>
+        <v>452</v>
       </c>
       <c r="AK27" s="152" t="s">
-        <v>344</v>
+        <v>452</v>
       </c>
       <c r="AL27" s="136"/>
     </row>
@@ -14212,7 +14536,7 @@
       <c r="B28" s="99"/>
       <c r="C28" s="100"/>
       <c r="D28" s="154" t="s">
-        <v>330</v>
+        <v>438</v>
       </c>
       <c r="E28" s="53"/>
       <c r="F28" s="54"/>
@@ -14235,43 +14559,43 @@
       <c r="W28" s="54"/>
       <c r="X28" s="54"/>
       <c r="Y28" s="55" t="s">
-        <v>330</v>
+        <v>438</v>
       </c>
       <c r="Z28" s="155" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AA28" s="130" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AB28" s="128" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AC28" s="129" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AD28" s="128" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AE28" s="129" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AF28" s="128" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AG28" s="130" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AH28" s="131" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AI28" s="133" t="s">
-        <v>343</v>
+        <v>451</v>
       </c>
       <c r="AJ28" s="132" t="s">
-        <v>343</v>
+        <v>451</v>
       </c>
       <c r="AK28" s="133" t="s">
-        <v>343</v>
+        <v>451</v>
       </c>
       <c r="AL28" s="136"/>
     </row>
@@ -14279,7 +14603,7 @@
       <c r="B29" s="99"/>
       <c r="C29" s="100"/>
       <c r="D29" s="156" t="s">
-        <v>331</v>
+        <v>439</v>
       </c>
       <c r="E29" s="57"/>
       <c r="F29" s="58"/>
@@ -14302,43 +14626,43 @@
       <c r="W29" s="58"/>
       <c r="X29" s="58"/>
       <c r="Y29" s="59" t="s">
-        <v>331</v>
+        <v>439</v>
       </c>
       <c r="Z29" s="157" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AA29" s="158" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AB29" s="159" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AC29" s="160" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AD29" s="161" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AE29" s="160" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AF29" s="161" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AG29" s="160" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AH29" s="159" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AI29" s="158" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AJ29" s="162" t="s">
-        <v>343</v>
+        <v>451</v>
       </c>
       <c r="AK29" s="163" t="s">
-        <v>343</v>
+        <v>451</v>
       </c>
       <c r="AL29" s="136"/>
     </row>
@@ -14346,7 +14670,7 @@
       <c r="B30" s="99"/>
       <c r="C30" s="100"/>
       <c r="D30" s="156" t="s">
-        <v>332</v>
+        <v>440</v>
       </c>
       <c r="E30" s="57"/>
       <c r="F30" s="58"/>
@@ -14369,43 +14693,43 @@
       <c r="W30" s="58"/>
       <c r="X30" s="58"/>
       <c r="Y30" s="59" t="s">
-        <v>332</v>
+        <v>440</v>
       </c>
       <c r="Z30" s="164" t="s">
-        <v>343</v>
+        <v>451</v>
       </c>
       <c r="AA30" s="148" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AB30" s="149" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AC30" s="148" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AD30" s="147" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AE30" s="146" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AF30" s="147" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AG30" s="146" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AH30" s="147" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AI30" s="148" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AJ30" s="149" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AK30" s="165" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AL30" s="136"/>
     </row>
@@ -14413,7 +14737,7 @@
       <c r="B31" s="99"/>
       <c r="C31" s="100"/>
       <c r="D31" s="156" t="s">
-        <v>333</v>
+        <v>441</v>
       </c>
       <c r="E31" s="57"/>
       <c r="F31" s="58"/>
@@ -14436,43 +14760,43 @@
       <c r="W31" s="58"/>
       <c r="X31" s="58"/>
       <c r="Y31" s="59" t="s">
-        <v>333</v>
+        <v>441</v>
       </c>
       <c r="Z31" s="166" t="s">
-        <v>343</v>
+        <v>451</v>
       </c>
       <c r="AA31" s="133" t="s">
-        <v>343</v>
+        <v>451</v>
       </c>
       <c r="AB31" s="131" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AC31" s="130" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AD31" s="128" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AE31" s="129" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AF31" s="128" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AG31" s="129" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AH31" s="128" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AI31" s="129" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AJ31" s="128" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AK31" s="167" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AL31" s="136"/>
     </row>
@@ -14480,7 +14804,7 @@
       <c r="B32" s="99"/>
       <c r="C32" s="100"/>
       <c r="D32" s="156" t="s">
-        <v>334</v>
+        <v>442</v>
       </c>
       <c r="E32" s="57"/>
       <c r="F32" s="58"/>
@@ -14503,43 +14827,43 @@
       <c r="W32" s="58"/>
       <c r="X32" s="58"/>
       <c r="Y32" s="59" t="s">
-        <v>334</v>
+        <v>442</v>
       </c>
       <c r="Z32" s="168" t="s">
-        <v>343</v>
+        <v>451</v>
       </c>
       <c r="AA32" s="163" t="s">
-        <v>343</v>
+        <v>451</v>
       </c>
       <c r="AB32" s="162" t="s">
-        <v>343</v>
+        <v>451</v>
       </c>
       <c r="AC32" s="158" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AD32" s="159" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AE32" s="160" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AF32" s="161" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AG32" s="160" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AH32" s="161" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AI32" s="160" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AJ32" s="161" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AK32" s="169" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AL32" s="136"/>
     </row>
@@ -14547,7 +14871,7 @@
       <c r="B33" s="99"/>
       <c r="C33" s="100"/>
       <c r="D33" s="156" t="s">
-        <v>335</v>
+        <v>443</v>
       </c>
       <c r="E33" s="57"/>
       <c r="F33" s="58"/>
@@ -14570,43 +14894,43 @@
       <c r="W33" s="58"/>
       <c r="X33" s="58"/>
       <c r="Y33" s="59" t="s">
-        <v>335</v>
+        <v>443</v>
       </c>
       <c r="Z33" s="170" t="s">
-        <v>344</v>
+        <v>452</v>
       </c>
       <c r="AA33" s="151" t="s">
-        <v>343</v>
+        <v>451</v>
       </c>
       <c r="AB33" s="151" t="s">
-        <v>343</v>
+        <v>451</v>
       </c>
       <c r="AC33" s="151" t="s">
-        <v>343</v>
+        <v>451</v>
       </c>
       <c r="AD33" s="149" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AE33" s="149" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AF33" s="147" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AG33" s="147" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AH33" s="147" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AI33" s="147" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AJ33" s="147" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AK33" s="147" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AL33" s="136"/>
     </row>
@@ -14614,7 +14938,7 @@
       <c r="B34" s="99"/>
       <c r="C34" s="100"/>
       <c r="D34" s="154" t="s">
-        <v>336</v>
+        <v>444</v>
       </c>
       <c r="E34" s="53"/>
       <c r="F34" s="54"/>
@@ -14637,43 +14961,43 @@
       <c r="W34" s="54"/>
       <c r="X34" s="54"/>
       <c r="Y34" s="55" t="s">
-        <v>336</v>
+        <v>444</v>
       </c>
       <c r="Z34" s="171" t="s">
-        <v>344</v>
+        <v>452</v>
       </c>
       <c r="AA34" s="134" t="s">
-        <v>344</v>
+        <v>452</v>
       </c>
       <c r="AB34" s="134" t="s">
-        <v>344</v>
+        <v>452</v>
       </c>
       <c r="AC34" s="132" t="s">
-        <v>343</v>
+        <v>451</v>
       </c>
       <c r="AD34" s="132" t="s">
-        <v>343</v>
+        <v>451</v>
       </c>
       <c r="AE34" s="132" t="s">
-        <v>343</v>
+        <v>451</v>
       </c>
       <c r="AF34" s="131" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AG34" s="131" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AH34" s="128" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AI34" s="128" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AJ34" s="128" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AK34" s="128" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AL34" s="136"/>
     </row>
@@ -14681,7 +15005,7 @@
       <c r="B35" s="99"/>
       <c r="C35" s="100"/>
       <c r="D35" s="48" t="s">
-        <v>337</v>
+        <v>445</v>
       </c>
       <c r="E35" s="49"/>
       <c r="F35" s="50"/>
@@ -14704,43 +15028,43 @@
       <c r="W35" s="50"/>
       <c r="X35" s="50"/>
       <c r="Y35" s="51" t="s">
-        <v>337</v>
+        <v>445</v>
       </c>
       <c r="Z35" s="171" t="s">
-        <v>345</v>
+        <v>453</v>
       </c>
       <c r="AA35" s="134" t="s">
-        <v>344</v>
+        <v>452</v>
       </c>
       <c r="AB35" s="134" t="s">
-        <v>344</v>
+        <v>452</v>
       </c>
       <c r="AC35" s="134" t="s">
-        <v>344</v>
+        <v>452</v>
       </c>
       <c r="AD35" s="132" t="s">
-        <v>343</v>
+        <v>451</v>
       </c>
       <c r="AE35" s="132" t="s">
-        <v>343</v>
+        <v>451</v>
       </c>
       <c r="AF35" s="132" t="s">
-        <v>343</v>
+        <v>451</v>
       </c>
       <c r="AG35" s="132" t="s">
-        <v>343</v>
+        <v>451</v>
       </c>
       <c r="AH35" s="131" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AI35" s="131" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AJ35" s="128" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AK35" s="128" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AL35" s="136"/>
     </row>
@@ -14748,7 +15072,7 @@
       <c r="B36" s="99"/>
       <c r="C36" s="100"/>
       <c r="D36" s="172" t="s">
-        <v>338</v>
+        <v>446</v>
       </c>
       <c r="E36" s="173"/>
       <c r="F36" s="174"/>
@@ -14771,7 +15095,7 @@
       <c r="W36" s="174"/>
       <c r="X36" s="174"/>
       <c r="Y36" s="175" t="s">
-        <v>338</v>
+        <v>446</v>
       </c>
       <c r="Z36" s="176"/>
       <c r="AA36" s="177"/>
@@ -14784,10 +15108,10 @@
       <c r="AH36" s="177"/>
       <c r="AI36" s="177"/>
       <c r="AJ36" s="131" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AK36" s="128" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AL36" s="136"/>
     </row>
@@ -14795,7 +15119,7 @@
       <c r="B37" s="99"/>
       <c r="C37" s="100"/>
       <c r="D37" s="178" t="s">
-        <v>348</v>
+        <v>456</v>
       </c>
       <c r="E37" s="179"/>
       <c r="F37" s="180"/>
@@ -14818,14 +15142,14 @@
       <c r="W37" s="180"/>
       <c r="X37" s="180"/>
       <c r="Y37" s="181" t="s">
-        <v>348</v>
+        <v>456</v>
       </c>
       <c r="Z37" s="176"/>
       <c r="AA37" s="177"/>
       <c r="AB37" s="177"/>
       <c r="AC37" s="177"/>
       <c r="AD37" s="182" t="s">
-        <v>349</v>
+        <v>457</v>
       </c>
       <c r="AE37" s="182"/>
       <c r="AF37" s="182"/>
@@ -14840,7 +15164,7 @@
       <c r="B38" s="99"/>
       <c r="C38" s="100"/>
       <c r="D38" s="178" t="s">
-        <v>350</v>
+        <v>458</v>
       </c>
       <c r="E38" s="179"/>
       <c r="F38" s="180"/>
@@ -14863,7 +15187,7 @@
       <c r="W38" s="180"/>
       <c r="X38" s="180"/>
       <c r="Y38" s="181" t="s">
-        <v>350</v>
+        <v>458</v>
       </c>
       <c r="Z38" s="176"/>
       <c r="AA38" s="177"/>
@@ -14883,7 +15207,7 @@
       <c r="B39" s="99"/>
       <c r="C39" s="100"/>
       <c r="D39" s="178" t="s">
-        <v>351</v>
+        <v>459</v>
       </c>
       <c r="E39" s="179"/>
       <c r="F39" s="180"/>
@@ -14906,7 +15230,7 @@
       <c r="W39" s="180"/>
       <c r="X39" s="180"/>
       <c r="Y39" s="181" t="s">
-        <v>351</v>
+        <v>459</v>
       </c>
       <c r="Z39" s="176"/>
       <c r="AA39" s="177"/>
@@ -14926,7 +15250,7 @@
       <c r="B40" s="107"/>
       <c r="C40" s="108"/>
       <c r="D40" s="62" t="s">
-        <v>352</v>
+        <v>460</v>
       </c>
       <c r="E40" s="63"/>
       <c r="F40" s="64"/>
@@ -14949,7 +15273,7 @@
       <c r="W40" s="64"/>
       <c r="X40" s="64"/>
       <c r="Y40" s="65" t="s">
-        <v>352</v>
+        <v>460</v>
       </c>
       <c r="Z40" s="185"/>
       <c r="AA40" s="186"/>
@@ -14967,11 +15291,11 @@
     </row>
     <row r="41" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="87" t="s">
-        <v>353</v>
+        <v>461</v>
       </c>
       <c r="C41" s="88"/>
       <c r="D41" s="38" t="s">
-        <v>354</v>
+        <v>462</v>
       </c>
       <c r="E41" s="39"/>
       <c r="F41" s="40"/>
@@ -14994,14 +15318,14 @@
       <c r="W41" s="40"/>
       <c r="X41" s="40"/>
       <c r="Y41" s="41" t="s">
-        <v>354</v>
+        <v>462</v>
       </c>
     </row>
     <row r="42" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="99"/>
       <c r="C42" s="100"/>
       <c r="D42" s="44" t="s">
-        <v>333</v>
+        <v>441</v>
       </c>
       <c r="E42" s="45"/>
       <c r="F42" s="46"/>
@@ -15024,14 +15348,14 @@
       <c r="W42" s="46"/>
       <c r="X42" s="46"/>
       <c r="Y42" s="47" t="s">
-        <v>333</v>
+        <v>441</v>
       </c>
     </row>
     <row r="43" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="99"/>
       <c r="C43" s="100"/>
       <c r="D43" s="48" t="s">
-        <v>334</v>
+        <v>442</v>
       </c>
       <c r="E43" s="49"/>
       <c r="F43" s="50"/>
@@ -15054,14 +15378,14 @@
       <c r="W43" s="50"/>
       <c r="X43" s="50"/>
       <c r="Y43" s="51" t="s">
-        <v>334</v>
+        <v>442</v>
       </c>
     </row>
     <row r="44" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="99"/>
       <c r="C44" s="100"/>
       <c r="D44" s="48" t="s">
-        <v>335</v>
+        <v>443</v>
       </c>
       <c r="E44" s="49"/>
       <c r="F44" s="50"/>
@@ -15084,14 +15408,14 @@
       <c r="W44" s="50"/>
       <c r="X44" s="50"/>
       <c r="Y44" s="51" t="s">
-        <v>335</v>
+        <v>443</v>
       </c>
     </row>
     <row r="45" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="99"/>
       <c r="C45" s="100"/>
       <c r="D45" s="52" t="s">
-        <v>336</v>
+        <v>444</v>
       </c>
       <c r="E45" s="53"/>
       <c r="F45" s="54"/>
@@ -15114,14 +15438,14 @@
       <c r="W45" s="54"/>
       <c r="X45" s="54"/>
       <c r="Y45" s="55" t="s">
-        <v>336</v>
+        <v>444</v>
       </c>
     </row>
     <row r="46" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="99"/>
       <c r="C46" s="100"/>
       <c r="D46" s="56" t="s">
-        <v>337</v>
+        <v>445</v>
       </c>
       <c r="E46" s="57"/>
       <c r="F46" s="58"/>
@@ -15144,14 +15468,14 @@
       <c r="W46" s="58"/>
       <c r="X46" s="58"/>
       <c r="Y46" s="59" t="s">
-        <v>337</v>
+        <v>445</v>
       </c>
     </row>
     <row r="47" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="99"/>
       <c r="C47" s="100"/>
       <c r="D47" s="56" t="s">
-        <v>338</v>
+        <v>446</v>
       </c>
       <c r="E47" s="57"/>
       <c r="F47" s="58"/>
@@ -15174,10 +15498,10 @@
       <c r="W47" s="58"/>
       <c r="X47" s="58"/>
       <c r="Y47" s="59" t="s">
-        <v>338</v>
+        <v>446</v>
       </c>
       <c r="AA47" s="189" t="s">
-        <v>355</v>
+        <v>463</v>
       </c>
       <c r="AB47" s="190"/>
       <c r="AC47" s="190"/>
@@ -15194,7 +15518,7 @@
       <c r="B48" s="99"/>
       <c r="C48" s="100"/>
       <c r="D48" s="56" t="s">
-        <v>348</v>
+        <v>456</v>
       </c>
       <c r="E48" s="57"/>
       <c r="F48" s="58"/>
@@ -15217,7 +15541,7 @@
       <c r="W48" s="58"/>
       <c r="X48" s="58"/>
       <c r="Y48" s="59" t="s">
-        <v>348</v>
+        <v>456</v>
       </c>
       <c r="AA48" s="190"/>
       <c r="AB48" s="190"/>
@@ -15235,7 +15559,7 @@
       <c r="B49" s="99"/>
       <c r="C49" s="100"/>
       <c r="D49" s="56" t="s">
-        <v>350</v>
+        <v>458</v>
       </c>
       <c r="E49" s="57"/>
       <c r="F49" s="58"/>
@@ -15258,7 +15582,7 @@
       <c r="W49" s="58"/>
       <c r="X49" s="58"/>
       <c r="Y49" s="59" t="s">
-        <v>350</v>
+        <v>458</v>
       </c>
       <c r="AA49" s="190"/>
       <c r="AB49" s="190"/>
@@ -15276,7 +15600,7 @@
       <c r="B50" s="99"/>
       <c r="C50" s="100"/>
       <c r="D50" s="56" t="s">
-        <v>351</v>
+        <v>459</v>
       </c>
       <c r="E50" s="57"/>
       <c r="F50" s="58"/>
@@ -15299,14 +15623,14 @@
       <c r="W50" s="58"/>
       <c r="X50" s="58"/>
       <c r="Y50" s="59" t="s">
-        <v>351</v>
+        <v>459</v>
       </c>
     </row>
     <row r="51" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="99"/>
       <c r="C51" s="100"/>
       <c r="D51" s="52" t="s">
-        <v>352</v>
+        <v>460</v>
       </c>
       <c r="E51" s="53"/>
       <c r="F51" s="54"/>
@@ -15329,14 +15653,14 @@
       <c r="W51" s="54"/>
       <c r="X51" s="54"/>
       <c r="Y51" s="55" t="s">
-        <v>352</v>
+        <v>460</v>
       </c>
     </row>
     <row r="52" spans="2:37" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="107"/>
       <c r="C52" s="108"/>
       <c r="D52" s="62" t="s">
-        <v>356</v>
+        <v>464</v>
       </c>
       <c r="E52" s="63"/>
       <c r="F52" s="64"/>
@@ -15359,24 +15683,24 @@
       <c r="W52" s="64"/>
       <c r="X52" s="64"/>
       <c r="Y52" s="65" t="s">
-        <v>356</v>
+        <v>464</v>
       </c>
       <c r="AB52" s="191"/>
       <c r="AC52" s="191"/>
       <c r="AD52" s="191"/>
       <c r="AE52" s="191"/>
       <c r="AG52" s="14" t="s">
-        <v>357</v>
+        <v>465</v>
       </c>
       <c r="AH52" s="14"/>
     </row>
     <row r="53" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="36" t="s">
-        <v>358</v>
+        <v>466</v>
       </c>
       <c r="C53" s="37"/>
       <c r="D53" s="66" t="s">
-        <v>359</v>
+        <v>467</v>
       </c>
       <c r="E53" s="67"/>
       <c r="F53" s="68"/>
@@ -15399,7 +15723,7 @@
       <c r="W53" s="68"/>
       <c r="X53" s="68"/>
       <c r="Y53" s="69" t="s">
-        <v>359</v>
+        <v>467</v>
       </c>
       <c r="AG53" s="192"/>
       <c r="AH53" s="192"/>
@@ -15408,7 +15732,7 @@
       <c r="B54" s="42"/>
       <c r="C54" s="43"/>
       <c r="D54" s="52" t="s">
-        <v>360</v>
+        <v>468</v>
       </c>
       <c r="E54" s="53"/>
       <c r="F54" s="54"/>
@@ -15431,14 +15755,14 @@
       <c r="W54" s="54"/>
       <c r="X54" s="54"/>
       <c r="Y54" s="55" t="s">
-        <v>360</v>
+        <v>468</v>
       </c>
       <c r="AB54" s="193"/>
       <c r="AC54" s="193"/>
       <c r="AD54" s="193"/>
       <c r="AE54" s="193"/>
       <c r="AG54" s="14" t="s">
-        <v>361</v>
+        <v>469</v>
       </c>
       <c r="AH54" s="14"/>
     </row>
@@ -15446,7 +15770,7 @@
       <c r="B55" s="42"/>
       <c r="C55" s="43"/>
       <c r="D55" s="56" t="s">
-        <v>362</v>
+        <v>470</v>
       </c>
       <c r="E55" s="57"/>
       <c r="F55" s="58"/>
@@ -15469,7 +15793,7 @@
       <c r="W55" s="58"/>
       <c r="X55" s="58"/>
       <c r="Y55" s="59" t="s">
-        <v>362</v>
+        <v>470</v>
       </c>
       <c r="AG55" s="192"/>
       <c r="AH55" s="192"/>
@@ -15478,7 +15802,7 @@
       <c r="B56" s="42"/>
       <c r="C56" s="43"/>
       <c r="D56" s="52" t="s">
-        <v>363</v>
+        <v>471</v>
       </c>
       <c r="E56" s="53"/>
       <c r="F56" s="54"/>
@@ -15501,14 +15825,14 @@
       <c r="W56" s="54"/>
       <c r="X56" s="54"/>
       <c r="Y56" s="55" t="s">
-        <v>363</v>
+        <v>471</v>
       </c>
       <c r="AB56" s="194"/>
       <c r="AC56" s="194"/>
       <c r="AD56" s="194"/>
       <c r="AE56" s="194"/>
       <c r="AG56" s="14" t="s">
-        <v>364</v>
+        <v>472</v>
       </c>
       <c r="AH56" s="14"/>
     </row>
@@ -15516,7 +15840,7 @@
       <c r="B57" s="42"/>
       <c r="C57" s="43"/>
       <c r="D57" s="48" t="s">
-        <v>365</v>
+        <v>473</v>
       </c>
       <c r="E57" s="49"/>
       <c r="F57" s="50"/>
@@ -15539,7 +15863,7 @@
       <c r="W57" s="50"/>
       <c r="X57" s="50"/>
       <c r="Y57" s="51" t="s">
-        <v>365</v>
+        <v>473</v>
       </c>
       <c r="AG57" s="192"/>
       <c r="AH57" s="192"/>
@@ -15548,7 +15872,7 @@
       <c r="B58" s="60"/>
       <c r="C58" s="61"/>
       <c r="D58" s="109" t="s">
-        <v>366</v>
+        <v>474</v>
       </c>
       <c r="E58" s="110"/>
       <c r="F58" s="111"/>
@@ -15571,24 +15895,24 @@
       <c r="W58" s="111"/>
       <c r="X58" s="111"/>
       <c r="Y58" s="112" t="s">
-        <v>366</v>
+        <v>474</v>
       </c>
       <c r="AB58" s="195"/>
       <c r="AC58" s="195"/>
       <c r="AD58" s="195"/>
       <c r="AE58" s="195"/>
       <c r="AG58" s="14" t="s">
-        <v>367</v>
+        <v>475</v>
       </c>
       <c r="AH58" s="14"/>
     </row>
     <row r="59" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="36" t="s">
-        <v>368</v>
+        <v>476</v>
       </c>
       <c r="C59" s="37"/>
       <c r="D59" s="196" t="s">
-        <v>369</v>
+        <v>477</v>
       </c>
       <c r="E59" s="197"/>
       <c r="F59" s="198"/>
@@ -15611,7 +15935,7 @@
       <c r="W59" s="198"/>
       <c r="X59" s="198"/>
       <c r="Y59" s="199" t="s">
-        <v>369</v>
+        <v>477</v>
       </c>
       <c r="AG59" s="192"/>
       <c r="AH59" s="192"/>
@@ -15620,7 +15944,7 @@
       <c r="B60" s="42"/>
       <c r="C60" s="43"/>
       <c r="D60" s="56" t="s">
-        <v>370</v>
+        <v>478</v>
       </c>
       <c r="E60" s="57"/>
       <c r="F60" s="58"/>
@@ -15643,22 +15967,22 @@
       <c r="W60" s="58"/>
       <c r="X60" s="58"/>
       <c r="Y60" s="59" t="s">
-        <v>370</v>
+        <v>478</v>
       </c>
       <c r="AB60" s="135" t="s">
-        <v>345</v>
+        <v>453</v>
       </c>
       <c r="AC60" s="135" t="s">
-        <v>345</v>
+        <v>453</v>
       </c>
       <c r="AD60" s="135" t="s">
-        <v>345</v>
+        <v>453</v>
       </c>
       <c r="AE60" s="135" t="s">
-        <v>345</v>
+        <v>453</v>
       </c>
       <c r="AG60" s="14" t="s">
-        <v>371</v>
+        <v>479</v>
       </c>
       <c r="AH60" s="14"/>
     </row>
@@ -15666,7 +15990,7 @@
       <c r="B61" s="42"/>
       <c r="C61" s="43"/>
       <c r="D61" s="48" t="s">
-        <v>372</v>
+        <v>480</v>
       </c>
       <c r="E61" s="49"/>
       <c r="F61" s="50"/>
@@ -15689,7 +16013,7 @@
       <c r="W61" s="50"/>
       <c r="X61" s="50"/>
       <c r="Y61" s="51" t="s">
-        <v>372</v>
+        <v>480</v>
       </c>
       <c r="AB61" s="200"/>
       <c r="AC61" s="200"/>
@@ -15702,7 +16026,7 @@
       <c r="B62" s="60"/>
       <c r="C62" s="61"/>
       <c r="D62" s="109" t="s">
-        <v>373</v>
+        <v>481</v>
       </c>
       <c r="E62" s="110"/>
       <c r="F62" s="111"/>
@@ -15725,32 +16049,32 @@
       <c r="W62" s="111"/>
       <c r="X62" s="111"/>
       <c r="Y62" s="112" t="s">
-        <v>373</v>
+        <v>481</v>
       </c>
       <c r="AB62" s="135" t="s">
-        <v>346</v>
+        <v>454</v>
       </c>
       <c r="AC62" s="135" t="s">
-        <v>346</v>
+        <v>454</v>
       </c>
       <c r="AD62" s="135" t="s">
-        <v>346</v>
+        <v>454</v>
       </c>
       <c r="AE62" s="135" t="s">
-        <v>346</v>
+        <v>454</v>
       </c>
       <c r="AG62" s="14" t="s">
-        <v>374</v>
+        <v>482</v>
       </c>
       <c r="AH62" s="14"/>
     </row>
     <row r="63" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="36" t="s">
-        <v>375</v>
+        <v>483</v>
       </c>
       <c r="C63" s="37"/>
       <c r="D63" s="89" t="s">
-        <v>376</v>
+        <v>484</v>
       </c>
       <c r="E63" s="90"/>
       <c r="F63" s="91"/>
@@ -15773,7 +16097,7 @@
       <c r="W63" s="91"/>
       <c r="X63" s="91"/>
       <c r="Y63" s="92" t="s">
-        <v>376</v>
+        <v>484</v>
       </c>
       <c r="AG63" s="192"/>
       <c r="AH63" s="192"/>
@@ -15782,7 +16106,7 @@
       <c r="B64" s="42"/>
       <c r="C64" s="43"/>
       <c r="D64" s="52" t="s">
-        <v>377</v>
+        <v>485</v>
       </c>
       <c r="E64" s="53"/>
       <c r="F64" s="54"/>
@@ -15805,14 +16129,14 @@
       <c r="W64" s="54"/>
       <c r="X64" s="54"/>
       <c r="Y64" s="55" t="s">
-        <v>377</v>
+        <v>485</v>
       </c>
       <c r="AB64" s="201"/>
       <c r="AC64" s="201"/>
       <c r="AD64" s="201"/>
       <c r="AE64" s="201"/>
       <c r="AG64" s="14" t="s">
-        <v>378</v>
+        <v>486</v>
       </c>
       <c r="AH64" s="14"/>
     </row>
@@ -15820,7 +16144,7 @@
       <c r="B65" s="42"/>
       <c r="C65" s="43"/>
       <c r="D65" s="44" t="s">
-        <v>379</v>
+        <v>487</v>
       </c>
       <c r="E65" s="45"/>
       <c r="F65" s="46"/>
@@ -15843,14 +16167,14 @@
       <c r="W65" s="46"/>
       <c r="X65" s="46"/>
       <c r="Y65" s="47" t="s">
-        <v>379</v>
+        <v>487</v>
       </c>
     </row>
     <row r="66" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="60"/>
       <c r="C66" s="61"/>
       <c r="D66" s="62" t="s">
-        <v>380</v>
+        <v>488</v>
       </c>
       <c r="E66" s="63"/>
       <c r="F66" s="64"/>
@@ -15873,12 +16197,12 @@
       <c r="W66" s="64"/>
       <c r="X66" s="64"/>
       <c r="Y66" s="65" t="s">
-        <v>380</v>
+        <v>488</v>
       </c>
     </row>
     <row r="67" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="202" t="s">
-        <v>381</v>
+        <v>489</v>
       </c>
       <c r="C67" s="203"/>
       <c r="D67" s="204"/>
@@ -15906,7 +16230,7 @@
     </row>
     <row r="68" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="208" t="s">
-        <v>382</v>
+        <v>490</v>
       </c>
       <c r="C68" s="209" t="s">
         <v>4</v>
@@ -15933,13 +16257,13 @@
       <c r="W68" s="91"/>
       <c r="X68" s="91"/>
       <c r="Y68" s="211" t="s">
-        <v>383</v>
+        <v>491</v>
       </c>
     </row>
     <row r="69" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="212"/>
       <c r="C69" s="213" t="s">
-        <v>384</v>
+        <v>492</v>
       </c>
       <c r="D69" s="214"/>
       <c r="E69" s="57"/>
@@ -15967,7 +16291,7 @@
     <row r="70" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="212"/>
       <c r="C70" s="213" t="s">
-        <v>385</v>
+        <v>493</v>
       </c>
       <c r="D70" s="214"/>
       <c r="E70" s="57"/>
@@ -16079,7 +16403,7 @@
     <row r="74" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="212"/>
       <c r="C74" s="213" t="s">
-        <v>386</v>
+        <v>494</v>
       </c>
       <c r="D74" s="214"/>
       <c r="E74" s="57"/>
@@ -16107,7 +16431,7 @@
     <row r="75" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="212"/>
       <c r="C75" s="213" t="s">
-        <v>387</v>
+        <v>495</v>
       </c>
       <c r="D75" s="214"/>
       <c r="E75" s="216"/>
@@ -16135,7 +16459,7 @@
     <row r="76" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="218"/>
       <c r="C76" s="219" t="s">
-        <v>388</v>
+        <v>496</v>
       </c>
       <c r="D76" s="220"/>
       <c r="E76" s="221"/>
@@ -21205,13 +21529,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A30:BP38"/>
+  <dimension ref="A30:DO90"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="30" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>226</v>
       </c>
@@ -21219,7 +21543,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="31" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:119" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>228</v>
       </c>
@@ -21242,849 +21566,3521 @@
         <v>229</v>
       </c>
       <c r="I31" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y31" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z31" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AA31" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AB31" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC31" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AD31" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AE31" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AF31" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="AG31" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="AH31" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="AI31" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="AJ31" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="N31" s="1" t="s">
+      <c r="AK31" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="O31" s="1" t="s">
+      <c r="AL31" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="P31" s="1" t="s">
+      <c r="AM31" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="Q31" s="1" t="s">
+      <c r="AN31" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="R31" s="1" t="s">
+      <c r="AO31" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="S31" s="1" t="s">
+      <c r="AP31" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="T31" s="1" t="s">
+      <c r="AQ31" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="U31" s="1" t="s">
+      <c r="AR31" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="V31" s="1" t="s">
+      <c r="AS31" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AT31" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="W31" s="1" t="s">
+      <c r="AU31" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="X31" s="1" t="s">
+      <c r="AV31" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="Y31" s="1" t="s">
+      <c r="AW31" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="Z31" s="1" t="s">
+      <c r="AX31" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="AA31" s="1" t="s">
+      <c r="AY31" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="AB31" s="1" t="s">
+      <c r="AZ31" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="AC31" s="1" t="s">
+      <c r="BA31" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="AD31" s="1" t="s">
+      <c r="BB31" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="AE31" s="1" t="s">
+      <c r="BC31" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="AF31" s="1" t="s">
+      <c r="BD31" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="AG31" s="1" t="s">
+      <c r="BE31" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="AH31" s="1" t="s">
+      <c r="BF31" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="AI31" s="1" t="s">
+      <c r="BG31" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="BH31" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="BI31" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="BJ31" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="BK31" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="AJ31" s="1" t="s">
+      <c r="BL31" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="AK31" s="1" t="s">
+      <c r="BM31" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="AL31" s="1" t="s">
+      <c r="BN31" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="AM31" s="1" t="s">
+      <c r="BO31" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="AN31" s="1" t="s">
+      <c r="BP31" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="AO31" s="1" t="s">
+      <c r="BQ31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="BR31" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="AP31" s="1" t="s">
+      <c r="BS31" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="AQ31" s="1" t="s">
+      <c r="BT31" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="AR31" s="1" t="s">
+      <c r="BU31" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="AS31" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="AT31" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="AU31" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="AV31" s="1" t="s">
+      <c r="BV31" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="AW31" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="AX31" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="AY31" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="AZ31" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="BA31" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="BB31" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="BC31" s="1" t="s">
+      <c r="BW31" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="BD31" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="BE31" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="BF31" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="BG31" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="BH31" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="BI31" s="1" t="s">
+      <c r="BX31" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="BJ31" s="1" t="s">
+      <c r="BY31" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="BK31" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="BL31" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="BM31" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="BN31" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="BO31" s="1" t="s">
+      <c r="BZ31" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="BP31" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="32" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="CA31" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="CB31" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="CC31" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="CD31" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="CE31" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="CF31" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="CG31" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="CH31" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="CI31" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="CJ31" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="CK31" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="CL31" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="CM31" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="CN31" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="CO31" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="CP31" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="CQ31" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="CR31" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="CS31" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="CT31" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="CU31" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="CV31" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="CW31" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="CX31" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="CY31" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="CZ31" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="DA31" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="DB31" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="DC31" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="DD31" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="DE31" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="DF31" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="DG31" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="DH31" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="DI31" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="DJ31" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="DK31" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="DL31" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="DM31" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="DN31" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="DO31" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="32" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>249</v>
+        <v>311</v>
       </c>
       <c r="C32" t="s">
-        <v>252</v>
+        <v>314</v>
       </c>
       <c r="D32" t="s">
+        <v>314</v>
+      </c>
+      <c r="E32" t="s">
+        <v>314</v>
+      </c>
+      <c r="F32" t="s">
+        <v>314</v>
+      </c>
+      <c r="G32" t="s">
+        <v>314</v>
+      </c>
+      <c r="H32" t="s">
+        <v>314</v>
+      </c>
+      <c r="I32" t="s">
+        <v>314</v>
+      </c>
+      <c r="J32" t="s">
+        <v>314</v>
+      </c>
+      <c r="K32" t="s">
+        <v>314</v>
+      </c>
+      <c r="L32" t="s">
+        <v>314</v>
+      </c>
+      <c r="M32" t="s">
+        <v>314</v>
+      </c>
+      <c r="N32" t="s">
+        <v>314</v>
+      </c>
+      <c r="O32" t="s">
+        <v>314</v>
+      </c>
+      <c r="P32" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>314</v>
+      </c>
+      <c r="R32" t="s">
+        <v>314</v>
+      </c>
+      <c r="S32" t="s">
+        <v>314</v>
+      </c>
+      <c r="T32" t="s">
+        <v>314</v>
+      </c>
+      <c r="U32" t="s">
+        <v>314</v>
+      </c>
+      <c r="V32" t="s">
+        <v>314</v>
+      </c>
+      <c r="W32" t="s">
+        <v>314</v>
+      </c>
+      <c r="X32" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>314</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>314</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>335</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>338</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>341</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>342</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>343</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>314</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>314</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>335</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>346</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>347</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>348</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>343</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>314</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>314</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>335</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>356</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>341</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>358</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>343</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>314</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>360</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>361</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>341</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>363</v>
+      </c>
+      <c r="AY32" t="s">
+        <v>343</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>314</v>
+      </c>
+      <c r="BA32" t="s">
+        <v>314</v>
+      </c>
+      <c r="BB32" t="s">
+        <v>314</v>
+      </c>
+      <c r="BC32" t="s">
+        <v>314</v>
+      </c>
+      <c r="BD32" t="s">
+        <v>314</v>
+      </c>
+      <c r="BE32" t="s">
+        <v>314</v>
+      </c>
+      <c r="BF32" t="s">
+        <v>335</v>
+      </c>
+      <c r="BG32" t="s">
+        <v>369</v>
+      </c>
+      <c r="BH32" t="s">
+        <v>341</v>
+      </c>
+      <c r="BI32" t="s">
+        <v>342</v>
+      </c>
+      <c r="BJ32" t="s">
+        <v>370</v>
+      </c>
+      <c r="BK32" t="s">
+        <v>314</v>
+      </c>
+      <c r="BL32" t="s">
+        <v>314</v>
+      </c>
+      <c r="BM32" t="s">
+        <v>314</v>
+      </c>
+      <c r="BN32" t="s">
+        <v>375</v>
+      </c>
+      <c r="BO32" t="s">
+        <v>335</v>
+      </c>
+      <c r="BP32" t="s">
+        <v>376</v>
+      </c>
+      <c r="BQ32" t="s">
+        <v>341</v>
+      </c>
+      <c r="BR32" t="s">
+        <v>314</v>
+      </c>
+      <c r="BS32" t="s">
+        <v>314</v>
+      </c>
+      <c r="BT32" t="s">
+        <v>314</v>
+      </c>
+      <c r="BU32" t="s">
+        <v>314</v>
+      </c>
+      <c r="BV32" t="s">
+        <v>314</v>
+      </c>
+      <c r="BW32" t="s">
+        <v>314</v>
+      </c>
+      <c r="BX32" t="s">
+        <v>314</v>
+      </c>
+      <c r="BY32" t="s">
+        <v>314</v>
+      </c>
+      <c r="BZ32" t="s">
+        <v>314</v>
+      </c>
+      <c r="CA32" t="s">
+        <v>314</v>
+      </c>
+      <c r="CB32" t="s">
+        <v>314</v>
+      </c>
+      <c r="CC32" t="s">
+        <v>314</v>
+      </c>
+      <c r="CD32" t="s">
+        <v>314</v>
+      </c>
+      <c r="CE32" t="s">
+        <v>314</v>
+      </c>
+      <c r="CF32" t="s">
+        <v>391</v>
+      </c>
+      <c r="CG32" t="s">
+        <v>342</v>
+      </c>
+      <c r="CH32" t="s">
+        <v>392</v>
+      </c>
+      <c r="CI32" t="s">
+        <v>314</v>
+      </c>
+      <c r="CJ32" t="s">
+        <v>314</v>
+      </c>
+      <c r="CK32" t="s">
+        <v>314</v>
+      </c>
+      <c r="CL32" t="s">
+        <v>314</v>
+      </c>
+      <c r="CM32" t="s">
+        <v>314</v>
+      </c>
+      <c r="CN32" t="s">
+        <v>314</v>
+      </c>
+      <c r="CO32" t="s">
+        <v>394</v>
+      </c>
+      <c r="CP32" t="s">
+        <v>335</v>
+      </c>
+      <c r="CQ32" t="s">
+        <v>395</v>
+      </c>
+      <c r="CR32" t="s">
+        <v>341</v>
+      </c>
+      <c r="CS32" t="s">
+        <v>396</v>
+      </c>
+      <c r="CT32" t="s">
+        <v>343</v>
+      </c>
+      <c r="CU32" t="s">
+        <v>314</v>
+      </c>
+      <c r="CV32" t="s">
+        <v>335</v>
+      </c>
+      <c r="CW32" t="s">
+        <v>369</v>
+      </c>
+      <c r="CX32" t="s">
+        <v>341</v>
+      </c>
+      <c r="CY32" t="s">
+        <v>342</v>
+      </c>
+      <c r="CZ32" t="s">
+        <v>343</v>
+      </c>
+      <c r="DA32" t="s">
+        <v>314</v>
+      </c>
+      <c r="DB32" t="s">
+        <v>335</v>
+      </c>
+      <c r="DC32" t="s">
+        <v>398</v>
+      </c>
+      <c r="DD32" t="s">
+        <v>399</v>
+      </c>
+      <c r="DE32" t="s">
+        <v>400</v>
+      </c>
+      <c r="DF32" t="s">
+        <v>343</v>
+      </c>
+      <c r="DG32" t="s">
+        <v>314</v>
+      </c>
+      <c r="DH32" t="s">
+        <v>314</v>
+      </c>
+      <c r="DI32" t="s">
+        <v>314</v>
+      </c>
+      <c r="DJ32" t="s">
+        <v>314</v>
+      </c>
+      <c r="DK32" t="s">
+        <v>314</v>
+      </c>
+      <c r="DL32" t="s">
+        <v>314</v>
+      </c>
+      <c r="DM32" t="s">
+        <v>314</v>
+      </c>
+      <c r="DN32" t="s">
+        <v>314</v>
+      </c>
+      <c r="DO32" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="33" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B33" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>339</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>339</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>339</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>339</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>339</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>339</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>339</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>312</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>339</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>339</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>339</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>339</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>339</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>312</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>339</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>357</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>357</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>357</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>357</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>357</v>
+      </c>
+      <c r="AV33" t="s">
+        <v>357</v>
+      </c>
+      <c r="AW33" t="s">
+        <v>362</v>
+      </c>
+      <c r="AX33" t="s">
+        <v>339</v>
+      </c>
+      <c r="AY33" t="s">
+        <v>339</v>
+      </c>
+      <c r="AZ33" t="s">
+        <v>339</v>
+      </c>
+      <c r="BA33" t="s">
+        <v>339</v>
+      </c>
+      <c r="BB33" t="s">
+        <v>339</v>
+      </c>
+      <c r="BC33" t="s">
+        <v>339</v>
+      </c>
+      <c r="BD33" t="s">
+        <v>339</v>
+      </c>
+      <c r="BE33" t="s">
+        <v>339</v>
+      </c>
+      <c r="BF33" t="s">
+        <v>339</v>
+      </c>
+      <c r="BG33" t="s">
+        <v>339</v>
+      </c>
+      <c r="BH33" t="s">
+        <v>339</v>
+      </c>
+      <c r="BI33" t="s">
+        <v>339</v>
+      </c>
+      <c r="BJ33" t="s">
+        <v>339</v>
+      </c>
+      <c r="BN33" t="s">
+        <v>339</v>
+      </c>
+      <c r="BO33" t="s">
+        <v>339</v>
+      </c>
+      <c r="BP33" t="s">
+        <v>312</v>
+      </c>
+      <c r="BQ33" t="s">
+        <v>312</v>
+      </c>
+      <c r="CF33" t="s">
+        <v>312</v>
+      </c>
+      <c r="CG33" t="s">
+        <v>312</v>
+      </c>
+      <c r="CH33" t="s">
+        <v>312</v>
+      </c>
+      <c r="CO33" t="s">
+        <v>312</v>
+      </c>
+      <c r="CP33" t="s">
+        <v>339</v>
+      </c>
+      <c r="CQ33" t="s">
+        <v>312</v>
+      </c>
+      <c r="CR33" t="s">
+        <v>339</v>
+      </c>
+      <c r="CS33" t="s">
+        <v>339</v>
+      </c>
+      <c r="CT33" t="s">
+        <v>339</v>
+      </c>
+      <c r="CU33" t="s">
+        <v>339</v>
+      </c>
+      <c r="CV33" t="s">
+        <v>339</v>
+      </c>
+      <c r="CW33" t="s">
+        <v>339</v>
+      </c>
+      <c r="CX33" t="s">
+        <v>312</v>
+      </c>
+      <c r="CY33" t="s">
+        <v>312</v>
+      </c>
+      <c r="CZ33" t="s">
+        <v>312</v>
+      </c>
+      <c r="DA33" t="s">
+        <v>312</v>
+      </c>
+      <c r="DB33" t="s">
+        <v>312</v>
+      </c>
+      <c r="DC33" t="s">
+        <v>312</v>
+      </c>
+      <c r="DD33" t="s">
+        <v>312</v>
+      </c>
+      <c r="DE33" t="s">
+        <v>312</v>
+      </c>
+      <c r="DF33" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="34" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B34" t="s">
+        <v>313</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>337</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>340</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>340</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>340</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>340</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>340</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>340</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>340</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>313</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>313</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>313</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>313</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>313</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>313</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>313</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>313</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>337</v>
+      </c>
+      <c r="AR34" t="s">
+        <v>337</v>
+      </c>
+      <c r="AS34" t="s">
+        <v>337</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>337</v>
+      </c>
+      <c r="AU34" t="s">
+        <v>337</v>
+      </c>
+      <c r="AV34" t="s">
+        <v>337</v>
+      </c>
+      <c r="AW34" t="s">
+        <v>337</v>
+      </c>
+      <c r="AX34" t="s">
+        <v>340</v>
+      </c>
+      <c r="AY34" t="s">
+        <v>340</v>
+      </c>
+      <c r="AZ34" t="s">
+        <v>313</v>
+      </c>
+      <c r="BA34" t="s">
+        <v>313</v>
+      </c>
+      <c r="BB34" t="s">
+        <v>313</v>
+      </c>
+      <c r="BC34" t="s">
+        <v>313</v>
+      </c>
+      <c r="BD34" t="s">
+        <v>313</v>
+      </c>
+      <c r="BE34" t="s">
+        <v>313</v>
+      </c>
+      <c r="BF34" t="s">
+        <v>340</v>
+      </c>
+      <c r="BG34" t="s">
+        <v>340</v>
+      </c>
+      <c r="BH34" t="s">
+        <v>340</v>
+      </c>
+      <c r="BI34" t="s">
+        <v>313</v>
+      </c>
+      <c r="BJ34" t="s">
+        <v>313</v>
+      </c>
+      <c r="BN34" t="s">
+        <v>313</v>
+      </c>
+      <c r="BO34" t="s">
+        <v>313</v>
+      </c>
+      <c r="BP34" t="s">
+        <v>313</v>
+      </c>
+      <c r="BQ34" t="s">
+        <v>313</v>
+      </c>
+      <c r="CF34" t="s">
+        <v>313</v>
+      </c>
+      <c r="CG34" t="s">
+        <v>313</v>
+      </c>
+      <c r="CH34" t="s">
+        <v>313</v>
+      </c>
+      <c r="CO34" t="s">
+        <v>313</v>
+      </c>
+      <c r="CP34" t="s">
+        <v>313</v>
+      </c>
+      <c r="CQ34" t="s">
+        <v>313</v>
+      </c>
+      <c r="CR34" t="s">
+        <v>313</v>
+      </c>
+      <c r="CS34" t="s">
+        <v>313</v>
+      </c>
+      <c r="CT34" t="s">
+        <v>313</v>
+      </c>
+      <c r="CU34" t="s">
+        <v>313</v>
+      </c>
+      <c r="CV34" t="s">
+        <v>313</v>
+      </c>
+      <c r="CW34" t="s">
+        <v>313</v>
+      </c>
+      <c r="CX34" t="s">
+        <v>313</v>
+      </c>
+      <c r="CY34" t="s">
+        <v>313</v>
+      </c>
+      <c r="CZ34" t="s">
+        <v>313</v>
+      </c>
+      <c r="DA34" t="s">
+        <v>313</v>
+      </c>
+      <c r="DB34" t="s">
+        <v>313</v>
+      </c>
+      <c r="DC34" t="s">
+        <v>313</v>
+      </c>
+      <c r="DD34" t="s">
+        <v>313</v>
+      </c>
+      <c r="DE34" t="s">
+        <v>313</v>
+      </c>
+      <c r="DF34" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="35" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="36" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="E32" t="s">
+      <c r="BR36" t="s">
+        <v>331</v>
+      </c>
+      <c r="BT36" t="s">
+        <v>331</v>
+      </c>
+      <c r="CI36" t="s">
+        <v>331</v>
+      </c>
+      <c r="CJ36" t="s">
+        <v>331</v>
+      </c>
+      <c r="CK36" t="s">
+        <v>331</v>
+      </c>
+      <c r="CL36" t="s">
+        <v>331</v>
+      </c>
+      <c r="CM36" t="s">
+        <v>331</v>
+      </c>
+      <c r="CN36" t="s">
+        <v>331</v>
+      </c>
+      <c r="CU36" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="37" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C37" t="s">
+        <v>315</v>
+      </c>
+      <c r="D37" t="s">
+        <v>315</v>
+      </c>
+      <c r="E37" t="s">
+        <v>315</v>
+      </c>
+      <c r="F37" t="s">
+        <v>315</v>
+      </c>
+      <c r="G37" t="s">
+        <v>315</v>
+      </c>
+      <c r="H37" t="s">
+        <v>315</v>
+      </c>
+      <c r="I37" t="s">
+        <v>315</v>
+      </c>
+      <c r="J37" t="s">
+        <v>315</v>
+      </c>
+      <c r="K37" t="s">
+        <v>315</v>
+      </c>
+      <c r="L37" t="s">
+        <v>315</v>
+      </c>
+      <c r="M37" t="s">
+        <v>315</v>
+      </c>
+      <c r="N37" t="s">
+        <v>315</v>
+      </c>
+      <c r="O37" t="s">
+        <v>315</v>
+      </c>
+      <c r="P37" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>315</v>
+      </c>
+      <c r="R37" t="s">
+        <v>315</v>
+      </c>
+      <c r="S37" t="s">
+        <v>315</v>
+      </c>
+      <c r="T37" t="s">
+        <v>315</v>
+      </c>
+      <c r="U37" t="s">
+        <v>315</v>
+      </c>
+      <c r="V37" t="s">
+        <v>315</v>
+      </c>
+      <c r="W37" t="s">
+        <v>315</v>
+      </c>
+      <c r="X37" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>315</v>
+      </c>
+      <c r="BK37" t="s">
+        <v>315</v>
+      </c>
+      <c r="BL37" t="s">
+        <v>315</v>
+      </c>
+      <c r="BM37" t="s">
+        <v>315</v>
+      </c>
+      <c r="BU37" t="s">
+        <v>320</v>
+      </c>
+      <c r="BW37" t="s">
+        <v>320</v>
+      </c>
+      <c r="BX37" t="s">
+        <v>320</v>
+      </c>
+      <c r="BY37" t="s">
+        <v>320</v>
+      </c>
+      <c r="CI37" t="s">
+        <v>315</v>
+      </c>
+      <c r="CJ37" t="s">
+        <v>315</v>
+      </c>
+      <c r="CK37" t="s">
+        <v>315</v>
+      </c>
+      <c r="CL37" t="s">
+        <v>315</v>
+      </c>
+      <c r="CM37" t="s">
+        <v>315</v>
+      </c>
+      <c r="CN37" t="s">
+        <v>315</v>
+      </c>
+      <c r="DA37" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="38" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C38" t="s">
+        <v>316</v>
+      </c>
+      <c r="D38" t="s">
+        <v>316</v>
+      </c>
+      <c r="E38" t="s">
+        <v>316</v>
+      </c>
+      <c r="F38" t="s">
+        <v>316</v>
+      </c>
+      <c r="G38" t="s">
+        <v>316</v>
+      </c>
+      <c r="H38" t="s">
+        <v>316</v>
+      </c>
+      <c r="I38" t="s">
+        <v>316</v>
+      </c>
+      <c r="J38" t="s">
+        <v>316</v>
+      </c>
+      <c r="K38" t="s">
+        <v>316</v>
+      </c>
+      <c r="L38" t="s">
+        <v>316</v>
+      </c>
+      <c r="M38" t="s">
+        <v>316</v>
+      </c>
+      <c r="N38" t="s">
+        <v>334</v>
+      </c>
+      <c r="O38" t="s">
+        <v>334</v>
+      </c>
+      <c r="P38" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>334</v>
+      </c>
+      <c r="R38" t="s">
+        <v>334</v>
+      </c>
+      <c r="S38" t="s">
+        <v>334</v>
+      </c>
+      <c r="T38" t="s">
+        <v>334</v>
+      </c>
+      <c r="U38" t="s">
+        <v>334</v>
+      </c>
+      <c r="V38" t="s">
+        <v>334</v>
+      </c>
+      <c r="W38" t="s">
+        <v>334</v>
+      </c>
+      <c r="X38" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>334</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>334</v>
+      </c>
+      <c r="AZ38" t="s">
+        <v>364</v>
+      </c>
+      <c r="BA38" t="s">
+        <v>364</v>
+      </c>
+      <c r="BB38" t="s">
+        <v>364</v>
+      </c>
+      <c r="BC38" t="s">
+        <v>364</v>
+      </c>
+      <c r="BD38" t="s">
+        <v>368</v>
+      </c>
+      <c r="BE38" t="s">
+        <v>368</v>
+      </c>
+      <c r="BK38" t="s">
+        <v>371</v>
+      </c>
+      <c r="BL38" t="s">
+        <v>373</v>
+      </c>
+      <c r="BM38" t="s">
+        <v>374</v>
+      </c>
+      <c r="BS38" t="s">
+        <v>364</v>
+      </c>
+      <c r="BU38" t="s">
+        <v>378</v>
+      </c>
+      <c r="BW38" t="s">
+        <v>364</v>
+      </c>
+      <c r="CB38" t="s">
+        <v>383</v>
+      </c>
+      <c r="CC38" t="s">
+        <v>383</v>
+      </c>
+      <c r="CD38" t="s">
+        <v>383</v>
+      </c>
+      <c r="CE38" t="s">
+        <v>383</v>
+      </c>
+      <c r="DA38" t="s">
+        <v>364</v>
+      </c>
+      <c r="DG38" t="s">
+        <v>364</v>
+      </c>
+      <c r="DH38" t="s">
+        <v>364</v>
+      </c>
+      <c r="DI38" t="s">
+        <v>364</v>
+      </c>
+      <c r="DJ38" t="s">
+        <v>364</v>
+      </c>
+      <c r="DK38" t="s">
+        <v>319</v>
+      </c>
+      <c r="DL38" t="s">
+        <v>405</v>
+      </c>
+      <c r="DO38" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="39" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="F32" t="s">
+      <c r="BU39" t="s">
+        <v>379</v>
+      </c>
+      <c r="CU39" t="s">
+        <v>379</v>
+      </c>
+      <c r="DA39" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="40" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="BV40" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="41" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C41" t="s">
+        <v>317</v>
+      </c>
+      <c r="D41" t="s">
+        <v>317</v>
+      </c>
+      <c r="E41" t="s">
+        <v>317</v>
+      </c>
+      <c r="F41" t="s">
+        <v>317</v>
+      </c>
+      <c r="G41" t="s">
+        <v>317</v>
+      </c>
+      <c r="H41" t="s">
+        <v>317</v>
+      </c>
+      <c r="I41" t="s">
+        <v>317</v>
+      </c>
+      <c r="J41" t="s">
+        <v>317</v>
+      </c>
+      <c r="K41" t="s">
+        <v>317</v>
+      </c>
+      <c r="L41" t="s">
+        <v>317</v>
+      </c>
+      <c r="M41" t="s">
+        <v>317</v>
+      </c>
+      <c r="N41" t="s">
+        <v>317</v>
+      </c>
+      <c r="O41" t="s">
+        <v>317</v>
+      </c>
+      <c r="P41" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>317</v>
+      </c>
+      <c r="R41" t="s">
+        <v>317</v>
+      </c>
+      <c r="S41" t="s">
+        <v>317</v>
+      </c>
+      <c r="T41" t="s">
+        <v>317</v>
+      </c>
+      <c r="U41" t="s">
+        <v>317</v>
+      </c>
+      <c r="V41" t="s">
+        <v>317</v>
+      </c>
+      <c r="W41" t="s">
+        <v>317</v>
+      </c>
+      <c r="X41" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>317</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>317</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>349</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>349</v>
+      </c>
+      <c r="AZ41" t="s">
+        <v>352</v>
+      </c>
+      <c r="BA41" t="s">
+        <v>352</v>
+      </c>
+      <c r="BB41" t="s">
+        <v>352</v>
+      </c>
+      <c r="BC41" t="s">
+        <v>352</v>
+      </c>
+      <c r="BD41" t="s">
+        <v>352</v>
+      </c>
+      <c r="BE41" t="s">
+        <v>352</v>
+      </c>
+      <c r="BX41" t="s">
+        <v>380</v>
+      </c>
+      <c r="BY41" t="s">
+        <v>381</v>
+      </c>
+      <c r="CA41" t="s">
+        <v>382</v>
+      </c>
+      <c r="CB41" t="s">
+        <v>384</v>
+      </c>
+      <c r="CC41" t="s">
+        <v>384</v>
+      </c>
+      <c r="CD41" t="s">
+        <v>390</v>
+      </c>
+      <c r="CE41" t="s">
+        <v>390</v>
+      </c>
+      <c r="CI41" t="s">
+        <v>384</v>
+      </c>
+      <c r="CJ41" t="s">
+        <v>390</v>
+      </c>
+      <c r="CK41" t="s">
+        <v>384</v>
+      </c>
+      <c r="CL41" t="s">
+        <v>384</v>
+      </c>
+      <c r="CM41" t="s">
+        <v>390</v>
+      </c>
+      <c r="CN41" t="s">
+        <v>384</v>
+      </c>
+      <c r="DA41" t="s">
+        <v>384</v>
+      </c>
+      <c r="DG41" t="s">
+        <v>382</v>
+      </c>
+      <c r="DH41" t="s">
+        <v>382</v>
+      </c>
+      <c r="DI41" t="s">
+        <v>384</v>
+      </c>
+      <c r="DJ41" t="s">
+        <v>382</v>
+      </c>
+      <c r="DK41" t="s">
+        <v>382</v>
+      </c>
+      <c r="DL41" t="s">
+        <v>382</v>
+      </c>
+      <c r="DM41" t="s">
+        <v>382</v>
+      </c>
+      <c r="DN41" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="42" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="G32" t="s">
+      <c r="BZ42" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="43" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="H32" t="s">
+      <c r="C43" t="s">
+        <v>318</v>
+      </c>
+      <c r="D43" t="s">
+        <v>318</v>
+      </c>
+      <c r="E43" t="s">
+        <v>318</v>
+      </c>
+      <c r="F43" t="s">
+        <v>318</v>
+      </c>
+      <c r="G43" t="s">
+        <v>318</v>
+      </c>
+      <c r="H43" t="s">
+        <v>333</v>
+      </c>
+      <c r="I43" t="s">
+        <v>333</v>
+      </c>
+      <c r="J43" t="s">
+        <v>333</v>
+      </c>
+      <c r="K43" t="s">
+        <v>333</v>
+      </c>
+      <c r="L43" t="s">
+        <v>333</v>
+      </c>
+      <c r="M43" t="s">
+        <v>333</v>
+      </c>
+      <c r="N43" t="s">
+        <v>318</v>
+      </c>
+      <c r="O43" t="s">
+        <v>318</v>
+      </c>
+      <c r="P43" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>318</v>
+      </c>
+      <c r="R43" t="s">
+        <v>318</v>
+      </c>
+      <c r="S43" t="s">
+        <v>318</v>
+      </c>
+      <c r="T43" t="s">
+        <v>333</v>
+      </c>
+      <c r="U43" t="s">
+        <v>333</v>
+      </c>
+      <c r="V43" t="s">
+        <v>333</v>
+      </c>
+      <c r="W43" t="s">
+        <v>333</v>
+      </c>
+      <c r="X43" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>333</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>333</v>
+      </c>
+      <c r="AT43" t="s">
+        <v>359</v>
+      </c>
+      <c r="AZ43" t="s">
+        <v>359</v>
+      </c>
+      <c r="BA43" t="s">
+        <v>359</v>
+      </c>
+      <c r="BB43" t="s">
+        <v>359</v>
+      </c>
+      <c r="BC43" t="s">
+        <v>359</v>
+      </c>
+      <c r="BD43" t="s">
+        <v>359</v>
+      </c>
+      <c r="BE43" t="s">
+        <v>359</v>
+      </c>
+      <c r="CA43" t="s">
+        <v>359</v>
+      </c>
+      <c r="CB43" t="s">
+        <v>318</v>
+      </c>
+      <c r="CC43" t="s">
+        <v>318</v>
+      </c>
+      <c r="CD43" t="s">
+        <v>318</v>
+      </c>
+      <c r="CE43" t="s">
+        <v>318</v>
+      </c>
+      <c r="CI43" t="s">
+        <v>333</v>
+      </c>
+      <c r="CJ43" t="s">
+        <v>333</v>
+      </c>
+      <c r="CK43" t="s">
+        <v>333</v>
+      </c>
+      <c r="CL43" t="s">
+        <v>333</v>
+      </c>
+      <c r="CM43" t="s">
+        <v>333</v>
+      </c>
+      <c r="CN43" t="s">
+        <v>333</v>
+      </c>
+      <c r="DG43" t="s">
+        <v>401</v>
+      </c>
+      <c r="DH43" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="44" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="I32" t="s">
-        <v>252</v>
-      </c>
-      <c r="J32" t="s">
-        <v>252</v>
-      </c>
-      <c r="K32" t="s">
-        <v>256</v>
-      </c>
-      <c r="L32" t="s">
+      <c r="CB44" t="s">
+        <v>385</v>
+      </c>
+      <c r="CC44" t="s">
+        <v>385</v>
+      </c>
+      <c r="CD44" t="s">
+        <v>385</v>
+      </c>
+      <c r="CE44" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="45" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="AM45" t="s">
+        <v>350</v>
+      </c>
+      <c r="AN45" t="s">
+        <v>350</v>
+      </c>
+      <c r="BR45" t="s">
+        <v>350</v>
+      </c>
+      <c r="CU45" t="s">
+        <v>393</v>
+      </c>
+      <c r="DO45" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="46" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="M32" t="s">
+      <c r="AM46" t="s">
+        <v>351</v>
+      </c>
+      <c r="AN46" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="47" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="N32" t="s">
+      <c r="AM47" t="s">
+        <v>352</v>
+      </c>
+      <c r="AN47" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="48" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="O32" t="s">
-        <v>264</v>
-      </c>
-      <c r="P32" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>256</v>
-      </c>
-      <c r="R32" t="s">
+      <c r="C48" t="s">
+        <v>319</v>
+      </c>
+      <c r="D48" t="s">
+        <v>319</v>
+      </c>
+      <c r="E48" t="s">
+        <v>319</v>
+      </c>
+      <c r="F48" t="s">
+        <v>319</v>
+      </c>
+      <c r="G48" t="s">
+        <v>319</v>
+      </c>
+      <c r="H48" t="s">
+        <v>319</v>
+      </c>
+      <c r="I48" t="s">
+        <v>319</v>
+      </c>
+      <c r="J48" t="s">
+        <v>319</v>
+      </c>
+      <c r="K48" t="s">
+        <v>319</v>
+      </c>
+      <c r="L48" t="s">
+        <v>319</v>
+      </c>
+      <c r="M48" t="s">
+        <v>319</v>
+      </c>
+      <c r="N48" t="s">
+        <v>319</v>
+      </c>
+      <c r="O48" t="s">
+        <v>319</v>
+      </c>
+      <c r="P48" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>319</v>
+      </c>
+      <c r="R48" t="s">
+        <v>319</v>
+      </c>
+      <c r="S48" t="s">
+        <v>319</v>
+      </c>
+      <c r="T48" t="s">
+        <v>319</v>
+      </c>
+      <c r="U48" t="s">
+        <v>319</v>
+      </c>
+      <c r="V48" t="s">
+        <v>319</v>
+      </c>
+      <c r="W48" t="s">
+        <v>319</v>
+      </c>
+      <c r="X48" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>319</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>319</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>344</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>344</v>
+      </c>
+      <c r="AT48" t="s">
+        <v>319</v>
+      </c>
+      <c r="AZ48" t="s">
+        <v>365</v>
+      </c>
+      <c r="BA48" t="s">
+        <v>365</v>
+      </c>
+      <c r="BB48" t="s">
+        <v>365</v>
+      </c>
+      <c r="BC48" t="s">
+        <v>365</v>
+      </c>
+      <c r="BD48" t="s">
+        <v>365</v>
+      </c>
+      <c r="BE48" t="s">
+        <v>365</v>
+      </c>
+      <c r="BK48" t="s">
+        <v>372</v>
+      </c>
+      <c r="BL48" t="s">
+        <v>372</v>
+      </c>
+      <c r="BM48" t="s">
+        <v>372</v>
+      </c>
+      <c r="CU48" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="49" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="S32" t="s">
-        <v>262</v>
-      </c>
-      <c r="T32" t="s">
+      <c r="AT49" t="s">
+        <v>353</v>
+      </c>
+      <c r="AZ49" t="s">
+        <v>353</v>
+      </c>
+      <c r="BA49" t="s">
+        <v>353</v>
+      </c>
+      <c r="BB49" t="s">
+        <v>353</v>
+      </c>
+      <c r="BC49" t="s">
+        <v>353</v>
+      </c>
+      <c r="BD49" t="s">
+        <v>353</v>
+      </c>
+      <c r="BE49" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="50" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AT50" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="51" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="U32" t="s">
-        <v>264</v>
-      </c>
-      <c r="V32" t="s">
-        <v>252</v>
-      </c>
-      <c r="W32" t="s">
+      <c r="AZ51" t="s">
+        <v>366</v>
+      </c>
+      <c r="BA51" t="s">
+        <v>366</v>
+      </c>
+      <c r="BB51" t="s">
+        <v>366</v>
+      </c>
+      <c r="BC51" t="s">
+        <v>366</v>
+      </c>
+      <c r="BD51" t="s">
+        <v>366</v>
+      </c>
+      <c r="BE51" t="s">
+        <v>366</v>
+      </c>
+      <c r="CB51" t="s">
+        <v>386</v>
+      </c>
+      <c r="CC51" t="s">
+        <v>379</v>
+      </c>
+      <c r="CD51" t="s">
+        <v>386</v>
+      </c>
+      <c r="CE51" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="52" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C52" t="s">
+        <v>320</v>
+      </c>
+      <c r="D52" t="s">
+        <v>320</v>
+      </c>
+      <c r="E52" t="s">
+        <v>320</v>
+      </c>
+      <c r="F52" t="s">
+        <v>320</v>
+      </c>
+      <c r="G52" t="s">
+        <v>320</v>
+      </c>
+      <c r="H52" t="s">
+        <v>320</v>
+      </c>
+      <c r="I52" t="s">
+        <v>320</v>
+      </c>
+      <c r="J52" t="s">
+        <v>320</v>
+      </c>
+      <c r="K52" t="s">
+        <v>320</v>
+      </c>
+      <c r="L52" t="s">
+        <v>320</v>
+      </c>
+      <c r="M52" t="s">
+        <v>320</v>
+      </c>
+      <c r="N52" t="s">
+        <v>320</v>
+      </c>
+      <c r="O52" t="s">
+        <v>320</v>
+      </c>
+      <c r="P52" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>320</v>
+      </c>
+      <c r="R52" t="s">
+        <v>320</v>
+      </c>
+      <c r="S52" t="s">
+        <v>320</v>
+      </c>
+      <c r="T52" t="s">
+        <v>320</v>
+      </c>
+      <c r="U52" t="s">
+        <v>320</v>
+      </c>
+      <c r="V52" t="s">
+        <v>320</v>
+      </c>
+      <c r="W52" t="s">
+        <v>320</v>
+      </c>
+      <c r="X52" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>320</v>
+      </c>
+      <c r="AZ52" t="s">
+        <v>320</v>
+      </c>
+      <c r="BA52" t="s">
+        <v>320</v>
+      </c>
+      <c r="BB52" t="s">
+        <v>320</v>
+      </c>
+      <c r="BC52" t="s">
+        <v>320</v>
+      </c>
+      <c r="BD52" t="s">
+        <v>320</v>
+      </c>
+      <c r="BE52" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="53" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="X32" t="s">
+      <c r="AZ53" t="s">
+        <v>330</v>
+      </c>
+      <c r="BA53" t="s">
+        <v>330</v>
+      </c>
+      <c r="BB53" t="s">
+        <v>330</v>
+      </c>
+      <c r="BC53" t="s">
+        <v>330</v>
+      </c>
+      <c r="BD53" t="s">
+        <v>330</v>
+      </c>
+      <c r="BE53" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="54" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="Y32" t="s">
-        <v>262</v>
-      </c>
-      <c r="Z32" t="s">
+      <c r="AZ54" t="s">
+        <v>367</v>
+      </c>
+      <c r="BA54" t="s">
+        <v>367</v>
+      </c>
+      <c r="BB54" t="s">
+        <v>367</v>
+      </c>
+      <c r="BC54" t="s">
+        <v>367</v>
+      </c>
+      <c r="BD54" t="s">
+        <v>367</v>
+      </c>
+      <c r="BE54" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="55" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C55" t="s">
+        <v>321</v>
+      </c>
+      <c r="D55" t="s">
+        <v>321</v>
+      </c>
+      <c r="E55" t="s">
+        <v>321</v>
+      </c>
+      <c r="F55" t="s">
+        <v>321</v>
+      </c>
+      <c r="G55" t="s">
+        <v>321</v>
+      </c>
+      <c r="H55" t="s">
+        <v>321</v>
+      </c>
+      <c r="I55" t="s">
+        <v>321</v>
+      </c>
+      <c r="J55" t="s">
+        <v>321</v>
+      </c>
+      <c r="K55" t="s">
+        <v>321</v>
+      </c>
+      <c r="L55" t="s">
+        <v>321</v>
+      </c>
+      <c r="M55" t="s">
+        <v>321</v>
+      </c>
+      <c r="N55" t="s">
+        <v>321</v>
+      </c>
+      <c r="O55" t="s">
+        <v>321</v>
+      </c>
+      <c r="P55" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>321</v>
+      </c>
+      <c r="R55" t="s">
+        <v>321</v>
+      </c>
+      <c r="S55" t="s">
+        <v>321</v>
+      </c>
+      <c r="T55" t="s">
+        <v>321</v>
+      </c>
+      <c r="U55" t="s">
+        <v>321</v>
+      </c>
+      <c r="V55" t="s">
+        <v>321</v>
+      </c>
+      <c r="W55" t="s">
+        <v>321</v>
+      </c>
+      <c r="X55" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>321</v>
+      </c>
+      <c r="AM55" t="s">
+        <v>353</v>
+      </c>
+      <c r="AN55" t="s">
+        <v>353</v>
+      </c>
+      <c r="CI55" t="s">
+        <v>321</v>
+      </c>
+      <c r="CJ55" t="s">
+        <v>321</v>
+      </c>
+      <c r="CK55" t="s">
+        <v>321</v>
+      </c>
+      <c r="CL55" t="s">
+        <v>321</v>
+      </c>
+      <c r="CM55" t="s">
+        <v>321</v>
+      </c>
+      <c r="CN55" t="s">
+        <v>321</v>
+      </c>
+      <c r="CU55" t="s">
+        <v>321</v>
+      </c>
+      <c r="DA55" t="s">
+        <v>321</v>
+      </c>
+      <c r="DG55" t="s">
+        <v>321</v>
+      </c>
+      <c r="DH55" t="s">
+        <v>321</v>
+      </c>
+      <c r="DI55" t="s">
+        <v>353</v>
+      </c>
+      <c r="DO55" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="56" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="AA32" t="s">
-        <v>264</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>252</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>252</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>256</v>
-      </c>
-      <c r="AE32" t="s">
+      <c r="C56" t="s">
+        <v>322</v>
+      </c>
+      <c r="D56" t="s">
+        <v>322</v>
+      </c>
+      <c r="E56" t="s">
+        <v>322</v>
+      </c>
+      <c r="F56" t="s">
+        <v>322</v>
+      </c>
+      <c r="G56" t="s">
+        <v>322</v>
+      </c>
+      <c r="H56" t="s">
+        <v>322</v>
+      </c>
+      <c r="I56" t="s">
+        <v>322</v>
+      </c>
+      <c r="J56" t="s">
+        <v>322</v>
+      </c>
+      <c r="K56" t="s">
+        <v>322</v>
+      </c>
+      <c r="L56" t="s">
+        <v>322</v>
+      </c>
+      <c r="M56" t="s">
+        <v>322</v>
+      </c>
+      <c r="N56" t="s">
+        <v>322</v>
+      </c>
+      <c r="O56" t="s">
+        <v>322</v>
+      </c>
+      <c r="P56" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>322</v>
+      </c>
+      <c r="R56" t="s">
+        <v>322</v>
+      </c>
+      <c r="S56" t="s">
+        <v>322</v>
+      </c>
+      <c r="T56" t="s">
+        <v>322</v>
+      </c>
+      <c r="U56" t="s">
+        <v>322</v>
+      </c>
+      <c r="V56" t="s">
+        <v>322</v>
+      </c>
+      <c r="W56" t="s">
+        <v>322</v>
+      </c>
+      <c r="X56" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="57" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C57" t="s">
+        <v>323</v>
+      </c>
+      <c r="D57" t="s">
+        <v>323</v>
+      </c>
+      <c r="E57" t="s">
+        <v>323</v>
+      </c>
+      <c r="F57" t="s">
+        <v>323</v>
+      </c>
+      <c r="G57" t="s">
+        <v>323</v>
+      </c>
+      <c r="H57" t="s">
+        <v>323</v>
+      </c>
+      <c r="I57" t="s">
+        <v>323</v>
+      </c>
+      <c r="J57" t="s">
+        <v>323</v>
+      </c>
+      <c r="K57" t="s">
+        <v>323</v>
+      </c>
+      <c r="L57" t="s">
+        <v>323</v>
+      </c>
+      <c r="M57" t="s">
+        <v>323</v>
+      </c>
+      <c r="N57" t="s">
+        <v>323</v>
+      </c>
+      <c r="O57" t="s">
+        <v>323</v>
+      </c>
+      <c r="P57" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>323</v>
+      </c>
+      <c r="R57" t="s">
+        <v>323</v>
+      </c>
+      <c r="S57" t="s">
+        <v>323</v>
+      </c>
+      <c r="T57" t="s">
+        <v>323</v>
+      </c>
+      <c r="U57" t="s">
+        <v>323</v>
+      </c>
+      <c r="V57" t="s">
+        <v>323</v>
+      </c>
+      <c r="W57" t="s">
+        <v>323</v>
+      </c>
+      <c r="X57" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>323</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="58" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C58" t="s">
+        <v>322</v>
+      </c>
+      <c r="D58" t="s">
+        <v>322</v>
+      </c>
+      <c r="E58" t="s">
+        <v>322</v>
+      </c>
+      <c r="F58" t="s">
+        <v>322</v>
+      </c>
+      <c r="G58" t="s">
+        <v>322</v>
+      </c>
+      <c r="H58" t="s">
+        <v>322</v>
+      </c>
+      <c r="I58" t="s">
+        <v>322</v>
+      </c>
+      <c r="J58" t="s">
+        <v>322</v>
+      </c>
+      <c r="K58" t="s">
+        <v>322</v>
+      </c>
+      <c r="L58" t="s">
+        <v>322</v>
+      </c>
+      <c r="M58" t="s">
+        <v>322</v>
+      </c>
+      <c r="N58" t="s">
+        <v>322</v>
+      </c>
+      <c r="O58" t="s">
+        <v>322</v>
+      </c>
+      <c r="P58" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>322</v>
+      </c>
+      <c r="R58" t="s">
+        <v>322</v>
+      </c>
+      <c r="S58" t="s">
+        <v>322</v>
+      </c>
+      <c r="T58" t="s">
+        <v>322</v>
+      </c>
+      <c r="U58" t="s">
+        <v>322</v>
+      </c>
+      <c r="V58" t="s">
+        <v>322</v>
+      </c>
+      <c r="W58" t="s">
+        <v>322</v>
+      </c>
+      <c r="X58" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>322</v>
+      </c>
+      <c r="AM58" t="s">
+        <v>322</v>
+      </c>
+      <c r="AN58" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="59" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="AF32" t="s">
-        <v>262</v>
-      </c>
-      <c r="AG32" t="s">
-        <v>263</v>
-      </c>
-      <c r="AH32" t="s">
+      <c r="C59" t="s">
+        <v>324</v>
+      </c>
+      <c r="D59" t="s">
+        <v>324</v>
+      </c>
+      <c r="E59" t="s">
+        <v>324</v>
+      </c>
+      <c r="F59" t="s">
+        <v>324</v>
+      </c>
+      <c r="G59" t="s">
+        <v>324</v>
+      </c>
+      <c r="H59" t="s">
+        <v>324</v>
+      </c>
+      <c r="I59" t="s">
+        <v>324</v>
+      </c>
+      <c r="J59" t="s">
+        <v>324</v>
+      </c>
+      <c r="K59" t="s">
+        <v>324</v>
+      </c>
+      <c r="L59" t="s">
+        <v>324</v>
+      </c>
+      <c r="M59" t="s">
+        <v>324</v>
+      </c>
+      <c r="N59" t="s">
+        <v>324</v>
+      </c>
+      <c r="O59" t="s">
+        <v>324</v>
+      </c>
+      <c r="P59" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>324</v>
+      </c>
+      <c r="R59" t="s">
+        <v>324</v>
+      </c>
+      <c r="S59" t="s">
+        <v>324</v>
+      </c>
+      <c r="T59" t="s">
+        <v>324</v>
+      </c>
+      <c r="U59" t="s">
+        <v>324</v>
+      </c>
+      <c r="V59" t="s">
+        <v>324</v>
+      </c>
+      <c r="W59" t="s">
+        <v>324</v>
+      </c>
+      <c r="X59" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>324</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="60" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="AI32" t="s">
-        <v>252</v>
-      </c>
-      <c r="AJ32" t="s">
-        <v>252</v>
-      </c>
-      <c r="AK32" t="s">
+      <c r="C60" t="s">
+        <v>325</v>
+      </c>
+      <c r="D60" t="s">
+        <v>325</v>
+      </c>
+      <c r="E60" t="s">
+        <v>325</v>
+      </c>
+      <c r="F60" t="s">
+        <v>325</v>
+      </c>
+      <c r="G60" t="s">
+        <v>325</v>
+      </c>
+      <c r="H60" t="s">
+        <v>325</v>
+      </c>
+      <c r="I60" t="s">
+        <v>325</v>
+      </c>
+      <c r="J60" t="s">
+        <v>325</v>
+      </c>
+      <c r="K60" t="s">
+        <v>325</v>
+      </c>
+      <c r="L60" t="s">
+        <v>325</v>
+      </c>
+      <c r="M60" t="s">
+        <v>325</v>
+      </c>
+      <c r="N60" t="s">
+        <v>325</v>
+      </c>
+      <c r="O60" t="s">
+        <v>325</v>
+      </c>
+      <c r="P60" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>325</v>
+      </c>
+      <c r="R60" t="s">
+        <v>325</v>
+      </c>
+      <c r="S60" t="s">
+        <v>325</v>
+      </c>
+      <c r="T60" t="s">
+        <v>325</v>
+      </c>
+      <c r="U60" t="s">
+        <v>325</v>
+      </c>
+      <c r="V60" t="s">
+        <v>325</v>
+      </c>
+      <c r="W60" t="s">
+        <v>325</v>
+      </c>
+      <c r="X60" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="61" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C61" t="s">
+        <v>326</v>
+      </c>
+      <c r="D61" t="s">
+        <v>326</v>
+      </c>
+      <c r="E61" t="s">
+        <v>326</v>
+      </c>
+      <c r="F61" t="s">
+        <v>326</v>
+      </c>
+      <c r="G61" t="s">
+        <v>326</v>
+      </c>
+      <c r="H61" t="s">
+        <v>326</v>
+      </c>
+      <c r="I61" t="s">
+        <v>326</v>
+      </c>
+      <c r="J61" t="s">
+        <v>326</v>
+      </c>
+      <c r="K61" t="s">
+        <v>326</v>
+      </c>
+      <c r="L61" t="s">
+        <v>326</v>
+      </c>
+      <c r="M61" t="s">
+        <v>326</v>
+      </c>
+      <c r="N61" t="s">
+        <v>326</v>
+      </c>
+      <c r="O61" t="s">
+        <v>326</v>
+      </c>
+      <c r="P61" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>326</v>
+      </c>
+      <c r="R61" t="s">
+        <v>326</v>
+      </c>
+      <c r="S61" t="s">
+        <v>326</v>
+      </c>
+      <c r="T61" t="s">
+        <v>326</v>
+      </c>
+      <c r="U61" t="s">
+        <v>326</v>
+      </c>
+      <c r="V61" t="s">
+        <v>326</v>
+      </c>
+      <c r="W61" t="s">
+        <v>326</v>
+      </c>
+      <c r="X61" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>326</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>326</v>
+      </c>
+      <c r="CI61" t="s">
+        <v>326</v>
+      </c>
+      <c r="CJ61" t="s">
+        <v>326</v>
+      </c>
+      <c r="CK61" t="s">
+        <v>326</v>
+      </c>
+      <c r="CL61" t="s">
+        <v>326</v>
+      </c>
+      <c r="CM61" t="s">
+        <v>326</v>
+      </c>
+      <c r="CN61" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="62" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C62" t="s">
+        <v>327</v>
+      </c>
+      <c r="D62" t="s">
+        <v>327</v>
+      </c>
+      <c r="E62" t="s">
+        <v>327</v>
+      </c>
+      <c r="F62" t="s">
+        <v>327</v>
+      </c>
+      <c r="G62" t="s">
+        <v>327</v>
+      </c>
+      <c r="H62" t="s">
+        <v>327</v>
+      </c>
+      <c r="I62" t="s">
+        <v>327</v>
+      </c>
+      <c r="J62" t="s">
+        <v>327</v>
+      </c>
+      <c r="K62" t="s">
+        <v>327</v>
+      </c>
+      <c r="L62" t="s">
+        <v>327</v>
+      </c>
+      <c r="M62" t="s">
+        <v>327</v>
+      </c>
+      <c r="N62" t="s">
+        <v>327</v>
+      </c>
+      <c r="O62" t="s">
+        <v>327</v>
+      </c>
+      <c r="P62" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>327</v>
+      </c>
+      <c r="R62" t="s">
+        <v>327</v>
+      </c>
+      <c r="S62" t="s">
+        <v>327</v>
+      </c>
+      <c r="T62" t="s">
+        <v>327</v>
+      </c>
+      <c r="U62" t="s">
+        <v>327</v>
+      </c>
+      <c r="V62" t="s">
+        <v>327</v>
+      </c>
+      <c r="W62" t="s">
+        <v>327</v>
+      </c>
+      <c r="X62" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>327</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="63" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C63" t="s">
+        <v>328</v>
+      </c>
+      <c r="D63" t="s">
+        <v>328</v>
+      </c>
+      <c r="E63" t="s">
+        <v>332</v>
+      </c>
+      <c r="F63" t="s">
+        <v>328</v>
+      </c>
+      <c r="G63" t="s">
+        <v>328</v>
+      </c>
+      <c r="H63" t="s">
+        <v>332</v>
+      </c>
+      <c r="I63" t="s">
+        <v>328</v>
+      </c>
+      <c r="J63" t="s">
+        <v>328</v>
+      </c>
+      <c r="K63" t="s">
+        <v>332</v>
+      </c>
+      <c r="L63" t="s">
+        <v>328</v>
+      </c>
+      <c r="M63" t="s">
+        <v>328</v>
+      </c>
+      <c r="N63" t="s">
+        <v>332</v>
+      </c>
+      <c r="O63" t="s">
+        <v>328</v>
+      </c>
+      <c r="P63" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>332</v>
+      </c>
+      <c r="R63" t="s">
+        <v>328</v>
+      </c>
+      <c r="S63" t="s">
+        <v>328</v>
+      </c>
+      <c r="T63" t="s">
+        <v>328</v>
+      </c>
+      <c r="U63" t="s">
+        <v>328</v>
+      </c>
+      <c r="V63" t="s">
+        <v>332</v>
+      </c>
+      <c r="W63" t="s">
+        <v>328</v>
+      </c>
+      <c r="X63" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>328</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="64" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="AL32" t="s">
-        <v>256</v>
-      </c>
-      <c r="AM32" t="s">
+      <c r="AF64" t="s">
+        <v>345</v>
+      </c>
+      <c r="AG64" t="s">
+        <v>345</v>
+      </c>
+      <c r="DG64" t="s">
+        <v>367</v>
+      </c>
+      <c r="DH64" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="65" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="AN32" t="s">
-        <v>262</v>
-      </c>
-      <c r="AO32" t="s">
-        <v>252</v>
-      </c>
-      <c r="AP32" t="s">
-        <v>252</v>
-      </c>
-      <c r="AQ32" t="s">
-        <v>252</v>
-      </c>
-      <c r="AR32" t="s">
-        <v>252</v>
-      </c>
-      <c r="AS32" t="s">
+      <c r="AF65" t="s">
+        <v>318</v>
+      </c>
+      <c r="AG65" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="66" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="AM66" t="s">
+        <v>354</v>
+      </c>
+      <c r="AN66" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="67" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C67" t="s">
+        <v>320</v>
+      </c>
+      <c r="D67" t="s">
+        <v>320</v>
+      </c>
+      <c r="E67" t="s">
+        <v>320</v>
+      </c>
+      <c r="F67" t="s">
+        <v>320</v>
+      </c>
+      <c r="G67" t="s">
+        <v>320</v>
+      </c>
+      <c r="H67" t="s">
+        <v>320</v>
+      </c>
+      <c r="I67" t="s">
+        <v>320</v>
+      </c>
+      <c r="J67" t="s">
+        <v>320</v>
+      </c>
+      <c r="K67" t="s">
+        <v>320</v>
+      </c>
+      <c r="L67" t="s">
+        <v>320</v>
+      </c>
+      <c r="M67" t="s">
+        <v>320</v>
+      </c>
+      <c r="N67" t="s">
+        <v>320</v>
+      </c>
+      <c r="O67" t="s">
+        <v>320</v>
+      </c>
+      <c r="P67" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>320</v>
+      </c>
+      <c r="R67" t="s">
+        <v>320</v>
+      </c>
+      <c r="S67" t="s">
+        <v>320</v>
+      </c>
+      <c r="T67" t="s">
+        <v>320</v>
+      </c>
+      <c r="U67" t="s">
+        <v>320</v>
+      </c>
+      <c r="V67" t="s">
+        <v>320</v>
+      </c>
+      <c r="W67" t="s">
+        <v>320</v>
+      </c>
+      <c r="X67" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>320</v>
+      </c>
+      <c r="BR67" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="68" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C68" t="s">
+        <v>329</v>
+      </c>
+      <c r="D68" t="s">
+        <v>329</v>
+      </c>
+      <c r="E68" t="s">
+        <v>329</v>
+      </c>
+      <c r="F68" t="s">
+        <v>329</v>
+      </c>
+      <c r="G68" t="s">
+        <v>329</v>
+      </c>
+      <c r="H68" t="s">
+        <v>329</v>
+      </c>
+      <c r="I68" t="s">
+        <v>329</v>
+      </c>
+      <c r="J68" t="s">
+        <v>329</v>
+      </c>
+      <c r="K68" t="s">
+        <v>329</v>
+      </c>
+      <c r="L68" t="s">
+        <v>329</v>
+      </c>
+      <c r="M68" t="s">
+        <v>329</v>
+      </c>
+      <c r="N68" t="s">
+        <v>329</v>
+      </c>
+      <c r="O68" t="s">
+        <v>329</v>
+      </c>
+      <c r="P68" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>329</v>
+      </c>
+      <c r="R68" t="s">
+        <v>329</v>
+      </c>
+      <c r="S68" t="s">
+        <v>329</v>
+      </c>
+      <c r="T68" t="s">
+        <v>329</v>
+      </c>
+      <c r="U68" t="s">
+        <v>329</v>
+      </c>
+      <c r="V68" t="s">
+        <v>329</v>
+      </c>
+      <c r="W68" t="s">
+        <v>329</v>
+      </c>
+      <c r="X68" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>329</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="69" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="AT32" t="s">
-        <v>263</v>
-      </c>
-      <c r="AU32" t="s">
+      <c r="C69" t="s">
+        <v>330</v>
+      </c>
+      <c r="D69" t="s">
+        <v>330</v>
+      </c>
+      <c r="E69" t="s">
+        <v>330</v>
+      </c>
+      <c r="F69" t="s">
+        <v>330</v>
+      </c>
+      <c r="G69" t="s">
+        <v>330</v>
+      </c>
+      <c r="H69" t="s">
+        <v>330</v>
+      </c>
+      <c r="I69" t="s">
+        <v>330</v>
+      </c>
+      <c r="J69" t="s">
+        <v>330</v>
+      </c>
+      <c r="K69" t="s">
+        <v>330</v>
+      </c>
+      <c r="L69" t="s">
+        <v>330</v>
+      </c>
+      <c r="M69" t="s">
+        <v>330</v>
+      </c>
+      <c r="N69" t="s">
+        <v>330</v>
+      </c>
+      <c r="O69" t="s">
+        <v>330</v>
+      </c>
+      <c r="P69" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>330</v>
+      </c>
+      <c r="R69" t="s">
+        <v>330</v>
+      </c>
+      <c r="S69" t="s">
+        <v>330</v>
+      </c>
+      <c r="T69" t="s">
+        <v>330</v>
+      </c>
+      <c r="U69" t="s">
+        <v>330</v>
+      </c>
+      <c r="V69" t="s">
+        <v>330</v>
+      </c>
+      <c r="W69" t="s">
+        <v>330</v>
+      </c>
+      <c r="X69" t="s">
+        <v>330</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>330</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>330</v>
+      </c>
+      <c r="CU69" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="70" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="AV32" t="s">
-        <v>252</v>
-      </c>
-      <c r="AW32" t="s">
+      <c r="C70" t="s">
+        <v>331</v>
+      </c>
+      <c r="D70" t="s">
+        <v>331</v>
+      </c>
+      <c r="E70" t="s">
+        <v>331</v>
+      </c>
+      <c r="F70" t="s">
+        <v>331</v>
+      </c>
+      <c r="G70" t="s">
+        <v>331</v>
+      </c>
+      <c r="H70" t="s">
+        <v>331</v>
+      </c>
+      <c r="I70" t="s">
+        <v>331</v>
+      </c>
+      <c r="J70" t="s">
+        <v>331</v>
+      </c>
+      <c r="K70" t="s">
+        <v>331</v>
+      </c>
+      <c r="L70" t="s">
+        <v>331</v>
+      </c>
+      <c r="M70" t="s">
+        <v>331</v>
+      </c>
+      <c r="N70" t="s">
+        <v>331</v>
+      </c>
+      <c r="O70" t="s">
+        <v>331</v>
+      </c>
+      <c r="P70" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>331</v>
+      </c>
+      <c r="R70" t="s">
+        <v>331</v>
+      </c>
+      <c r="S70" t="s">
+        <v>331</v>
+      </c>
+      <c r="T70" t="s">
+        <v>331</v>
+      </c>
+      <c r="U70" t="s">
+        <v>331</v>
+      </c>
+      <c r="V70" t="s">
+        <v>331</v>
+      </c>
+      <c r="W70" t="s">
+        <v>331</v>
+      </c>
+      <c r="X70" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>331</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>331</v>
+      </c>
+      <c r="DM70" t="s">
+        <v>331</v>
+      </c>
+      <c r="DN70" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="71" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="AX32" t="s">
-        <v>256</v>
-      </c>
-      <c r="AY32" t="s">
+      <c r="BR71" t="s">
+        <v>377</v>
+      </c>
+      <c r="DI71" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="72" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="AZ32" t="s">
-        <v>262</v>
-      </c>
-      <c r="BA32" t="s">
+      <c r="DJ72" t="s">
+        <v>404</v>
+      </c>
+      <c r="DK72" t="s">
+        <v>404</v>
+      </c>
+      <c r="DL72" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="73" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="BB32" t="s">
-        <v>264</v>
-      </c>
-      <c r="BC32" t="s">
-        <v>252</v>
-      </c>
-      <c r="BD32" t="s">
-        <v>256</v>
-      </c>
-      <c r="BE32" t="s">
-        <v>279</v>
-      </c>
-      <c r="BF32" t="s">
-        <v>262</v>
-      </c>
-      <c r="BG32" t="s">
-        <v>263</v>
-      </c>
-      <c r="BH32" t="s">
-        <v>264</v>
-      </c>
-      <c r="BI32" t="s">
-        <v>252</v>
-      </c>
-      <c r="BJ32" t="s">
-        <v>256</v>
-      </c>
-      <c r="BK32" t="s">
+      <c r="DJ73" t="s">
+        <v>332</v>
+      </c>
+      <c r="DK73" t="s">
+        <v>332</v>
+      </c>
+      <c r="DL73" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="74" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="BL32" t="s">
+      <c r="DM74" t="s">
+        <v>326</v>
+      </c>
+      <c r="DN74" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="75" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="BM32" t="s">
+      <c r="CB75" t="s">
+        <v>387</v>
+      </c>
+      <c r="CC75" t="s">
+        <v>387</v>
+      </c>
+      <c r="CD75" t="s">
+        <v>387</v>
+      </c>
+      <c r="CE75" t="s">
+        <v>387</v>
+      </c>
+      <c r="DM75" t="s">
+        <v>387</v>
+      </c>
+      <c r="DN75" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="76" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="BN32" t="s">
-        <v>264</v>
-      </c>
-      <c r="BO32" t="s">
-        <v>252</v>
-      </c>
-      <c r="BP32" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="33" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B33" t="s">
-        <v>250</v>
-      </c>
-      <c r="D33" t="s">
-        <v>257</v>
-      </c>
-      <c r="E33" t="s">
-        <v>260</v>
-      </c>
-      <c r="F33" t="s">
-        <v>260</v>
-      </c>
-      <c r="G33" t="s">
-        <v>260</v>
-      </c>
-      <c r="H33" t="s">
-        <v>260</v>
-      </c>
-      <c r="I33" t="s">
-        <v>260</v>
-      </c>
-      <c r="J33" t="s">
-        <v>260</v>
-      </c>
-      <c r="K33" t="s">
-        <v>260</v>
-      </c>
-      <c r="L33" t="s">
-        <v>250</v>
-      </c>
-      <c r="M33" t="s">
-        <v>260</v>
-      </c>
-      <c r="N33" t="s">
-        <v>260</v>
-      </c>
-      <c r="O33" t="s">
-        <v>260</v>
-      </c>
-      <c r="P33" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>250</v>
-      </c>
-      <c r="R33" t="s">
-        <v>260</v>
-      </c>
-      <c r="S33" t="s">
-        <v>270</v>
-      </c>
-      <c r="T33" t="s">
-        <v>270</v>
-      </c>
-      <c r="U33" t="s">
-        <v>270</v>
-      </c>
-      <c r="V33" t="s">
-        <v>270</v>
-      </c>
-      <c r="W33" t="s">
-        <v>270</v>
-      </c>
-      <c r="X33" t="s">
-        <v>270</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>275</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AK33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AL33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AM33" t="s">
-        <v>250</v>
-      </c>
-      <c r="AN33" t="s">
-        <v>250</v>
-      </c>
-      <c r="AS33" t="s">
-        <v>250</v>
-      </c>
-      <c r="AT33" t="s">
-        <v>250</v>
-      </c>
-      <c r="AU33" t="s">
-        <v>250</v>
-      </c>
-      <c r="AW33" t="s">
-        <v>250</v>
-      </c>
-      <c r="AX33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AY33" t="s">
-        <v>250</v>
-      </c>
-      <c r="AZ33" t="s">
-        <v>260</v>
-      </c>
-      <c r="BA33" t="s">
-        <v>260</v>
-      </c>
-      <c r="BB33" t="s">
-        <v>260</v>
-      </c>
-      <c r="BC33" t="s">
-        <v>260</v>
-      </c>
-      <c r="BD33" t="s">
-        <v>260</v>
-      </c>
-      <c r="BE33" t="s">
-        <v>260</v>
-      </c>
-      <c r="BF33" t="s">
-        <v>250</v>
-      </c>
-      <c r="BG33" t="s">
-        <v>250</v>
-      </c>
-      <c r="BH33" t="s">
-        <v>250</v>
-      </c>
-      <c r="BI33" t="s">
-        <v>250</v>
-      </c>
-      <c r="BJ33" t="s">
-        <v>250</v>
-      </c>
-      <c r="BK33" t="s">
-        <v>250</v>
-      </c>
-      <c r="BL33" t="s">
-        <v>250</v>
-      </c>
-      <c r="BM33" t="s">
-        <v>250</v>
-      </c>
-      <c r="BN33" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="34" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B34" t="s">
-        <v>251</v>
-      </c>
-      <c r="D34" t="s">
-        <v>258</v>
-      </c>
-      <c r="E34" t="s">
-        <v>261</v>
-      </c>
-      <c r="F34" t="s">
-        <v>261</v>
-      </c>
-      <c r="G34" t="s">
-        <v>261</v>
-      </c>
-      <c r="H34" t="s">
-        <v>261</v>
-      </c>
-      <c r="I34" t="s">
-        <v>261</v>
-      </c>
-      <c r="J34" t="s">
-        <v>261</v>
-      </c>
-      <c r="K34" t="s">
-        <v>261</v>
-      </c>
-      <c r="L34" t="s">
-        <v>251</v>
-      </c>
-      <c r="M34" t="s">
-        <v>251</v>
-      </c>
-      <c r="N34" t="s">
-        <v>251</v>
-      </c>
-      <c r="O34" t="s">
-        <v>251</v>
-      </c>
-      <c r="P34" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>251</v>
-      </c>
-      <c r="R34" t="s">
-        <v>251</v>
-      </c>
-      <c r="S34" t="s">
-        <v>258</v>
-      </c>
-      <c r="T34" t="s">
-        <v>258</v>
-      </c>
-      <c r="U34" t="s">
-        <v>258</v>
-      </c>
-      <c r="V34" t="s">
-        <v>258</v>
-      </c>
-      <c r="W34" t="s">
-        <v>258</v>
-      </c>
-      <c r="X34" t="s">
-        <v>258</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>258</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>261</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>261</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>251</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>251</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>261</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>261</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>261</v>
-      </c>
-      <c r="AG34" t="s">
-        <v>251</v>
-      </c>
-      <c r="AH34" t="s">
-        <v>251</v>
-      </c>
-      <c r="AK34" t="s">
-        <v>251</v>
-      </c>
-      <c r="AL34" t="s">
-        <v>251</v>
-      </c>
-      <c r="AM34" t="s">
-        <v>251</v>
-      </c>
-      <c r="AN34" t="s">
-        <v>251</v>
-      </c>
-      <c r="AS34" t="s">
-        <v>251</v>
-      </c>
-      <c r="AT34" t="s">
-        <v>251</v>
-      </c>
-      <c r="AU34" t="s">
-        <v>251</v>
-      </c>
-      <c r="AW34" t="s">
-        <v>251</v>
-      </c>
-      <c r="AX34" t="s">
-        <v>251</v>
-      </c>
-      <c r="AY34" t="s">
-        <v>251</v>
-      </c>
-      <c r="AZ34" t="s">
-        <v>251</v>
-      </c>
-      <c r="BA34" t="s">
-        <v>251</v>
-      </c>
-      <c r="BB34" t="s">
-        <v>251</v>
-      </c>
-      <c r="BC34" t="s">
-        <v>251</v>
-      </c>
-      <c r="BD34" t="s">
-        <v>251</v>
-      </c>
-      <c r="BE34" t="s">
-        <v>251</v>
-      </c>
-      <c r="BF34" t="s">
-        <v>251</v>
-      </c>
-      <c r="BG34" t="s">
-        <v>251</v>
-      </c>
-      <c r="BH34" t="s">
-        <v>251</v>
-      </c>
-      <c r="BI34" t="s">
-        <v>251</v>
-      </c>
-      <c r="BJ34" t="s">
-        <v>251</v>
-      </c>
-      <c r="BK34" t="s">
-        <v>251</v>
-      </c>
-      <c r="BL34" t="s">
-        <v>251</v>
-      </c>
-      <c r="BM34" t="s">
-        <v>251</v>
-      </c>
-      <c r="BN34" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="35" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="36" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C36" t="s">
-        <v>253</v>
-      </c>
-      <c r="V36" t="s">
-        <v>272</v>
-      </c>
-      <c r="AB36" t="s">
-        <v>272</v>
-      </c>
-      <c r="AC36" t="s">
-        <v>272</v>
-      </c>
-      <c r="AI36" t="s">
-        <v>253</v>
-      </c>
-      <c r="AJ36" t="s">
-        <v>253</v>
-      </c>
-      <c r="AO36" t="s">
-        <v>286</v>
-      </c>
-      <c r="AP36" t="s">
-        <v>286</v>
-      </c>
-      <c r="AQ36" t="s">
-        <v>286</v>
-      </c>
-      <c r="AV36" t="s">
-        <v>253</v>
-      </c>
-      <c r="BI36" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="37" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C37" t="s">
-        <v>254</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>277</v>
-      </c>
-      <c r="AC37" t="s">
-        <v>277</v>
-      </c>
-      <c r="AI37" t="s">
-        <v>281</v>
-      </c>
-      <c r="AJ37" t="s">
-        <v>283</v>
-      </c>
-      <c r="AO37" t="s">
-        <v>287</v>
-      </c>
-      <c r="AR37" t="s">
-        <v>288</v>
-      </c>
-      <c r="BO37" t="s">
+      <c r="DO76" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="77" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="BP37" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="38" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C38" t="s">
-        <v>255</v>
-      </c>
-      <c r="I38" t="s">
-        <v>265</v>
-      </c>
-      <c r="J38" t="s">
-        <v>265</v>
-      </c>
-      <c r="V38" t="s">
-        <v>255</v>
-      </c>
-      <c r="AB38" t="s">
-        <v>278</v>
-      </c>
-      <c r="AC38" t="s">
-        <v>278</v>
-      </c>
-      <c r="AI38" t="s">
-        <v>282</v>
-      </c>
-      <c r="AJ38" t="s">
-        <v>282</v>
-      </c>
-      <c r="BC38" t="s">
-        <v>278</v>
+      <c r="DO77" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="78" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="CU78" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="79" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="CI79" t="s">
+        <v>315</v>
+      </c>
+      <c r="CJ79" t="s">
+        <v>315</v>
+      </c>
+      <c r="CK79" t="s">
+        <v>315</v>
+      </c>
+      <c r="CL79" t="s">
+        <v>315</v>
+      </c>
+      <c r="CM79" t="s">
+        <v>315</v>
+      </c>
+      <c r="CN79" t="s">
+        <v>315</v>
+      </c>
+      <c r="DA79" t="s">
+        <v>315</v>
+      </c>
+      <c r="DG79" t="s">
+        <v>331</v>
+      </c>
+      <c r="DH79" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="80" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="CI80" t="s">
+        <v>365</v>
+      </c>
+      <c r="CJ80" t="s">
+        <v>365</v>
+      </c>
+      <c r="CK80" t="s">
+        <v>365</v>
+      </c>
+      <c r="CL80" t="s">
+        <v>365</v>
+      </c>
+      <c r="CM80" t="s">
+        <v>365</v>
+      </c>
+      <c r="CN80" t="s">
+        <v>365</v>
+      </c>
+      <c r="DA80" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="81" spans="1:113" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="DG81" t="s">
+        <v>382</v>
+      </c>
+      <c r="DH81" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="82" spans="1:113" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="DI82" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="83" spans="1:113" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="CB83" t="s">
+        <v>320</v>
+      </c>
+      <c r="CC83" t="s">
+        <v>320</v>
+      </c>
+      <c r="CD83" t="s">
+        <v>320</v>
+      </c>
+      <c r="CE83" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="84" spans="1:113" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="CB84" t="s">
+        <v>388</v>
+      </c>
+      <c r="CC84" t="s">
+        <v>388</v>
+      </c>
+      <c r="CD84" t="s">
+        <v>388</v>
+      </c>
+      <c r="CE84" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="85" spans="1:113" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="CB85" t="s">
+        <v>389</v>
+      </c>
+      <c r="CC85" t="s">
+        <v>389</v>
+      </c>
+      <c r="CD85" t="s">
+        <v>389</v>
+      </c>
+      <c r="CE85" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="86" spans="1:113" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="CI86" t="s">
+        <v>393</v>
+      </c>
+      <c r="CJ86" t="s">
+        <v>393</v>
+      </c>
+      <c r="CK86" t="s">
+        <v>393</v>
+      </c>
+      <c r="CL86" t="s">
+        <v>393</v>
+      </c>
+      <c r="CM86" t="s">
+        <v>393</v>
+      </c>
+      <c r="CN86" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="87" spans="1:113" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="CI87" t="s">
+        <v>366</v>
+      </c>
+      <c r="CJ87" t="s">
+        <v>366</v>
+      </c>
+      <c r="CK87" t="s">
+        <v>366</v>
+      </c>
+      <c r="CL87" t="s">
+        <v>366</v>
+      </c>
+      <c r="CM87" t="s">
+        <v>366</v>
+      </c>
+      <c r="CN87" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="88" spans="1:113" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="CU88" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="89" spans="1:113" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="CU89" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="90" spans="1:113" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="BK90" t="s">
+        <v>331</v>
+      </c>
+      <c r="BL90" t="s">
+        <v>331</v>
+      </c>
+      <c r="BM90" t="s">
+        <v>331</v>
       </c>
     </row>
   </sheetData>

--- a/icd_files/91548.xlsx
+++ b/icd_files/91548.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\datiphy\Documents\NEO Excel\icd_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B86707-C930-47E4-B8BB-234273AD575B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BDF4DF4-E34B-4F04-B229-53F8ABD4D76E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="497">
   <si>
     <t>CHARTTIME</t>
   </si>
@@ -729,15 +729,33 @@
     <t>07-10</t>
   </si>
   <si>
+    <t>07-11</t>
+  </si>
+  <si>
+    <t>07-12</t>
+  </si>
+  <si>
+    <t>07-13</t>
+  </si>
+  <si>
     <t>07-14</t>
   </si>
   <si>
+    <t>07-15</t>
+  </si>
+  <si>
     <t>07-16</t>
   </si>
   <si>
     <t>07-17</t>
   </si>
   <si>
+    <t>07-18</t>
+  </si>
+  <si>
+    <t>07-19</t>
+  </si>
+  <si>
     <t>08-18</t>
   </si>
   <si>
@@ -750,9 +768,21 @@
     <t>08-21</t>
   </si>
   <si>
+    <t>08-22</t>
+  </si>
+  <si>
+    <t>08-23</t>
+  </si>
+  <si>
     <t>08-24</t>
   </si>
   <si>
+    <t>08-25</t>
+  </si>
+  <si>
+    <t>08-26</t>
+  </si>
+  <si>
     <t>GCS: Verbal</t>
   </si>
   <si>
@@ -762,15 +792,171 @@
     <t>GCS: Total</t>
   </si>
   <si>
+    <t>1/2 NS</t>
+  </si>
+  <si>
     <t>0.9% Sodium Chloride</t>
   </si>
   <si>
     <t>Insulin</t>
   </si>
   <si>
+    <t>Sodium Chloride 0.9%  Flush</t>
+  </si>
+  <si>
+    <t>Amlodipine</t>
+  </si>
+  <si>
+    <t>Potassium Chloride</t>
+  </si>
+  <si>
+    <t>Lisinopril</t>
+  </si>
+  <si>
+    <t>Metoprolol Tartrate</t>
+  </si>
+  <si>
+    <t>Sodium Bicarbonate</t>
+  </si>
+  <si>
+    <t>Magnesium Sulfate</t>
+  </si>
+  <si>
+    <t>Propofol</t>
+  </si>
+  <si>
+    <t>Famotidine</t>
+  </si>
+  <si>
     <t>HydrALAzine</t>
   </si>
   <si>
+    <t>NS (Mini Bag Plus)</t>
+  </si>
+  <si>
+    <t>Meropenem</t>
+  </si>
+  <si>
+    <t>Diazepam</t>
+  </si>
+  <si>
+    <t>Vancomycin</t>
+  </si>
+  <si>
+    <t>Iso-Osmotic Dextrose</t>
+  </si>
+  <si>
+    <t>Labetalol</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>Insulin Human Regular</t>
+  </si>
+  <si>
+    <t>Gentamicin</t>
+  </si>
+  <si>
+    <t>Isotonic Sodium Chloride</t>
+  </si>
+  <si>
+    <t>Acyclovir</t>
+  </si>
+  <si>
+    <t>Ondansetron</t>
+  </si>
+  <si>
+    <t>Thiamine</t>
+  </si>
+  <si>
+    <t>Multivitamins</t>
+  </si>
+  <si>
+    <t>FoLIC Acid</t>
+  </si>
+  <si>
+    <t>Fluconazole</t>
+  </si>
+  <si>
+    <t>Hydrochlorothiazide</t>
+  </si>
+  <si>
+    <t>Succinylcholine</t>
+  </si>
+  <si>
+    <t>Potassium Chl 40 mEq / 1000 mL D5 1/2 NS</t>
+  </si>
+  <si>
+    <t>Syringe</t>
+  </si>
+  <si>
+    <t>Iso-Osmotic Sodium Chloride</t>
+  </si>
+  <si>
+    <t>D5 1/2NS</t>
+  </si>
+  <si>
+    <t>Acetaminophen</t>
+  </si>
+  <si>
+    <t>Syringe (0.9% Sodium Chloride)</t>
+  </si>
+  <si>
+    <t>Alteplase (Catheter Clearance)</t>
+  </si>
+  <si>
+    <t>Metoprolol Succinate XL</t>
+  </si>
+  <si>
+    <t>Vancomycin Oral Liquid</t>
+  </si>
+  <si>
+    <t>Magnesium Oxide</t>
+  </si>
+  <si>
+    <t>Senna</t>
+  </si>
+  <si>
+    <t>traZODONE</t>
+  </si>
+  <si>
+    <t>5% Dextrose</t>
+  </si>
+  <si>
+    <t>Furosemide</t>
+  </si>
+  <si>
+    <t>Pantoprazole</t>
+  </si>
+  <si>
+    <t>Aquaphor Ointment</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>MetRONIDAZOLE (FLagyl)</t>
+  </si>
+  <si>
+    <t>Albuterol 0.083% Neb Soln</t>
+  </si>
+  <si>
+    <t>Calcium Gluconate</t>
+  </si>
+  <si>
+    <t>Olanzapine (Disintegrating Tablet)</t>
+  </si>
+  <si>
+    <t>Potassium Chl 40 mEq / 1000 mL D5W</t>
+  </si>
+  <si>
+    <t>Ciprofloxacin IV</t>
+  </si>
+  <si>
+    <t>D5NS</t>
+  </si>
+  <si>
     <t>23:46</t>
   </si>
   <si>
@@ -786,12 +972,63 @@
     <t>500 mL</t>
   </si>
   <si>
+    <t>10 mL</t>
+  </si>
+  <si>
+    <t>60 TAB</t>
+  </si>
+  <si>
+    <t>25 TAB</t>
+  </si>
+  <si>
+    <t>10 VIAL</t>
+  </si>
+  <si>
+    <t>1000 BAG</t>
+  </si>
+  <si>
+    <t>50 BAG</t>
+  </si>
+  <si>
+    <t>100 mL</t>
+  </si>
+  <si>
+    <t>120 BAG</t>
+  </si>
+  <si>
+    <t>700 mL</t>
+  </si>
+  <si>
+    <t>4 VIAL</t>
+  </si>
+  <si>
+    <t>100 TAB</t>
+  </si>
+  <si>
+    <t>1 UDCUP</t>
+  </si>
+  <si>
+    <t>1 TAB</t>
+  </si>
+  <si>
+    <t>1 mL</t>
+  </si>
+  <si>
+    <t>200 mL</t>
+  </si>
+  <si>
+    <t>1000 mL</t>
+  </si>
+  <si>
+    <t>1 SYR</t>
+  </si>
+  <si>
+    <t>5 VIAL</t>
+  </si>
+  <si>
     <t>18 VIAL</t>
   </si>
   <si>
-    <t>10 VIAL</t>
-  </si>
-  <si>
     <t>04:00</t>
   </si>
   <si>
@@ -822,6 +1059,9 @@
     <t>5-10 VIAL</t>
   </si>
   <si>
+    <t>400 BAG</t>
+  </si>
+  <si>
     <t>08:49</t>
   </si>
   <si>
@@ -831,6 +1071,27 @@
     <t>16:16</t>
   </si>
   <si>
+    <t>60 PKT</t>
+  </si>
+  <si>
+    <t>4 BAG</t>
+  </si>
+  <si>
+    <t>1000 VIAL</t>
+  </si>
+  <si>
+    <t>20 BAG</t>
+  </si>
+  <si>
+    <t>100 BAG</t>
+  </si>
+  <si>
+    <t>100 VIAL</t>
+  </si>
+  <si>
+    <t>200 VIAL</t>
+  </si>
+  <si>
     <t>08:08</t>
   </si>
   <si>
@@ -840,7 +1101,7 @@
     <t>17:30</t>
   </si>
   <si>
-    <t>100 BAG</t>
+    <t>50 TAB</t>
   </si>
   <si>
     <t>04:02</t>
@@ -855,24 +1116,36 @@
     <t>16:04</t>
   </si>
   <si>
+    <t>0 VIAL</t>
+  </si>
+  <si>
+    <t>20 VIAL</t>
+  </si>
+  <si>
+    <t>5 TAB</t>
+  </si>
+  <si>
+    <t>400 TAB</t>
+  </si>
+  <si>
     <t>6 VIAL</t>
   </si>
   <si>
-    <t>20 VIAL</t>
-  </si>
-  <si>
     <t>08:00</t>
   </si>
   <si>
     <t>20:16</t>
   </si>
   <si>
+    <t>16 mL</t>
+  </si>
+  <si>
+    <t>8 VIAL</t>
+  </si>
+  <si>
     <t>25 VIAL</t>
   </si>
   <si>
-    <t>8 VIAL</t>
-  </si>
-  <si>
     <t>30 VIAL</t>
   </si>
   <si>
@@ -882,21 +1155,57 @@
     <t>08:17</t>
   </si>
   <si>
-    <t>1000 BAG</t>
+    <t>500-1000 UDCUP</t>
   </si>
   <si>
     <t>40 VIAL</t>
   </si>
   <si>
+    <t>10 SYR</t>
+  </si>
+  <si>
+    <t>20 TAB</t>
+  </si>
+  <si>
+    <t>20 PKT</t>
+  </si>
+  <si>
+    <t>40 TAB</t>
+  </si>
+  <si>
     <t>35 VIAL</t>
   </si>
   <si>
+    <t>40 mL</t>
+  </si>
+  <si>
+    <t>150 VIAL</t>
+  </si>
+  <si>
+    <t>10 TAB</t>
+  </si>
+  <si>
+    <t>125 SYR</t>
+  </si>
+  <si>
+    <t>500 BAG</t>
+  </si>
+  <si>
+    <t>1 VIAL</t>
+  </si>
+  <si>
+    <t>40 PKT</t>
+  </si>
+  <si>
     <t>14:00</t>
   </si>
   <si>
     <t>20:30</t>
   </si>
   <si>
+    <t>2 BAG</t>
+  </si>
+  <si>
     <t>00:19</t>
   </si>
   <si>
@@ -906,6 +1215,9 @@
     <t>17:00</t>
   </si>
   <si>
+    <t>3 SYR</t>
+  </si>
+  <si>
     <t>08:21</t>
   </si>
   <si>
@@ -913,6 +1225,18 @@
   </si>
   <si>
     <t>16:50</t>
+  </si>
+  <si>
+    <t>37.5 TAB</t>
+  </si>
+  <si>
+    <t>650 TAB</t>
+  </si>
+  <si>
+    <t>1 JAR</t>
+  </si>
+  <si>
+    <t>2 mL</t>
   </si>
   <si>
     <t>16 VIAL</t>
@@ -4490,7 +4814,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4D8E-4EF9-AB26-40B711E5912E}"/>
+              <c16:uniqueId val="{00000000-218C-49AD-9723-34C435228DBE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5764,7 +6088,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4D8E-4EF9-AB26-40B711E5912E}"/>
+              <c16:uniqueId val="{00000001-218C-49AD-9723-34C435228DBE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7038,7 +7362,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4D8E-4EF9-AB26-40B711E5912E}"/>
+              <c16:uniqueId val="{00000002-218C-49AD-9723-34C435228DBE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8387,7 +8711,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-4D8E-4EF9-AB26-40B711E5912E}"/>
+              <c16:uniqueId val="{00000003-218C-49AD-9723-34C435228DBE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9727,7 +10051,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-4D8E-4EF9-AB26-40B711E5912E}"/>
+              <c16:uniqueId val="{00000004-218C-49AD-9723-34C435228DBE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10593,7 +10917,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-4D8E-4EF9-AB26-40B711E5912E}"/>
+              <c16:uniqueId val="{00000005-218C-49AD-9723-34C435228DBE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11334,7 +11658,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-4D8E-4EF9-AB26-40B711E5912E}"/>
+              <c16:uniqueId val="{00000006-218C-49AD-9723-34C435228DBE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12075,7 +12399,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-4D8E-4EF9-AB26-40B711E5912E}"/>
+              <c16:uniqueId val="{00000007-218C-49AD-9723-34C435228DBE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12816,7 +13140,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-4D8E-4EF9-AB26-40B711E5912E}"/>
+              <c16:uniqueId val="{00000008-218C-49AD-9723-34C435228DBE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13259,7 +13583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642196B4-92C1-42EC-A8A3-5B95B2595E2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA145963-F549-40D3-99D7-DA7AFBFD1418}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:AL76"/>
   <sheetViews>
@@ -13284,7 +13608,7 @@
     <row r="1" spans="2:25" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>298</v>
+        <v>406</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -13297,7 +13621,7 @@
     </row>
     <row r="3" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>299</v>
+        <v>407</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
@@ -13310,7 +13634,7 @@
     </row>
     <row r="4" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>300</v>
+        <v>408</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="12"/>
@@ -13323,7 +13647,7 @@
     </row>
     <row r="5" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>301</v>
+        <v>409</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="14"/>
@@ -13336,27 +13660,27 @@
     </row>
     <row r="6" spans="2:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
-        <v>302</v>
+        <v>410</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="19" t="s">
-        <v>303</v>
+        <v>411</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="21" t="s">
-        <v>304</v>
+        <v>412</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="22" t="s">
-        <v>305</v>
+        <v>413</v>
       </c>
     </row>
     <row r="7" spans="2:25" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>306</v>
+        <v>414</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
@@ -13384,7 +13708,7 @@
     </row>
     <row r="9" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="30" t="s">
-        <v>307</v>
+        <v>415</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="32"/>
@@ -13412,11 +13736,11 @@
     </row>
     <row r="10" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="36" t="s">
-        <v>308</v>
+        <v>416</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="38" t="s">
-        <v>309</v>
+        <v>417</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="40"/>
@@ -13439,7 +13763,7 @@
       <c r="W10" s="40"/>
       <c r="X10" s="40"/>
       <c r="Y10" s="41" t="s">
-        <v>309</v>
+        <v>417</v>
       </c>
     </row>
     <row r="11" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13476,7 +13800,7 @@
       <c r="B12" s="42"/>
       <c r="C12" s="43"/>
       <c r="D12" s="48" t="s">
-        <v>310</v>
+        <v>418</v>
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="50"/>
@@ -13499,14 +13823,14 @@
       <c r="W12" s="50"/>
       <c r="X12" s="50"/>
       <c r="Y12" s="51" t="s">
-        <v>310</v>
+        <v>418</v>
       </c>
     </row>
     <row r="13" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="42"/>
       <c r="C13" s="43"/>
       <c r="D13" s="52" t="s">
-        <v>311</v>
+        <v>419</v>
       </c>
       <c r="E13" s="53"/>
       <c r="F13" s="54"/>
@@ -13529,14 +13853,14 @@
       <c r="W13" s="54"/>
       <c r="X13" s="54"/>
       <c r="Y13" s="55" t="s">
-        <v>311</v>
+        <v>419</v>
       </c>
     </row>
     <row r="14" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="42"/>
       <c r="C14" s="43"/>
       <c r="D14" s="56" t="s">
-        <v>312</v>
+        <v>420</v>
       </c>
       <c r="E14" s="57"/>
       <c r="F14" s="58"/>
@@ -13559,14 +13883,14 @@
       <c r="W14" s="58"/>
       <c r="X14" s="58"/>
       <c r="Y14" s="59" t="s">
-        <v>312</v>
+        <v>420</v>
       </c>
     </row>
     <row r="15" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="42"/>
       <c r="C15" s="43"/>
       <c r="D15" s="44" t="s">
-        <v>313</v>
+        <v>421</v>
       </c>
       <c r="E15" s="45"/>
       <c r="F15" s="46"/>
@@ -13589,14 +13913,14 @@
       <c r="W15" s="46"/>
       <c r="X15" s="46"/>
       <c r="Y15" s="47" t="s">
-        <v>313</v>
+        <v>421</v>
       </c>
     </row>
     <row r="16" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="60"/>
       <c r="C16" s="61"/>
       <c r="D16" s="62" t="s">
-        <v>314</v>
+        <v>422</v>
       </c>
       <c r="E16" s="63"/>
       <c r="F16" s="64"/>
@@ -13619,16 +13943,16 @@
       <c r="W16" s="64"/>
       <c r="X16" s="64"/>
       <c r="Y16" s="65" t="s">
-        <v>314</v>
+        <v>422</v>
       </c>
     </row>
     <row r="17" spans="2:38" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="36" t="s">
-        <v>315</v>
+        <v>423</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="66" t="s">
-        <v>316</v>
+        <v>424</v>
       </c>
       <c r="E17" s="67"/>
       <c r="F17" s="68"/>
@@ -13651,14 +13975,14 @@
       <c r="W17" s="68"/>
       <c r="X17" s="68"/>
       <c r="Y17" s="69" t="s">
-        <v>316</v>
+        <v>424</v>
       </c>
     </row>
     <row r="18" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
       <c r="C18" s="43"/>
       <c r="D18" s="52" t="s">
-        <v>317</v>
+        <v>425</v>
       </c>
       <c r="E18" s="53"/>
       <c r="F18" s="54"/>
@@ -13681,10 +14005,10 @@
       <c r="W18" s="54"/>
       <c r="X18" s="54"/>
       <c r="Y18" s="55" t="s">
-        <v>317</v>
+        <v>425</v>
       </c>
       <c r="Z18" s="70" t="s">
-        <v>318</v>
+        <v>426</v>
       </c>
       <c r="AA18" s="71"/>
       <c r="AB18" s="71"/>
@@ -13692,7 +14016,7 @@
       <c r="AD18" s="71"/>
       <c r="AE18" s="72"/>
       <c r="AF18" s="73" t="s">
-        <v>319</v>
+        <v>427</v>
       </c>
       <c r="AG18" s="73"/>
       <c r="AH18" s="73"/>
@@ -13704,7 +14028,7 @@
       <c r="B19" s="60"/>
       <c r="C19" s="61"/>
       <c r="D19" s="75" t="s">
-        <v>320</v>
+        <v>428</v>
       </c>
       <c r="E19" s="76"/>
       <c r="F19" s="77"/>
@@ -13727,7 +14051,7 @@
       <c r="W19" s="77"/>
       <c r="X19" s="77"/>
       <c r="Y19" s="78" t="s">
-        <v>320</v>
+        <v>428</v>
       </c>
       <c r="Z19" s="79"/>
       <c r="AA19" s="80"/>
@@ -13743,11 +14067,11 @@
     </row>
     <row r="20" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="87" t="s">
-        <v>321</v>
+        <v>429</v>
       </c>
       <c r="C20" s="88"/>
       <c r="D20" s="89" t="s">
-        <v>322</v>
+        <v>430</v>
       </c>
       <c r="E20" s="90"/>
       <c r="F20" s="91"/>
@@ -13770,7 +14094,7 @@
       <c r="W20" s="91"/>
       <c r="X20" s="91"/>
       <c r="Y20" s="92" t="s">
-        <v>322</v>
+        <v>430</v>
       </c>
       <c r="Z20" s="79"/>
       <c r="AA20" s="93"/>
@@ -13788,7 +14112,7 @@
       <c r="B21" s="99"/>
       <c r="C21" s="100"/>
       <c r="D21" s="56" t="s">
-        <v>323</v>
+        <v>431</v>
       </c>
       <c r="E21" s="57"/>
       <c r="F21" s="58"/>
@@ -13811,7 +14135,7 @@
       <c r="W21" s="58"/>
       <c r="X21" s="58"/>
       <c r="Y21" s="59" t="s">
-        <v>323</v>
+        <v>431</v>
       </c>
       <c r="Z21" s="101"/>
       <c r="AA21" s="102"/>
@@ -13830,7 +14154,7 @@
       <c r="B22" s="99"/>
       <c r="C22" s="100"/>
       <c r="D22" s="48" t="s">
-        <v>324</v>
+        <v>432</v>
       </c>
       <c r="E22" s="49"/>
       <c r="F22" s="50"/>
@@ -13853,10 +14177,10 @@
       <c r="W22" s="50"/>
       <c r="X22" s="50"/>
       <c r="Y22" s="51" t="s">
-        <v>324</v>
+        <v>432</v>
       </c>
       <c r="Z22" s="104" t="s">
-        <v>325</v>
+        <v>433</v>
       </c>
       <c r="AA22" s="105"/>
       <c r="AB22" s="105"/>
@@ -13874,7 +14198,7 @@
       <c r="B23" s="107"/>
       <c r="C23" s="108"/>
       <c r="D23" s="109" t="s">
-        <v>326</v>
+        <v>434</v>
       </c>
       <c r="E23" s="110"/>
       <c r="F23" s="111"/>
@@ -13897,52 +14221,52 @@
       <c r="W23" s="111"/>
       <c r="X23" s="111"/>
       <c r="Y23" s="112" t="s">
-        <v>326</v>
+        <v>434</v>
       </c>
       <c r="Z23" s="113" t="s">
-        <v>327</v>
+        <v>435</v>
       </c>
       <c r="AA23" s="77" t="s">
-        <v>328</v>
+        <v>436</v>
       </c>
       <c r="AB23" s="76" t="s">
-        <v>329</v>
+        <v>437</v>
       </c>
       <c r="AC23" s="77" t="s">
-        <v>330</v>
+        <v>438</v>
       </c>
       <c r="AD23" s="76" t="s">
-        <v>331</v>
+        <v>439</v>
       </c>
       <c r="AE23" s="77" t="s">
-        <v>332</v>
+        <v>440</v>
       </c>
       <c r="AF23" s="76" t="s">
-        <v>333</v>
+        <v>441</v>
       </c>
       <c r="AG23" s="77" t="s">
-        <v>334</v>
+        <v>442</v>
       </c>
       <c r="AH23" s="76" t="s">
-        <v>335</v>
+        <v>443</v>
       </c>
       <c r="AI23" s="77" t="s">
-        <v>336</v>
+        <v>444</v>
       </c>
       <c r="AJ23" s="76" t="s">
-        <v>337</v>
+        <v>445</v>
       </c>
       <c r="AK23" s="114" t="s">
-        <v>338</v>
+        <v>446</v>
       </c>
     </row>
     <row r="24" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="87" t="s">
-        <v>339</v>
+        <v>447</v>
       </c>
       <c r="C24" s="88"/>
       <c r="D24" s="115" t="s">
-        <v>340</v>
+        <v>448</v>
       </c>
       <c r="E24" s="116"/>
       <c r="F24" s="117"/>
@@ -13965,53 +14289,53 @@
       <c r="W24" s="117"/>
       <c r="X24" s="117"/>
       <c r="Y24" s="118" t="s">
-        <v>340</v>
+        <v>448</v>
       </c>
       <c r="Z24" s="119" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AA24" s="120" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AB24" s="121" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AC24" s="122" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AD24" s="123" t="s">
-        <v>343</v>
+        <v>451</v>
       </c>
       <c r="AE24" s="124" t="s">
-        <v>343</v>
+        <v>451</v>
       </c>
       <c r="AF24" s="123" t="s">
-        <v>343</v>
+        <v>451</v>
       </c>
       <c r="AG24" s="125" t="s">
-        <v>344</v>
+        <v>452</v>
       </c>
       <c r="AH24" s="126" t="s">
-        <v>344</v>
+        <v>452</v>
       </c>
       <c r="AI24" s="125" t="s">
-        <v>345</v>
+        <v>453</v>
       </c>
       <c r="AJ24" s="126" t="s">
-        <v>346</v>
+        <v>454</v>
       </c>
       <c r="AK24" s="125" t="s">
-        <v>346</v>
+        <v>454</v>
       </c>
       <c r="AL24" s="127" t="s">
-        <v>347</v>
+        <v>455</v>
       </c>
     </row>
     <row r="25" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="99"/>
       <c r="C25" s="100"/>
       <c r="D25" s="48" t="s">
-        <v>327</v>
+        <v>435</v>
       </c>
       <c r="E25" s="49"/>
       <c r="F25" s="50"/>
@@ -14034,43 +14358,43 @@
       <c r="W25" s="50"/>
       <c r="X25" s="50"/>
       <c r="Y25" s="51" t="s">
-        <v>327</v>
+        <v>435</v>
       </c>
       <c r="Z25" s="128" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AA25" s="129" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AB25" s="128" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AC25" s="130" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AD25" s="131" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AE25" s="130" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AF25" s="132" t="s">
-        <v>343</v>
+        <v>451</v>
       </c>
       <c r="AG25" s="133" t="s">
-        <v>343</v>
+        <v>451</v>
       </c>
       <c r="AH25" s="134" t="s">
-        <v>344</v>
+        <v>452</v>
       </c>
       <c r="AI25" s="135" t="s">
-        <v>344</v>
+        <v>452</v>
       </c>
       <c r="AJ25" s="134" t="s">
-        <v>345</v>
+        <v>453</v>
       </c>
       <c r="AK25" s="135" t="s">
-        <v>345</v>
+        <v>453</v>
       </c>
       <c r="AL25" s="136"/>
     </row>
@@ -14078,7 +14402,7 @@
       <c r="B26" s="99"/>
       <c r="C26" s="100"/>
       <c r="D26" s="48" t="s">
-        <v>328</v>
+        <v>436</v>
       </c>
       <c r="E26" s="49"/>
       <c r="F26" s="50"/>
@@ -14101,43 +14425,43 @@
       <c r="W26" s="50"/>
       <c r="X26" s="50"/>
       <c r="Y26" s="51" t="s">
-        <v>328</v>
+        <v>436</v>
       </c>
       <c r="Z26" s="137" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AA26" s="138" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AB26" s="137" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AC26" s="138" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AD26" s="137" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AE26" s="139" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AF26" s="140" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AG26" s="141" t="s">
-        <v>343</v>
+        <v>451</v>
       </c>
       <c r="AH26" s="142" t="s">
-        <v>343</v>
+        <v>451</v>
       </c>
       <c r="AI26" s="143" t="s">
-        <v>344</v>
+        <v>452</v>
       </c>
       <c r="AJ26" s="144" t="s">
-        <v>344</v>
+        <v>452</v>
       </c>
       <c r="AK26" s="143" t="s">
-        <v>345</v>
+        <v>453</v>
       </c>
       <c r="AL26" s="136"/>
     </row>
@@ -14145,7 +14469,7 @@
       <c r="B27" s="99"/>
       <c r="C27" s="100"/>
       <c r="D27" s="48" t="s">
-        <v>329</v>
+        <v>437</v>
       </c>
       <c r="E27" s="49"/>
       <c r="F27" s="50"/>
@@ -14168,43 +14492,43 @@
       <c r="W27" s="50"/>
       <c r="X27" s="50"/>
       <c r="Y27" s="51" t="s">
-        <v>329</v>
+        <v>437</v>
       </c>
       <c r="Z27" s="145" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AA27" s="146" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AB27" s="147" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AC27" s="146" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AD27" s="147" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AE27" s="148" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AF27" s="149" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AG27" s="150" t="s">
-        <v>343</v>
+        <v>451</v>
       </c>
       <c r="AH27" s="151" t="s">
-        <v>343</v>
+        <v>451</v>
       </c>
       <c r="AI27" s="152" t="s">
-        <v>344</v>
+        <v>452</v>
       </c>
       <c r="AJ27" s="153" t="s">
-        <v>344</v>
+        <v>452</v>
       </c>
       <c r="AK27" s="152" t="s">
-        <v>344</v>
+        <v>452</v>
       </c>
       <c r="AL27" s="136"/>
     </row>
@@ -14212,7 +14536,7 @@
       <c r="B28" s="99"/>
       <c r="C28" s="100"/>
       <c r="D28" s="154" t="s">
-        <v>330</v>
+        <v>438</v>
       </c>
       <c r="E28" s="53"/>
       <c r="F28" s="54"/>
@@ -14235,43 +14559,43 @@
       <c r="W28" s="54"/>
       <c r="X28" s="54"/>
       <c r="Y28" s="55" t="s">
-        <v>330</v>
+        <v>438</v>
       </c>
       <c r="Z28" s="155" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AA28" s="130" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AB28" s="128" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AC28" s="129" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AD28" s="128" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AE28" s="129" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AF28" s="128" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AG28" s="130" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AH28" s="131" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AI28" s="133" t="s">
-        <v>343</v>
+        <v>451</v>
       </c>
       <c r="AJ28" s="132" t="s">
-        <v>343</v>
+        <v>451</v>
       </c>
       <c r="AK28" s="133" t="s">
-        <v>343</v>
+        <v>451</v>
       </c>
       <c r="AL28" s="136"/>
     </row>
@@ -14279,7 +14603,7 @@
       <c r="B29" s="99"/>
       <c r="C29" s="100"/>
       <c r="D29" s="156" t="s">
-        <v>331</v>
+        <v>439</v>
       </c>
       <c r="E29" s="57"/>
       <c r="F29" s="58"/>
@@ -14302,43 +14626,43 @@
       <c r="W29" s="58"/>
       <c r="X29" s="58"/>
       <c r="Y29" s="59" t="s">
-        <v>331</v>
+        <v>439</v>
       </c>
       <c r="Z29" s="157" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AA29" s="158" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AB29" s="159" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AC29" s="160" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AD29" s="161" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AE29" s="160" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AF29" s="161" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AG29" s="160" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AH29" s="159" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AI29" s="158" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AJ29" s="162" t="s">
-        <v>343</v>
+        <v>451</v>
       </c>
       <c r="AK29" s="163" t="s">
-        <v>343</v>
+        <v>451</v>
       </c>
       <c r="AL29" s="136"/>
     </row>
@@ -14346,7 +14670,7 @@
       <c r="B30" s="99"/>
       <c r="C30" s="100"/>
       <c r="D30" s="156" t="s">
-        <v>332</v>
+        <v>440</v>
       </c>
       <c r="E30" s="57"/>
       <c r="F30" s="58"/>
@@ -14369,43 +14693,43 @@
       <c r="W30" s="58"/>
       <c r="X30" s="58"/>
       <c r="Y30" s="59" t="s">
-        <v>332</v>
+        <v>440</v>
       </c>
       <c r="Z30" s="164" t="s">
-        <v>343</v>
+        <v>451</v>
       </c>
       <c r="AA30" s="148" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AB30" s="149" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AC30" s="148" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AD30" s="147" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AE30" s="146" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AF30" s="147" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AG30" s="146" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AH30" s="147" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AI30" s="148" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AJ30" s="149" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AK30" s="165" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AL30" s="136"/>
     </row>
@@ -14413,7 +14737,7 @@
       <c r="B31" s="99"/>
       <c r="C31" s="100"/>
       <c r="D31" s="156" t="s">
-        <v>333</v>
+        <v>441</v>
       </c>
       <c r="E31" s="57"/>
       <c r="F31" s="58"/>
@@ -14436,43 +14760,43 @@
       <c r="W31" s="58"/>
       <c r="X31" s="58"/>
       <c r="Y31" s="59" t="s">
-        <v>333</v>
+        <v>441</v>
       </c>
       <c r="Z31" s="166" t="s">
-        <v>343</v>
+        <v>451</v>
       </c>
       <c r="AA31" s="133" t="s">
-        <v>343</v>
+        <v>451</v>
       </c>
       <c r="AB31" s="131" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AC31" s="130" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AD31" s="128" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AE31" s="129" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AF31" s="128" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AG31" s="129" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AH31" s="128" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AI31" s="129" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AJ31" s="128" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AK31" s="167" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AL31" s="136"/>
     </row>
@@ -14480,7 +14804,7 @@
       <c r="B32" s="99"/>
       <c r="C32" s="100"/>
       <c r="D32" s="156" t="s">
-        <v>334</v>
+        <v>442</v>
       </c>
       <c r="E32" s="57"/>
       <c r="F32" s="58"/>
@@ -14503,43 +14827,43 @@
       <c r="W32" s="58"/>
       <c r="X32" s="58"/>
       <c r="Y32" s="59" t="s">
-        <v>334</v>
+        <v>442</v>
       </c>
       <c r="Z32" s="168" t="s">
-        <v>343</v>
+        <v>451</v>
       </c>
       <c r="AA32" s="163" t="s">
-        <v>343</v>
+        <v>451</v>
       </c>
       <c r="AB32" s="162" t="s">
-        <v>343</v>
+        <v>451</v>
       </c>
       <c r="AC32" s="158" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AD32" s="159" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AE32" s="160" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AF32" s="161" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AG32" s="160" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AH32" s="161" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AI32" s="160" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AJ32" s="161" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AK32" s="169" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AL32" s="136"/>
     </row>
@@ -14547,7 +14871,7 @@
       <c r="B33" s="99"/>
       <c r="C33" s="100"/>
       <c r="D33" s="156" t="s">
-        <v>335</v>
+        <v>443</v>
       </c>
       <c r="E33" s="57"/>
       <c r="F33" s="58"/>
@@ -14570,43 +14894,43 @@
       <c r="W33" s="58"/>
       <c r="X33" s="58"/>
       <c r="Y33" s="59" t="s">
-        <v>335</v>
+        <v>443</v>
       </c>
       <c r="Z33" s="170" t="s">
-        <v>344</v>
+        <v>452</v>
       </c>
       <c r="AA33" s="151" t="s">
-        <v>343</v>
+        <v>451</v>
       </c>
       <c r="AB33" s="151" t="s">
-        <v>343</v>
+        <v>451</v>
       </c>
       <c r="AC33" s="151" t="s">
-        <v>343</v>
+        <v>451</v>
       </c>
       <c r="AD33" s="149" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AE33" s="149" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AF33" s="147" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AG33" s="147" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AH33" s="147" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AI33" s="147" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AJ33" s="147" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AK33" s="147" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AL33" s="136"/>
     </row>
@@ -14614,7 +14938,7 @@
       <c r="B34" s="99"/>
       <c r="C34" s="100"/>
       <c r="D34" s="154" t="s">
-        <v>336</v>
+        <v>444</v>
       </c>
       <c r="E34" s="53"/>
       <c r="F34" s="54"/>
@@ -14637,43 +14961,43 @@
       <c r="W34" s="54"/>
       <c r="X34" s="54"/>
       <c r="Y34" s="55" t="s">
-        <v>336</v>
+        <v>444</v>
       </c>
       <c r="Z34" s="171" t="s">
-        <v>344</v>
+        <v>452</v>
       </c>
       <c r="AA34" s="134" t="s">
-        <v>344</v>
+        <v>452</v>
       </c>
       <c r="AB34" s="134" t="s">
-        <v>344</v>
+        <v>452</v>
       </c>
       <c r="AC34" s="132" t="s">
-        <v>343</v>
+        <v>451</v>
       </c>
       <c r="AD34" s="132" t="s">
-        <v>343</v>
+        <v>451</v>
       </c>
       <c r="AE34" s="132" t="s">
-        <v>343</v>
+        <v>451</v>
       </c>
       <c r="AF34" s="131" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AG34" s="131" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AH34" s="128" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AI34" s="128" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AJ34" s="128" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AK34" s="128" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AL34" s="136"/>
     </row>
@@ -14681,7 +15005,7 @@
       <c r="B35" s="99"/>
       <c r="C35" s="100"/>
       <c r="D35" s="48" t="s">
-        <v>337</v>
+        <v>445</v>
       </c>
       <c r="E35" s="49"/>
       <c r="F35" s="50"/>
@@ -14704,43 +15028,43 @@
       <c r="W35" s="50"/>
       <c r="X35" s="50"/>
       <c r="Y35" s="51" t="s">
-        <v>337</v>
+        <v>445</v>
       </c>
       <c r="Z35" s="171" t="s">
-        <v>345</v>
+        <v>453</v>
       </c>
       <c r="AA35" s="134" t="s">
-        <v>344</v>
+        <v>452</v>
       </c>
       <c r="AB35" s="134" t="s">
-        <v>344</v>
+        <v>452</v>
       </c>
       <c r="AC35" s="134" t="s">
-        <v>344</v>
+        <v>452</v>
       </c>
       <c r="AD35" s="132" t="s">
-        <v>343</v>
+        <v>451</v>
       </c>
       <c r="AE35" s="132" t="s">
-        <v>343</v>
+        <v>451</v>
       </c>
       <c r="AF35" s="132" t="s">
-        <v>343</v>
+        <v>451</v>
       </c>
       <c r="AG35" s="132" t="s">
-        <v>343</v>
+        <v>451</v>
       </c>
       <c r="AH35" s="131" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AI35" s="131" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AJ35" s="128" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AK35" s="128" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AL35" s="136"/>
     </row>
@@ -14748,7 +15072,7 @@
       <c r="B36" s="99"/>
       <c r="C36" s="100"/>
       <c r="D36" s="172" t="s">
-        <v>338</v>
+        <v>446</v>
       </c>
       <c r="E36" s="173"/>
       <c r="F36" s="174"/>
@@ -14771,7 +15095,7 @@
       <c r="W36" s="174"/>
       <c r="X36" s="174"/>
       <c r="Y36" s="175" t="s">
-        <v>338</v>
+        <v>446</v>
       </c>
       <c r="Z36" s="176"/>
       <c r="AA36" s="177"/>
@@ -14784,10 +15108,10 @@
       <c r="AH36" s="177"/>
       <c r="AI36" s="177"/>
       <c r="AJ36" s="131" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="AK36" s="128" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="AL36" s="136"/>
     </row>
@@ -14795,7 +15119,7 @@
       <c r="B37" s="99"/>
       <c r="C37" s="100"/>
       <c r="D37" s="178" t="s">
-        <v>348</v>
+        <v>456</v>
       </c>
       <c r="E37" s="179"/>
       <c r="F37" s="180"/>
@@ -14818,14 +15142,14 @@
       <c r="W37" s="180"/>
       <c r="X37" s="180"/>
       <c r="Y37" s="181" t="s">
-        <v>348</v>
+        <v>456</v>
       </c>
       <c r="Z37" s="176"/>
       <c r="AA37" s="177"/>
       <c r="AB37" s="177"/>
       <c r="AC37" s="177"/>
       <c r="AD37" s="182" t="s">
-        <v>349</v>
+        <v>457</v>
       </c>
       <c r="AE37" s="182"/>
       <c r="AF37" s="182"/>
@@ -14840,7 +15164,7 @@
       <c r="B38" s="99"/>
       <c r="C38" s="100"/>
       <c r="D38" s="178" t="s">
-        <v>350</v>
+        <v>458</v>
       </c>
       <c r="E38" s="179"/>
       <c r="F38" s="180"/>
@@ -14863,7 +15187,7 @@
       <c r="W38" s="180"/>
       <c r="X38" s="180"/>
       <c r="Y38" s="181" t="s">
-        <v>350</v>
+        <v>458</v>
       </c>
       <c r="Z38" s="176"/>
       <c r="AA38" s="177"/>
@@ -14883,7 +15207,7 @@
       <c r="B39" s="99"/>
       <c r="C39" s="100"/>
       <c r="D39" s="178" t="s">
-        <v>351</v>
+        <v>459</v>
       </c>
       <c r="E39" s="179"/>
       <c r="F39" s="180"/>
@@ -14906,7 +15230,7 @@
       <c r="W39" s="180"/>
       <c r="X39" s="180"/>
       <c r="Y39" s="181" t="s">
-        <v>351</v>
+        <v>459</v>
       </c>
       <c r="Z39" s="176"/>
       <c r="AA39" s="177"/>
@@ -14926,7 +15250,7 @@
       <c r="B40" s="107"/>
       <c r="C40" s="108"/>
       <c r="D40" s="62" t="s">
-        <v>352</v>
+        <v>460</v>
       </c>
       <c r="E40" s="63"/>
       <c r="F40" s="64"/>
@@ -14949,7 +15273,7 @@
       <c r="W40" s="64"/>
       <c r="X40" s="64"/>
       <c r="Y40" s="65" t="s">
-        <v>352</v>
+        <v>460</v>
       </c>
       <c r="Z40" s="185"/>
       <c r="AA40" s="186"/>
@@ -14967,11 +15291,11 @@
     </row>
     <row r="41" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="87" t="s">
-        <v>353</v>
+        <v>461</v>
       </c>
       <c r="C41" s="88"/>
       <c r="D41" s="38" t="s">
-        <v>354</v>
+        <v>462</v>
       </c>
       <c r="E41" s="39"/>
       <c r="F41" s="40"/>
@@ -14994,14 +15318,14 @@
       <c r="W41" s="40"/>
       <c r="X41" s="40"/>
       <c r="Y41" s="41" t="s">
-        <v>354</v>
+        <v>462</v>
       </c>
     </row>
     <row r="42" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="99"/>
       <c r="C42" s="100"/>
       <c r="D42" s="44" t="s">
-        <v>333</v>
+        <v>441</v>
       </c>
       <c r="E42" s="45"/>
       <c r="F42" s="46"/>
@@ -15024,14 +15348,14 @@
       <c r="W42" s="46"/>
       <c r="X42" s="46"/>
       <c r="Y42" s="47" t="s">
-        <v>333</v>
+        <v>441</v>
       </c>
     </row>
     <row r="43" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="99"/>
       <c r="C43" s="100"/>
       <c r="D43" s="48" t="s">
-        <v>334</v>
+        <v>442</v>
       </c>
       <c r="E43" s="49"/>
       <c r="F43" s="50"/>
@@ -15054,14 +15378,14 @@
       <c r="W43" s="50"/>
       <c r="X43" s="50"/>
       <c r="Y43" s="51" t="s">
-        <v>334</v>
+        <v>442</v>
       </c>
     </row>
     <row r="44" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="99"/>
       <c r="C44" s="100"/>
       <c r="D44" s="48" t="s">
-        <v>335</v>
+        <v>443</v>
       </c>
       <c r="E44" s="49"/>
       <c r="F44" s="50"/>
@@ -15084,14 +15408,14 @@
       <c r="W44" s="50"/>
       <c r="X44" s="50"/>
       <c r="Y44" s="51" t="s">
-        <v>335</v>
+        <v>443</v>
       </c>
     </row>
     <row r="45" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="99"/>
       <c r="C45" s="100"/>
       <c r="D45" s="52" t="s">
-        <v>336</v>
+        <v>444</v>
       </c>
       <c r="E45" s="53"/>
       <c r="F45" s="54"/>
@@ -15114,14 +15438,14 @@
       <c r="W45" s="54"/>
       <c r="X45" s="54"/>
       <c r="Y45" s="55" t="s">
-        <v>336</v>
+        <v>444</v>
       </c>
     </row>
     <row r="46" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="99"/>
       <c r="C46" s="100"/>
       <c r="D46" s="56" t="s">
-        <v>337</v>
+        <v>445</v>
       </c>
       <c r="E46" s="57"/>
       <c r="F46" s="58"/>
@@ -15144,14 +15468,14 @@
       <c r="W46" s="58"/>
       <c r="X46" s="58"/>
       <c r="Y46" s="59" t="s">
-        <v>337</v>
+        <v>445</v>
       </c>
     </row>
     <row r="47" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="99"/>
       <c r="C47" s="100"/>
       <c r="D47" s="56" t="s">
-        <v>338</v>
+        <v>446</v>
       </c>
       <c r="E47" s="57"/>
       <c r="F47" s="58"/>
@@ -15174,10 +15498,10 @@
       <c r="W47" s="58"/>
       <c r="X47" s="58"/>
       <c r="Y47" s="59" t="s">
-        <v>338</v>
+        <v>446</v>
       </c>
       <c r="AA47" s="189" t="s">
-        <v>355</v>
+        <v>463</v>
       </c>
       <c r="AB47" s="190"/>
       <c r="AC47" s="190"/>
@@ -15194,7 +15518,7 @@
       <c r="B48" s="99"/>
       <c r="C48" s="100"/>
       <c r="D48" s="56" t="s">
-        <v>348</v>
+        <v>456</v>
       </c>
       <c r="E48" s="57"/>
       <c r="F48" s="58"/>
@@ -15217,7 +15541,7 @@
       <c r="W48" s="58"/>
       <c r="X48" s="58"/>
       <c r="Y48" s="59" t="s">
-        <v>348</v>
+        <v>456</v>
       </c>
       <c r="AA48" s="190"/>
       <c r="AB48" s="190"/>
@@ -15235,7 +15559,7 @@
       <c r="B49" s="99"/>
       <c r="C49" s="100"/>
       <c r="D49" s="56" t="s">
-        <v>350</v>
+        <v>458</v>
       </c>
       <c r="E49" s="57"/>
       <c r="F49" s="58"/>
@@ -15258,7 +15582,7 @@
       <c r="W49" s="58"/>
       <c r="X49" s="58"/>
       <c r="Y49" s="59" t="s">
-        <v>350</v>
+        <v>458</v>
       </c>
       <c r="AA49" s="190"/>
       <c r="AB49" s="190"/>
@@ -15276,7 +15600,7 @@
       <c r="B50" s="99"/>
       <c r="C50" s="100"/>
       <c r="D50" s="56" t="s">
-        <v>351</v>
+        <v>459</v>
       </c>
       <c r="E50" s="57"/>
       <c r="F50" s="58"/>
@@ -15299,14 +15623,14 @@
       <c r="W50" s="58"/>
       <c r="X50" s="58"/>
       <c r="Y50" s="59" t="s">
-        <v>351</v>
+        <v>459</v>
       </c>
     </row>
     <row r="51" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="99"/>
       <c r="C51" s="100"/>
       <c r="D51" s="52" t="s">
-        <v>352</v>
+        <v>460</v>
       </c>
       <c r="E51" s="53"/>
       <c r="F51" s="54"/>
@@ -15329,14 +15653,14 @@
       <c r="W51" s="54"/>
       <c r="X51" s="54"/>
       <c r="Y51" s="55" t="s">
-        <v>352</v>
+        <v>460</v>
       </c>
     </row>
     <row r="52" spans="2:37" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="107"/>
       <c r="C52" s="108"/>
       <c r="D52" s="62" t="s">
-        <v>356</v>
+        <v>464</v>
       </c>
       <c r="E52" s="63"/>
       <c r="F52" s="64"/>
@@ -15359,24 +15683,24 @@
       <c r="W52" s="64"/>
       <c r="X52" s="64"/>
       <c r="Y52" s="65" t="s">
-        <v>356</v>
+        <v>464</v>
       </c>
       <c r="AB52" s="191"/>
       <c r="AC52" s="191"/>
       <c r="AD52" s="191"/>
       <c r="AE52" s="191"/>
       <c r="AG52" s="14" t="s">
-        <v>357</v>
+        <v>465</v>
       </c>
       <c r="AH52" s="14"/>
     </row>
     <row r="53" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="36" t="s">
-        <v>358</v>
+        <v>466</v>
       </c>
       <c r="C53" s="37"/>
       <c r="D53" s="66" t="s">
-        <v>359</v>
+        <v>467</v>
       </c>
       <c r="E53" s="67"/>
       <c r="F53" s="68"/>
@@ -15399,7 +15723,7 @@
       <c r="W53" s="68"/>
       <c r="X53" s="68"/>
       <c r="Y53" s="69" t="s">
-        <v>359</v>
+        <v>467</v>
       </c>
       <c r="AG53" s="192"/>
       <c r="AH53" s="192"/>
@@ -15408,7 +15732,7 @@
       <c r="B54" s="42"/>
       <c r="C54" s="43"/>
       <c r="D54" s="52" t="s">
-        <v>360</v>
+        <v>468</v>
       </c>
       <c r="E54" s="53"/>
       <c r="F54" s="54"/>
@@ -15431,14 +15755,14 @@
       <c r="W54" s="54"/>
       <c r="X54" s="54"/>
       <c r="Y54" s="55" t="s">
-        <v>360</v>
+        <v>468</v>
       </c>
       <c r="AB54" s="193"/>
       <c r="AC54" s="193"/>
       <c r="AD54" s="193"/>
       <c r="AE54" s="193"/>
       <c r="AG54" s="14" t="s">
-        <v>361</v>
+        <v>469</v>
       </c>
       <c r="AH54" s="14"/>
     </row>
@@ -15446,7 +15770,7 @@
       <c r="B55" s="42"/>
       <c r="C55" s="43"/>
       <c r="D55" s="56" t="s">
-        <v>362</v>
+        <v>470</v>
       </c>
       <c r="E55" s="57"/>
       <c r="F55" s="58"/>
@@ -15469,7 +15793,7 @@
       <c r="W55" s="58"/>
       <c r="X55" s="58"/>
       <c r="Y55" s="59" t="s">
-        <v>362</v>
+        <v>470</v>
       </c>
       <c r="AG55" s="192"/>
       <c r="AH55" s="192"/>
@@ -15478,7 +15802,7 @@
       <c r="B56" s="42"/>
       <c r="C56" s="43"/>
       <c r="D56" s="52" t="s">
-        <v>363</v>
+        <v>471</v>
       </c>
       <c r="E56" s="53"/>
       <c r="F56" s="54"/>
@@ -15501,14 +15825,14 @@
       <c r="W56" s="54"/>
       <c r="X56" s="54"/>
       <c r="Y56" s="55" t="s">
-        <v>363</v>
+        <v>471</v>
       </c>
       <c r="AB56" s="194"/>
       <c r="AC56" s="194"/>
       <c r="AD56" s="194"/>
       <c r="AE56" s="194"/>
       <c r="AG56" s="14" t="s">
-        <v>364</v>
+        <v>472</v>
       </c>
       <c r="AH56" s="14"/>
     </row>
@@ -15516,7 +15840,7 @@
       <c r="B57" s="42"/>
       <c r="C57" s="43"/>
       <c r="D57" s="48" t="s">
-        <v>365</v>
+        <v>473</v>
       </c>
       <c r="E57" s="49"/>
       <c r="F57" s="50"/>
@@ -15539,7 +15863,7 @@
       <c r="W57" s="50"/>
       <c r="X57" s="50"/>
       <c r="Y57" s="51" t="s">
-        <v>365</v>
+        <v>473</v>
       </c>
       <c r="AG57" s="192"/>
       <c r="AH57" s="192"/>
@@ -15548,7 +15872,7 @@
       <c r="B58" s="60"/>
       <c r="C58" s="61"/>
       <c r="D58" s="109" t="s">
-        <v>366</v>
+        <v>474</v>
       </c>
       <c r="E58" s="110"/>
       <c r="F58" s="111"/>
@@ -15571,24 +15895,24 @@
       <c r="W58" s="111"/>
       <c r="X58" s="111"/>
       <c r="Y58" s="112" t="s">
-        <v>366</v>
+        <v>474</v>
       </c>
       <c r="AB58" s="195"/>
       <c r="AC58" s="195"/>
       <c r="AD58" s="195"/>
       <c r="AE58" s="195"/>
       <c r="AG58" s="14" t="s">
-        <v>367</v>
+        <v>475</v>
       </c>
       <c r="AH58" s="14"/>
     </row>
     <row r="59" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="36" t="s">
-        <v>368</v>
+        <v>476</v>
       </c>
       <c r="C59" s="37"/>
       <c r="D59" s="196" t="s">
-        <v>369</v>
+        <v>477</v>
       </c>
       <c r="E59" s="197"/>
       <c r="F59" s="198"/>
@@ -15611,7 +15935,7 @@
       <c r="W59" s="198"/>
       <c r="X59" s="198"/>
       <c r="Y59" s="199" t="s">
-        <v>369</v>
+        <v>477</v>
       </c>
       <c r="AG59" s="192"/>
       <c r="AH59" s="192"/>
@@ -15620,7 +15944,7 @@
       <c r="B60" s="42"/>
       <c r="C60" s="43"/>
       <c r="D60" s="56" t="s">
-        <v>370</v>
+        <v>478</v>
       </c>
       <c r="E60" s="57"/>
       <c r="F60" s="58"/>
@@ -15643,22 +15967,22 @@
       <c r="W60" s="58"/>
       <c r="X60" s="58"/>
       <c r="Y60" s="59" t="s">
-        <v>370</v>
+        <v>478</v>
       </c>
       <c r="AB60" s="135" t="s">
-        <v>345</v>
+        <v>453</v>
       </c>
       <c r="AC60" s="135" t="s">
-        <v>345</v>
+        <v>453</v>
       </c>
       <c r="AD60" s="135" t="s">
-        <v>345</v>
+        <v>453</v>
       </c>
       <c r="AE60" s="135" t="s">
-        <v>345</v>
+        <v>453</v>
       </c>
       <c r="AG60" s="14" t="s">
-        <v>371</v>
+        <v>479</v>
       </c>
       <c r="AH60" s="14"/>
     </row>
@@ -15666,7 +15990,7 @@
       <c r="B61" s="42"/>
       <c r="C61" s="43"/>
       <c r="D61" s="48" t="s">
-        <v>372</v>
+        <v>480</v>
       </c>
       <c r="E61" s="49"/>
       <c r="F61" s="50"/>
@@ -15689,7 +16013,7 @@
       <c r="W61" s="50"/>
       <c r="X61" s="50"/>
       <c r="Y61" s="51" t="s">
-        <v>372</v>
+        <v>480</v>
       </c>
       <c r="AB61" s="200"/>
       <c r="AC61" s="200"/>
@@ -15702,7 +16026,7 @@
       <c r="B62" s="60"/>
       <c r="C62" s="61"/>
       <c r="D62" s="109" t="s">
-        <v>373</v>
+        <v>481</v>
       </c>
       <c r="E62" s="110"/>
       <c r="F62" s="111"/>
@@ -15725,32 +16049,32 @@
       <c r="W62" s="111"/>
       <c r="X62" s="111"/>
       <c r="Y62" s="112" t="s">
-        <v>373</v>
+        <v>481</v>
       </c>
       <c r="AB62" s="135" t="s">
-        <v>346</v>
+        <v>454</v>
       </c>
       <c r="AC62" s="135" t="s">
-        <v>346</v>
+        <v>454</v>
       </c>
       <c r="AD62" s="135" t="s">
-        <v>346</v>
+        <v>454</v>
       </c>
       <c r="AE62" s="135" t="s">
-        <v>346</v>
+        <v>454</v>
       </c>
       <c r="AG62" s="14" t="s">
-        <v>374</v>
+        <v>482</v>
       </c>
       <c r="AH62" s="14"/>
     </row>
     <row r="63" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="36" t="s">
-        <v>375</v>
+        <v>483</v>
       </c>
       <c r="C63" s="37"/>
       <c r="D63" s="89" t="s">
-        <v>376</v>
+        <v>484</v>
       </c>
       <c r="E63" s="90"/>
       <c r="F63" s="91"/>
@@ -15773,7 +16097,7 @@
       <c r="W63" s="91"/>
       <c r="X63" s="91"/>
       <c r="Y63" s="92" t="s">
-        <v>376</v>
+        <v>484</v>
       </c>
       <c r="AG63" s="192"/>
       <c r="AH63" s="192"/>
@@ -15782,7 +16106,7 @@
       <c r="B64" s="42"/>
       <c r="C64" s="43"/>
       <c r="D64" s="52" t="s">
-        <v>377</v>
+        <v>485</v>
       </c>
       <c r="E64" s="53"/>
       <c r="F64" s="54"/>
@@ -15805,14 +16129,14 @@
       <c r="W64" s="54"/>
       <c r="X64" s="54"/>
       <c r="Y64" s="55" t="s">
-        <v>377</v>
+        <v>485</v>
       </c>
       <c r="AB64" s="201"/>
       <c r="AC64" s="201"/>
       <c r="AD64" s="201"/>
       <c r="AE64" s="201"/>
       <c r="AG64" s="14" t="s">
-        <v>378</v>
+        <v>486</v>
       </c>
       <c r="AH64" s="14"/>
     </row>
@@ -15820,7 +16144,7 @@
       <c r="B65" s="42"/>
       <c r="C65" s="43"/>
       <c r="D65" s="44" t="s">
-        <v>379</v>
+        <v>487</v>
       </c>
       <c r="E65" s="45"/>
       <c r="F65" s="46"/>
@@ -15843,14 +16167,14 @@
       <c r="W65" s="46"/>
       <c r="X65" s="46"/>
       <c r="Y65" s="47" t="s">
-        <v>379</v>
+        <v>487</v>
       </c>
     </row>
     <row r="66" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="60"/>
       <c r="C66" s="61"/>
       <c r="D66" s="62" t="s">
-        <v>380</v>
+        <v>488</v>
       </c>
       <c r="E66" s="63"/>
       <c r="F66" s="64"/>
@@ -15873,12 +16197,12 @@
       <c r="W66" s="64"/>
       <c r="X66" s="64"/>
       <c r="Y66" s="65" t="s">
-        <v>380</v>
+        <v>488</v>
       </c>
     </row>
     <row r="67" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="202" t="s">
-        <v>381</v>
+        <v>489</v>
       </c>
       <c r="C67" s="203"/>
       <c r="D67" s="204"/>
@@ -15906,7 +16230,7 @@
     </row>
     <row r="68" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="208" t="s">
-        <v>382</v>
+        <v>490</v>
       </c>
       <c r="C68" s="209" t="s">
         <v>4</v>
@@ -15933,13 +16257,13 @@
       <c r="W68" s="91"/>
       <c r="X68" s="91"/>
       <c r="Y68" s="211" t="s">
-        <v>383</v>
+        <v>491</v>
       </c>
     </row>
     <row r="69" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="212"/>
       <c r="C69" s="213" t="s">
-        <v>384</v>
+        <v>492</v>
       </c>
       <c r="D69" s="214"/>
       <c r="E69" s="57"/>
@@ -15967,7 +16291,7 @@
     <row r="70" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="212"/>
       <c r="C70" s="213" t="s">
-        <v>385</v>
+        <v>493</v>
       </c>
       <c r="D70" s="214"/>
       <c r="E70" s="57"/>
@@ -16079,7 +16403,7 @@
     <row r="74" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="212"/>
       <c r="C74" s="213" t="s">
-        <v>386</v>
+        <v>494</v>
       </c>
       <c r="D74" s="214"/>
       <c r="E74" s="57"/>
@@ -16107,7 +16431,7 @@
     <row r="75" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="212"/>
       <c r="C75" s="213" t="s">
-        <v>387</v>
+        <v>495</v>
       </c>
       <c r="D75" s="214"/>
       <c r="E75" s="216"/>
@@ -16135,7 +16459,7 @@
     <row r="76" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="218"/>
       <c r="C76" s="219" t="s">
-        <v>388</v>
+        <v>496</v>
       </c>
       <c r="D76" s="220"/>
       <c r="E76" s="221"/>
@@ -21205,13 +21529,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A30:BP38"/>
+  <dimension ref="A30:DO90"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="30" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>226</v>
       </c>
@@ -21219,7 +21543,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="31" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:119" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>228</v>
       </c>
@@ -21242,849 +21566,3521 @@
         <v>229</v>
       </c>
       <c r="I31" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y31" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z31" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AA31" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AB31" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC31" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AD31" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AE31" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AF31" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="AG31" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="AH31" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="AI31" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="AJ31" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="N31" s="1" t="s">
+      <c r="AK31" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="O31" s="1" t="s">
+      <c r="AL31" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="P31" s="1" t="s">
+      <c r="AM31" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="Q31" s="1" t="s">
+      <c r="AN31" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="R31" s="1" t="s">
+      <c r="AO31" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="S31" s="1" t="s">
+      <c r="AP31" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="T31" s="1" t="s">
+      <c r="AQ31" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="U31" s="1" t="s">
+      <c r="AR31" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="V31" s="1" t="s">
+      <c r="AS31" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AT31" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="W31" s="1" t="s">
+      <c r="AU31" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="X31" s="1" t="s">
+      <c r="AV31" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="Y31" s="1" t="s">
+      <c r="AW31" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="Z31" s="1" t="s">
+      <c r="AX31" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="AA31" s="1" t="s">
+      <c r="AY31" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="AB31" s="1" t="s">
+      <c r="AZ31" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="AC31" s="1" t="s">
+      <c r="BA31" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="AD31" s="1" t="s">
+      <c r="BB31" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="AE31" s="1" t="s">
+      <c r="BC31" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="AF31" s="1" t="s">
+      <c r="BD31" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="AG31" s="1" t="s">
+      <c r="BE31" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="AH31" s="1" t="s">
+      <c r="BF31" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="AI31" s="1" t="s">
+      <c r="BG31" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="BH31" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="BI31" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="BJ31" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="BK31" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="AJ31" s="1" t="s">
+      <c r="BL31" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="AK31" s="1" t="s">
+      <c r="BM31" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="AL31" s="1" t="s">
+      <c r="BN31" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="AM31" s="1" t="s">
+      <c r="BO31" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="AN31" s="1" t="s">
+      <c r="BP31" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="AO31" s="1" t="s">
+      <c r="BQ31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="BR31" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="AP31" s="1" t="s">
+      <c r="BS31" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="AQ31" s="1" t="s">
+      <c r="BT31" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="AR31" s="1" t="s">
+      <c r="BU31" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="AS31" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="AT31" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="AU31" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="AV31" s="1" t="s">
+      <c r="BV31" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="AW31" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="AX31" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="AY31" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="AZ31" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="BA31" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="BB31" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="BC31" s="1" t="s">
+      <c r="BW31" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="BD31" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="BE31" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="BF31" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="BG31" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="BH31" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="BI31" s="1" t="s">
+      <c r="BX31" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="BJ31" s="1" t="s">
+      <c r="BY31" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="BK31" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="BL31" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="BM31" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="BN31" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="BO31" s="1" t="s">
+      <c r="BZ31" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="BP31" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="32" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="CA31" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="CB31" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="CC31" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="CD31" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="CE31" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="CF31" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="CG31" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="CH31" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="CI31" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="CJ31" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="CK31" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="CL31" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="CM31" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="CN31" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="CO31" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="CP31" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="CQ31" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="CR31" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="CS31" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="CT31" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="CU31" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="CV31" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="CW31" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="CX31" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="CY31" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="CZ31" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="DA31" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="DB31" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="DC31" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="DD31" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="DE31" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="DF31" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="DG31" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="DH31" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="DI31" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="DJ31" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="DK31" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="DL31" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="DM31" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="DN31" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="DO31" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="32" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>249</v>
+        <v>311</v>
       </c>
       <c r="C32" t="s">
-        <v>252</v>
+        <v>314</v>
       </c>
       <c r="D32" t="s">
+        <v>314</v>
+      </c>
+      <c r="E32" t="s">
+        <v>314</v>
+      </c>
+      <c r="F32" t="s">
+        <v>314</v>
+      </c>
+      <c r="G32" t="s">
+        <v>314</v>
+      </c>
+      <c r="H32" t="s">
+        <v>314</v>
+      </c>
+      <c r="I32" t="s">
+        <v>314</v>
+      </c>
+      <c r="J32" t="s">
+        <v>314</v>
+      </c>
+      <c r="K32" t="s">
+        <v>314</v>
+      </c>
+      <c r="L32" t="s">
+        <v>314</v>
+      </c>
+      <c r="M32" t="s">
+        <v>314</v>
+      </c>
+      <c r="N32" t="s">
+        <v>314</v>
+      </c>
+      <c r="O32" t="s">
+        <v>314</v>
+      </c>
+      <c r="P32" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>314</v>
+      </c>
+      <c r="R32" t="s">
+        <v>314</v>
+      </c>
+      <c r="S32" t="s">
+        <v>314</v>
+      </c>
+      <c r="T32" t="s">
+        <v>314</v>
+      </c>
+      <c r="U32" t="s">
+        <v>314</v>
+      </c>
+      <c r="V32" t="s">
+        <v>314</v>
+      </c>
+      <c r="W32" t="s">
+        <v>314</v>
+      </c>
+      <c r="X32" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>314</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>314</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>335</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>338</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>341</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>342</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>343</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>314</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>314</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>335</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>346</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>347</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>348</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>343</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>314</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>314</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>335</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>356</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>341</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>358</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>343</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>314</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>360</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>361</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>341</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>363</v>
+      </c>
+      <c r="AY32" t="s">
+        <v>343</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>314</v>
+      </c>
+      <c r="BA32" t="s">
+        <v>314</v>
+      </c>
+      <c r="BB32" t="s">
+        <v>314</v>
+      </c>
+      <c r="BC32" t="s">
+        <v>314</v>
+      </c>
+      <c r="BD32" t="s">
+        <v>314</v>
+      </c>
+      <c r="BE32" t="s">
+        <v>314</v>
+      </c>
+      <c r="BF32" t="s">
+        <v>335</v>
+      </c>
+      <c r="BG32" t="s">
+        <v>369</v>
+      </c>
+      <c r="BH32" t="s">
+        <v>341</v>
+      </c>
+      <c r="BI32" t="s">
+        <v>342</v>
+      </c>
+      <c r="BJ32" t="s">
+        <v>370</v>
+      </c>
+      <c r="BK32" t="s">
+        <v>314</v>
+      </c>
+      <c r="BL32" t="s">
+        <v>314</v>
+      </c>
+      <c r="BM32" t="s">
+        <v>314</v>
+      </c>
+      <c r="BN32" t="s">
+        <v>375</v>
+      </c>
+      <c r="BO32" t="s">
+        <v>335</v>
+      </c>
+      <c r="BP32" t="s">
+        <v>376</v>
+      </c>
+      <c r="BQ32" t="s">
+        <v>341</v>
+      </c>
+      <c r="BR32" t="s">
+        <v>314</v>
+      </c>
+      <c r="BS32" t="s">
+        <v>314</v>
+      </c>
+      <c r="BT32" t="s">
+        <v>314</v>
+      </c>
+      <c r="BU32" t="s">
+        <v>314</v>
+      </c>
+      <c r="BV32" t="s">
+        <v>314</v>
+      </c>
+      <c r="BW32" t="s">
+        <v>314</v>
+      </c>
+      <c r="BX32" t="s">
+        <v>314</v>
+      </c>
+      <c r="BY32" t="s">
+        <v>314</v>
+      </c>
+      <c r="BZ32" t="s">
+        <v>314</v>
+      </c>
+      <c r="CA32" t="s">
+        <v>314</v>
+      </c>
+      <c r="CB32" t="s">
+        <v>314</v>
+      </c>
+      <c r="CC32" t="s">
+        <v>314</v>
+      </c>
+      <c r="CD32" t="s">
+        <v>314</v>
+      </c>
+      <c r="CE32" t="s">
+        <v>314</v>
+      </c>
+      <c r="CF32" t="s">
+        <v>391</v>
+      </c>
+      <c r="CG32" t="s">
+        <v>342</v>
+      </c>
+      <c r="CH32" t="s">
+        <v>392</v>
+      </c>
+      <c r="CI32" t="s">
+        <v>314</v>
+      </c>
+      <c r="CJ32" t="s">
+        <v>314</v>
+      </c>
+      <c r="CK32" t="s">
+        <v>314</v>
+      </c>
+      <c r="CL32" t="s">
+        <v>314</v>
+      </c>
+      <c r="CM32" t="s">
+        <v>314</v>
+      </c>
+      <c r="CN32" t="s">
+        <v>314</v>
+      </c>
+      <c r="CO32" t="s">
+        <v>394</v>
+      </c>
+      <c r="CP32" t="s">
+        <v>335</v>
+      </c>
+      <c r="CQ32" t="s">
+        <v>395</v>
+      </c>
+      <c r="CR32" t="s">
+        <v>341</v>
+      </c>
+      <c r="CS32" t="s">
+        <v>396</v>
+      </c>
+      <c r="CT32" t="s">
+        <v>343</v>
+      </c>
+      <c r="CU32" t="s">
+        <v>314</v>
+      </c>
+      <c r="CV32" t="s">
+        <v>335</v>
+      </c>
+      <c r="CW32" t="s">
+        <v>369</v>
+      </c>
+      <c r="CX32" t="s">
+        <v>341</v>
+      </c>
+      <c r="CY32" t="s">
+        <v>342</v>
+      </c>
+      <c r="CZ32" t="s">
+        <v>343</v>
+      </c>
+      <c r="DA32" t="s">
+        <v>314</v>
+      </c>
+      <c r="DB32" t="s">
+        <v>335</v>
+      </c>
+      <c r="DC32" t="s">
+        <v>398</v>
+      </c>
+      <c r="DD32" t="s">
+        <v>399</v>
+      </c>
+      <c r="DE32" t="s">
+        <v>400</v>
+      </c>
+      <c r="DF32" t="s">
+        <v>343</v>
+      </c>
+      <c r="DG32" t="s">
+        <v>314</v>
+      </c>
+      <c r="DH32" t="s">
+        <v>314</v>
+      </c>
+      <c r="DI32" t="s">
+        <v>314</v>
+      </c>
+      <c r="DJ32" t="s">
+        <v>314</v>
+      </c>
+      <c r="DK32" t="s">
+        <v>314</v>
+      </c>
+      <c r="DL32" t="s">
+        <v>314</v>
+      </c>
+      <c r="DM32" t="s">
+        <v>314</v>
+      </c>
+      <c r="DN32" t="s">
+        <v>314</v>
+      </c>
+      <c r="DO32" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="33" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B33" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>339</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>339</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>339</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>339</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>339</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>339</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>339</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>312</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>339</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>339</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>339</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>339</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>339</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>312</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>339</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>357</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>357</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>357</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>357</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>357</v>
+      </c>
+      <c r="AV33" t="s">
+        <v>357</v>
+      </c>
+      <c r="AW33" t="s">
+        <v>362</v>
+      </c>
+      <c r="AX33" t="s">
+        <v>339</v>
+      </c>
+      <c r="AY33" t="s">
+        <v>339</v>
+      </c>
+      <c r="AZ33" t="s">
+        <v>339</v>
+      </c>
+      <c r="BA33" t="s">
+        <v>339</v>
+      </c>
+      <c r="BB33" t="s">
+        <v>339</v>
+      </c>
+      <c r="BC33" t="s">
+        <v>339</v>
+      </c>
+      <c r="BD33" t="s">
+        <v>339</v>
+      </c>
+      <c r="BE33" t="s">
+        <v>339</v>
+      </c>
+      <c r="BF33" t="s">
+        <v>339</v>
+      </c>
+      <c r="BG33" t="s">
+        <v>339</v>
+      </c>
+      <c r="BH33" t="s">
+        <v>339</v>
+      </c>
+      <c r="BI33" t="s">
+        <v>339</v>
+      </c>
+      <c r="BJ33" t="s">
+        <v>339</v>
+      </c>
+      <c r="BN33" t="s">
+        <v>339</v>
+      </c>
+      <c r="BO33" t="s">
+        <v>339</v>
+      </c>
+      <c r="BP33" t="s">
+        <v>312</v>
+      </c>
+      <c r="BQ33" t="s">
+        <v>312</v>
+      </c>
+      <c r="CF33" t="s">
+        <v>312</v>
+      </c>
+      <c r="CG33" t="s">
+        <v>312</v>
+      </c>
+      <c r="CH33" t="s">
+        <v>312</v>
+      </c>
+      <c r="CO33" t="s">
+        <v>312</v>
+      </c>
+      <c r="CP33" t="s">
+        <v>339</v>
+      </c>
+      <c r="CQ33" t="s">
+        <v>312</v>
+      </c>
+      <c r="CR33" t="s">
+        <v>339</v>
+      </c>
+      <c r="CS33" t="s">
+        <v>339</v>
+      </c>
+      <c r="CT33" t="s">
+        <v>339</v>
+      </c>
+      <c r="CU33" t="s">
+        <v>339</v>
+      </c>
+      <c r="CV33" t="s">
+        <v>339</v>
+      </c>
+      <c r="CW33" t="s">
+        <v>339</v>
+      </c>
+      <c r="CX33" t="s">
+        <v>312</v>
+      </c>
+      <c r="CY33" t="s">
+        <v>312</v>
+      </c>
+      <c r="CZ33" t="s">
+        <v>312</v>
+      </c>
+      <c r="DA33" t="s">
+        <v>312</v>
+      </c>
+      <c r="DB33" t="s">
+        <v>312</v>
+      </c>
+      <c r="DC33" t="s">
+        <v>312</v>
+      </c>
+      <c r="DD33" t="s">
+        <v>312</v>
+      </c>
+      <c r="DE33" t="s">
+        <v>312</v>
+      </c>
+      <c r="DF33" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="34" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B34" t="s">
+        <v>313</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>337</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>340</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>340</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>340</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>340</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>340</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>340</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>340</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>313</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>313</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>313</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>313</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>313</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>313</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>313</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>313</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>337</v>
+      </c>
+      <c r="AR34" t="s">
+        <v>337</v>
+      </c>
+      <c r="AS34" t="s">
+        <v>337</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>337</v>
+      </c>
+      <c r="AU34" t="s">
+        <v>337</v>
+      </c>
+      <c r="AV34" t="s">
+        <v>337</v>
+      </c>
+      <c r="AW34" t="s">
+        <v>337</v>
+      </c>
+      <c r="AX34" t="s">
+        <v>340</v>
+      </c>
+      <c r="AY34" t="s">
+        <v>340</v>
+      </c>
+      <c r="AZ34" t="s">
+        <v>313</v>
+      </c>
+      <c r="BA34" t="s">
+        <v>313</v>
+      </c>
+      <c r="BB34" t="s">
+        <v>313</v>
+      </c>
+      <c r="BC34" t="s">
+        <v>313</v>
+      </c>
+      <c r="BD34" t="s">
+        <v>313</v>
+      </c>
+      <c r="BE34" t="s">
+        <v>313</v>
+      </c>
+      <c r="BF34" t="s">
+        <v>340</v>
+      </c>
+      <c r="BG34" t="s">
+        <v>340</v>
+      </c>
+      <c r="BH34" t="s">
+        <v>340</v>
+      </c>
+      <c r="BI34" t="s">
+        <v>313</v>
+      </c>
+      <c r="BJ34" t="s">
+        <v>313</v>
+      </c>
+      <c r="BN34" t="s">
+        <v>313</v>
+      </c>
+      <c r="BO34" t="s">
+        <v>313</v>
+      </c>
+      <c r="BP34" t="s">
+        <v>313</v>
+      </c>
+      <c r="BQ34" t="s">
+        <v>313</v>
+      </c>
+      <c r="CF34" t="s">
+        <v>313</v>
+      </c>
+      <c r="CG34" t="s">
+        <v>313</v>
+      </c>
+      <c r="CH34" t="s">
+        <v>313</v>
+      </c>
+      <c r="CO34" t="s">
+        <v>313</v>
+      </c>
+      <c r="CP34" t="s">
+        <v>313</v>
+      </c>
+      <c r="CQ34" t="s">
+        <v>313</v>
+      </c>
+      <c r="CR34" t="s">
+        <v>313</v>
+      </c>
+      <c r="CS34" t="s">
+        <v>313</v>
+      </c>
+      <c r="CT34" t="s">
+        <v>313</v>
+      </c>
+      <c r="CU34" t="s">
+        <v>313</v>
+      </c>
+      <c r="CV34" t="s">
+        <v>313</v>
+      </c>
+      <c r="CW34" t="s">
+        <v>313</v>
+      </c>
+      <c r="CX34" t="s">
+        <v>313</v>
+      </c>
+      <c r="CY34" t="s">
+        <v>313</v>
+      </c>
+      <c r="CZ34" t="s">
+        <v>313</v>
+      </c>
+      <c r="DA34" t="s">
+        <v>313</v>
+      </c>
+      <c r="DB34" t="s">
+        <v>313</v>
+      </c>
+      <c r="DC34" t="s">
+        <v>313</v>
+      </c>
+      <c r="DD34" t="s">
+        <v>313</v>
+      </c>
+      <c r="DE34" t="s">
+        <v>313</v>
+      </c>
+      <c r="DF34" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="35" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="36" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="E32" t="s">
+      <c r="BR36" t="s">
+        <v>331</v>
+      </c>
+      <c r="BT36" t="s">
+        <v>331</v>
+      </c>
+      <c r="CI36" t="s">
+        <v>331</v>
+      </c>
+      <c r="CJ36" t="s">
+        <v>331</v>
+      </c>
+      <c r="CK36" t="s">
+        <v>331</v>
+      </c>
+      <c r="CL36" t="s">
+        <v>331</v>
+      </c>
+      <c r="CM36" t="s">
+        <v>331</v>
+      </c>
+      <c r="CN36" t="s">
+        <v>331</v>
+      </c>
+      <c r="CU36" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="37" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C37" t="s">
+        <v>315</v>
+      </c>
+      <c r="D37" t="s">
+        <v>315</v>
+      </c>
+      <c r="E37" t="s">
+        <v>315</v>
+      </c>
+      <c r="F37" t="s">
+        <v>315</v>
+      </c>
+      <c r="G37" t="s">
+        <v>315</v>
+      </c>
+      <c r="H37" t="s">
+        <v>315</v>
+      </c>
+      <c r="I37" t="s">
+        <v>315</v>
+      </c>
+      <c r="J37" t="s">
+        <v>315</v>
+      </c>
+      <c r="K37" t="s">
+        <v>315</v>
+      </c>
+      <c r="L37" t="s">
+        <v>315</v>
+      </c>
+      <c r="M37" t="s">
+        <v>315</v>
+      </c>
+      <c r="N37" t="s">
+        <v>315</v>
+      </c>
+      <c r="O37" t="s">
+        <v>315</v>
+      </c>
+      <c r="P37" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>315</v>
+      </c>
+      <c r="R37" t="s">
+        <v>315</v>
+      </c>
+      <c r="S37" t="s">
+        <v>315</v>
+      </c>
+      <c r="T37" t="s">
+        <v>315</v>
+      </c>
+      <c r="U37" t="s">
+        <v>315</v>
+      </c>
+      <c r="V37" t="s">
+        <v>315</v>
+      </c>
+      <c r="W37" t="s">
+        <v>315</v>
+      </c>
+      <c r="X37" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>315</v>
+      </c>
+      <c r="BK37" t="s">
+        <v>315</v>
+      </c>
+      <c r="BL37" t="s">
+        <v>315</v>
+      </c>
+      <c r="BM37" t="s">
+        <v>315</v>
+      </c>
+      <c r="BU37" t="s">
+        <v>320</v>
+      </c>
+      <c r="BW37" t="s">
+        <v>320</v>
+      </c>
+      <c r="BX37" t="s">
+        <v>320</v>
+      </c>
+      <c r="BY37" t="s">
+        <v>320</v>
+      </c>
+      <c r="CI37" t="s">
+        <v>315</v>
+      </c>
+      <c r="CJ37" t="s">
+        <v>315</v>
+      </c>
+      <c r="CK37" t="s">
+        <v>315</v>
+      </c>
+      <c r="CL37" t="s">
+        <v>315</v>
+      </c>
+      <c r="CM37" t="s">
+        <v>315</v>
+      </c>
+      <c r="CN37" t="s">
+        <v>315</v>
+      </c>
+      <c r="DA37" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="38" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C38" t="s">
+        <v>316</v>
+      </c>
+      <c r="D38" t="s">
+        <v>316</v>
+      </c>
+      <c r="E38" t="s">
+        <v>316</v>
+      </c>
+      <c r="F38" t="s">
+        <v>316</v>
+      </c>
+      <c r="G38" t="s">
+        <v>316</v>
+      </c>
+      <c r="H38" t="s">
+        <v>316</v>
+      </c>
+      <c r="I38" t="s">
+        <v>316</v>
+      </c>
+      <c r="J38" t="s">
+        <v>316</v>
+      </c>
+      <c r="K38" t="s">
+        <v>316</v>
+      </c>
+      <c r="L38" t="s">
+        <v>316</v>
+      </c>
+      <c r="M38" t="s">
+        <v>316</v>
+      </c>
+      <c r="N38" t="s">
+        <v>334</v>
+      </c>
+      <c r="O38" t="s">
+        <v>334</v>
+      </c>
+      <c r="P38" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>334</v>
+      </c>
+      <c r="R38" t="s">
+        <v>334</v>
+      </c>
+      <c r="S38" t="s">
+        <v>334</v>
+      </c>
+      <c r="T38" t="s">
+        <v>334</v>
+      </c>
+      <c r="U38" t="s">
+        <v>334</v>
+      </c>
+      <c r="V38" t="s">
+        <v>334</v>
+      </c>
+      <c r="W38" t="s">
+        <v>334</v>
+      </c>
+      <c r="X38" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>334</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>334</v>
+      </c>
+      <c r="AZ38" t="s">
+        <v>364</v>
+      </c>
+      <c r="BA38" t="s">
+        <v>364</v>
+      </c>
+      <c r="BB38" t="s">
+        <v>364</v>
+      </c>
+      <c r="BC38" t="s">
+        <v>364</v>
+      </c>
+      <c r="BD38" t="s">
+        <v>368</v>
+      </c>
+      <c r="BE38" t="s">
+        <v>368</v>
+      </c>
+      <c r="BK38" t="s">
+        <v>371</v>
+      </c>
+      <c r="BL38" t="s">
+        <v>373</v>
+      </c>
+      <c r="BM38" t="s">
+        <v>374</v>
+      </c>
+      <c r="BS38" t="s">
+        <v>364</v>
+      </c>
+      <c r="BU38" t="s">
+        <v>378</v>
+      </c>
+      <c r="BW38" t="s">
+        <v>364</v>
+      </c>
+      <c r="CB38" t="s">
+        <v>383</v>
+      </c>
+      <c r="CC38" t="s">
+        <v>383</v>
+      </c>
+      <c r="CD38" t="s">
+        <v>383</v>
+      </c>
+      <c r="CE38" t="s">
+        <v>383</v>
+      </c>
+      <c r="DA38" t="s">
+        <v>364</v>
+      </c>
+      <c r="DG38" t="s">
+        <v>364</v>
+      </c>
+      <c r="DH38" t="s">
+        <v>364</v>
+      </c>
+      <c r="DI38" t="s">
+        <v>364</v>
+      </c>
+      <c r="DJ38" t="s">
+        <v>364</v>
+      </c>
+      <c r="DK38" t="s">
+        <v>319</v>
+      </c>
+      <c r="DL38" t="s">
+        <v>405</v>
+      </c>
+      <c r="DO38" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="39" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="F32" t="s">
+      <c r="BU39" t="s">
+        <v>379</v>
+      </c>
+      <c r="CU39" t="s">
+        <v>379</v>
+      </c>
+      <c r="DA39" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="40" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="BV40" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="41" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C41" t="s">
+        <v>317</v>
+      </c>
+      <c r="D41" t="s">
+        <v>317</v>
+      </c>
+      <c r="E41" t="s">
+        <v>317</v>
+      </c>
+      <c r="F41" t="s">
+        <v>317</v>
+      </c>
+      <c r="G41" t="s">
+        <v>317</v>
+      </c>
+      <c r="H41" t="s">
+        <v>317</v>
+      </c>
+      <c r="I41" t="s">
+        <v>317</v>
+      </c>
+      <c r="J41" t="s">
+        <v>317</v>
+      </c>
+      <c r="K41" t="s">
+        <v>317</v>
+      </c>
+      <c r="L41" t="s">
+        <v>317</v>
+      </c>
+      <c r="M41" t="s">
+        <v>317</v>
+      </c>
+      <c r="N41" t="s">
+        <v>317</v>
+      </c>
+      <c r="O41" t="s">
+        <v>317</v>
+      </c>
+      <c r="P41" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>317</v>
+      </c>
+      <c r="R41" t="s">
+        <v>317</v>
+      </c>
+      <c r="S41" t="s">
+        <v>317</v>
+      </c>
+      <c r="T41" t="s">
+        <v>317</v>
+      </c>
+      <c r="U41" t="s">
+        <v>317</v>
+      </c>
+      <c r="V41" t="s">
+        <v>317</v>
+      </c>
+      <c r="W41" t="s">
+        <v>317</v>
+      </c>
+      <c r="X41" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>317</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>317</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>349</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>349</v>
+      </c>
+      <c r="AZ41" t="s">
+        <v>352</v>
+      </c>
+      <c r="BA41" t="s">
+        <v>352</v>
+      </c>
+      <c r="BB41" t="s">
+        <v>352</v>
+      </c>
+      <c r="BC41" t="s">
+        <v>352</v>
+      </c>
+      <c r="BD41" t="s">
+        <v>352</v>
+      </c>
+      <c r="BE41" t="s">
+        <v>352</v>
+      </c>
+      <c r="BX41" t="s">
+        <v>380</v>
+      </c>
+      <c r="BY41" t="s">
+        <v>381</v>
+      </c>
+      <c r="CA41" t="s">
+        <v>382</v>
+      </c>
+      <c r="CB41" t="s">
+        <v>384</v>
+      </c>
+      <c r="CC41" t="s">
+        <v>384</v>
+      </c>
+      <c r="CD41" t="s">
+        <v>390</v>
+      </c>
+      <c r="CE41" t="s">
+        <v>390</v>
+      </c>
+      <c r="CI41" t="s">
+        <v>384</v>
+      </c>
+      <c r="CJ41" t="s">
+        <v>390</v>
+      </c>
+      <c r="CK41" t="s">
+        <v>384</v>
+      </c>
+      <c r="CL41" t="s">
+        <v>384</v>
+      </c>
+      <c r="CM41" t="s">
+        <v>390</v>
+      </c>
+      <c r="CN41" t="s">
+        <v>384</v>
+      </c>
+      <c r="DA41" t="s">
+        <v>384</v>
+      </c>
+      <c r="DG41" t="s">
+        <v>382</v>
+      </c>
+      <c r="DH41" t="s">
+        <v>382</v>
+      </c>
+      <c r="DI41" t="s">
+        <v>384</v>
+      </c>
+      <c r="DJ41" t="s">
+        <v>382</v>
+      </c>
+      <c r="DK41" t="s">
+        <v>382</v>
+      </c>
+      <c r="DL41" t="s">
+        <v>382</v>
+      </c>
+      <c r="DM41" t="s">
+        <v>382</v>
+      </c>
+      <c r="DN41" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="42" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="G32" t="s">
+      <c r="BZ42" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="43" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="H32" t="s">
+      <c r="C43" t="s">
+        <v>318</v>
+      </c>
+      <c r="D43" t="s">
+        <v>318</v>
+      </c>
+      <c r="E43" t="s">
+        <v>318</v>
+      </c>
+      <c r="F43" t="s">
+        <v>318</v>
+      </c>
+      <c r="G43" t="s">
+        <v>318</v>
+      </c>
+      <c r="H43" t="s">
+        <v>333</v>
+      </c>
+      <c r="I43" t="s">
+        <v>333</v>
+      </c>
+      <c r="J43" t="s">
+        <v>333</v>
+      </c>
+      <c r="K43" t="s">
+        <v>333</v>
+      </c>
+      <c r="L43" t="s">
+        <v>333</v>
+      </c>
+      <c r="M43" t="s">
+        <v>333</v>
+      </c>
+      <c r="N43" t="s">
+        <v>318</v>
+      </c>
+      <c r="O43" t="s">
+        <v>318</v>
+      </c>
+      <c r="P43" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>318</v>
+      </c>
+      <c r="R43" t="s">
+        <v>318</v>
+      </c>
+      <c r="S43" t="s">
+        <v>318</v>
+      </c>
+      <c r="T43" t="s">
+        <v>333</v>
+      </c>
+      <c r="U43" t="s">
+        <v>333</v>
+      </c>
+      <c r="V43" t="s">
+        <v>333</v>
+      </c>
+      <c r="W43" t="s">
+        <v>333</v>
+      </c>
+      <c r="X43" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>333</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>333</v>
+      </c>
+      <c r="AT43" t="s">
+        <v>359</v>
+      </c>
+      <c r="AZ43" t="s">
+        <v>359</v>
+      </c>
+      <c r="BA43" t="s">
+        <v>359</v>
+      </c>
+      <c r="BB43" t="s">
+        <v>359</v>
+      </c>
+      <c r="BC43" t="s">
+        <v>359</v>
+      </c>
+      <c r="BD43" t="s">
+        <v>359</v>
+      </c>
+      <c r="BE43" t="s">
+        <v>359</v>
+      </c>
+      <c r="CA43" t="s">
+        <v>359</v>
+      </c>
+      <c r="CB43" t="s">
+        <v>318</v>
+      </c>
+      <c r="CC43" t="s">
+        <v>318</v>
+      </c>
+      <c r="CD43" t="s">
+        <v>318</v>
+      </c>
+      <c r="CE43" t="s">
+        <v>318</v>
+      </c>
+      <c r="CI43" t="s">
+        <v>333</v>
+      </c>
+      <c r="CJ43" t="s">
+        <v>333</v>
+      </c>
+      <c r="CK43" t="s">
+        <v>333</v>
+      </c>
+      <c r="CL43" t="s">
+        <v>333</v>
+      </c>
+      <c r="CM43" t="s">
+        <v>333</v>
+      </c>
+      <c r="CN43" t="s">
+        <v>333</v>
+      </c>
+      <c r="DG43" t="s">
+        <v>401</v>
+      </c>
+      <c r="DH43" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="44" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="I32" t="s">
-        <v>252</v>
-      </c>
-      <c r="J32" t="s">
-        <v>252</v>
-      </c>
-      <c r="K32" t="s">
-        <v>256</v>
-      </c>
-      <c r="L32" t="s">
+      <c r="CB44" t="s">
+        <v>385</v>
+      </c>
+      <c r="CC44" t="s">
+        <v>385</v>
+      </c>
+      <c r="CD44" t="s">
+        <v>385</v>
+      </c>
+      <c r="CE44" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="45" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="AM45" t="s">
+        <v>350</v>
+      </c>
+      <c r="AN45" t="s">
+        <v>350</v>
+      </c>
+      <c r="BR45" t="s">
+        <v>350</v>
+      </c>
+      <c r="CU45" t="s">
+        <v>393</v>
+      </c>
+      <c r="DO45" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="46" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="M32" t="s">
+      <c r="AM46" t="s">
+        <v>351</v>
+      </c>
+      <c r="AN46" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="47" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="N32" t="s">
+      <c r="AM47" t="s">
+        <v>352</v>
+      </c>
+      <c r="AN47" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="48" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="O32" t="s">
-        <v>264</v>
-      </c>
-      <c r="P32" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>256</v>
-      </c>
-      <c r="R32" t="s">
+      <c r="C48" t="s">
+        <v>319</v>
+      </c>
+      <c r="D48" t="s">
+        <v>319</v>
+      </c>
+      <c r="E48" t="s">
+        <v>319</v>
+      </c>
+      <c r="F48" t="s">
+        <v>319</v>
+      </c>
+      <c r="G48" t="s">
+        <v>319</v>
+      </c>
+      <c r="H48" t="s">
+        <v>319</v>
+      </c>
+      <c r="I48" t="s">
+        <v>319</v>
+      </c>
+      <c r="J48" t="s">
+        <v>319</v>
+      </c>
+      <c r="K48" t="s">
+        <v>319</v>
+      </c>
+      <c r="L48" t="s">
+        <v>319</v>
+      </c>
+      <c r="M48" t="s">
+        <v>319</v>
+      </c>
+      <c r="N48" t="s">
+        <v>319</v>
+      </c>
+      <c r="O48" t="s">
+        <v>319</v>
+      </c>
+      <c r="P48" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>319</v>
+      </c>
+      <c r="R48" t="s">
+        <v>319</v>
+      </c>
+      <c r="S48" t="s">
+        <v>319</v>
+      </c>
+      <c r="T48" t="s">
+        <v>319</v>
+      </c>
+      <c r="U48" t="s">
+        <v>319</v>
+      </c>
+      <c r="V48" t="s">
+        <v>319</v>
+      </c>
+      <c r="W48" t="s">
+        <v>319</v>
+      </c>
+      <c r="X48" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>319</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>319</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>344</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>344</v>
+      </c>
+      <c r="AT48" t="s">
+        <v>319</v>
+      </c>
+      <c r="AZ48" t="s">
+        <v>365</v>
+      </c>
+      <c r="BA48" t="s">
+        <v>365</v>
+      </c>
+      <c r="BB48" t="s">
+        <v>365</v>
+      </c>
+      <c r="BC48" t="s">
+        <v>365</v>
+      </c>
+      <c r="BD48" t="s">
+        <v>365</v>
+      </c>
+      <c r="BE48" t="s">
+        <v>365</v>
+      </c>
+      <c r="BK48" t="s">
+        <v>372</v>
+      </c>
+      <c r="BL48" t="s">
+        <v>372</v>
+      </c>
+      <c r="BM48" t="s">
+        <v>372</v>
+      </c>
+      <c r="CU48" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="49" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="S32" t="s">
-        <v>262</v>
-      </c>
-      <c r="T32" t="s">
+      <c r="AT49" t="s">
+        <v>353</v>
+      </c>
+      <c r="AZ49" t="s">
+        <v>353</v>
+      </c>
+      <c r="BA49" t="s">
+        <v>353</v>
+      </c>
+      <c r="BB49" t="s">
+        <v>353</v>
+      </c>
+      <c r="BC49" t="s">
+        <v>353</v>
+      </c>
+      <c r="BD49" t="s">
+        <v>353</v>
+      </c>
+      <c r="BE49" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="50" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AT50" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="51" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="U32" t="s">
-        <v>264</v>
-      </c>
-      <c r="V32" t="s">
-        <v>252</v>
-      </c>
-      <c r="W32" t="s">
+      <c r="AZ51" t="s">
+        <v>366</v>
+      </c>
+      <c r="BA51" t="s">
+        <v>366</v>
+      </c>
+      <c r="BB51" t="s">
+        <v>366</v>
+      </c>
+      <c r="BC51" t="s">
+        <v>366</v>
+      </c>
+      <c r="BD51" t="s">
+        <v>366</v>
+      </c>
+      <c r="BE51" t="s">
+        <v>366</v>
+      </c>
+      <c r="CB51" t="s">
+        <v>386</v>
+      </c>
+      <c r="CC51" t="s">
+        <v>379</v>
+      </c>
+      <c r="CD51" t="s">
+        <v>386</v>
+      </c>
+      <c r="CE51" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="52" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C52" t="s">
+        <v>320</v>
+      </c>
+      <c r="D52" t="s">
+        <v>320</v>
+      </c>
+      <c r="E52" t="s">
+        <v>320</v>
+      </c>
+      <c r="F52" t="s">
+        <v>320</v>
+      </c>
+      <c r="G52" t="s">
+        <v>320</v>
+      </c>
+      <c r="H52" t="s">
+        <v>320</v>
+      </c>
+      <c r="I52" t="s">
+        <v>320</v>
+      </c>
+      <c r="J52" t="s">
+        <v>320</v>
+      </c>
+      <c r="K52" t="s">
+        <v>320</v>
+      </c>
+      <c r="L52" t="s">
+        <v>320</v>
+      </c>
+      <c r="M52" t="s">
+        <v>320</v>
+      </c>
+      <c r="N52" t="s">
+        <v>320</v>
+      </c>
+      <c r="O52" t="s">
+        <v>320</v>
+      </c>
+      <c r="P52" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>320</v>
+      </c>
+      <c r="R52" t="s">
+        <v>320</v>
+      </c>
+      <c r="S52" t="s">
+        <v>320</v>
+      </c>
+      <c r="T52" t="s">
+        <v>320</v>
+      </c>
+      <c r="U52" t="s">
+        <v>320</v>
+      </c>
+      <c r="V52" t="s">
+        <v>320</v>
+      </c>
+      <c r="W52" t="s">
+        <v>320</v>
+      </c>
+      <c r="X52" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>320</v>
+      </c>
+      <c r="AZ52" t="s">
+        <v>320</v>
+      </c>
+      <c r="BA52" t="s">
+        <v>320</v>
+      </c>
+      <c r="BB52" t="s">
+        <v>320</v>
+      </c>
+      <c r="BC52" t="s">
+        <v>320</v>
+      </c>
+      <c r="BD52" t="s">
+        <v>320</v>
+      </c>
+      <c r="BE52" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="53" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="X32" t="s">
+      <c r="AZ53" t="s">
+        <v>330</v>
+      </c>
+      <c r="BA53" t="s">
+        <v>330</v>
+      </c>
+      <c r="BB53" t="s">
+        <v>330</v>
+      </c>
+      <c r="BC53" t="s">
+        <v>330</v>
+      </c>
+      <c r="BD53" t="s">
+        <v>330</v>
+      </c>
+      <c r="BE53" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="54" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="Y32" t="s">
-        <v>262</v>
-      </c>
-      <c r="Z32" t="s">
+      <c r="AZ54" t="s">
+        <v>367</v>
+      </c>
+      <c r="BA54" t="s">
+        <v>367</v>
+      </c>
+      <c r="BB54" t="s">
+        <v>367</v>
+      </c>
+      <c r="BC54" t="s">
+        <v>367</v>
+      </c>
+      <c r="BD54" t="s">
+        <v>367</v>
+      </c>
+      <c r="BE54" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="55" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C55" t="s">
+        <v>321</v>
+      </c>
+      <c r="D55" t="s">
+        <v>321</v>
+      </c>
+      <c r="E55" t="s">
+        <v>321</v>
+      </c>
+      <c r="F55" t="s">
+        <v>321</v>
+      </c>
+      <c r="G55" t="s">
+        <v>321</v>
+      </c>
+      <c r="H55" t="s">
+        <v>321</v>
+      </c>
+      <c r="I55" t="s">
+        <v>321</v>
+      </c>
+      <c r="J55" t="s">
+        <v>321</v>
+      </c>
+      <c r="K55" t="s">
+        <v>321</v>
+      </c>
+      <c r="L55" t="s">
+        <v>321</v>
+      </c>
+      <c r="M55" t="s">
+        <v>321</v>
+      </c>
+      <c r="N55" t="s">
+        <v>321</v>
+      </c>
+      <c r="O55" t="s">
+        <v>321</v>
+      </c>
+      <c r="P55" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>321</v>
+      </c>
+      <c r="R55" t="s">
+        <v>321</v>
+      </c>
+      <c r="S55" t="s">
+        <v>321</v>
+      </c>
+      <c r="T55" t="s">
+        <v>321</v>
+      </c>
+      <c r="U55" t="s">
+        <v>321</v>
+      </c>
+      <c r="V55" t="s">
+        <v>321</v>
+      </c>
+      <c r="W55" t="s">
+        <v>321</v>
+      </c>
+      <c r="X55" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>321</v>
+      </c>
+      <c r="AM55" t="s">
+        <v>353</v>
+      </c>
+      <c r="AN55" t="s">
+        <v>353</v>
+      </c>
+      <c r="CI55" t="s">
+        <v>321</v>
+      </c>
+      <c r="CJ55" t="s">
+        <v>321</v>
+      </c>
+      <c r="CK55" t="s">
+        <v>321</v>
+      </c>
+      <c r="CL55" t="s">
+        <v>321</v>
+      </c>
+      <c r="CM55" t="s">
+        <v>321</v>
+      </c>
+      <c r="CN55" t="s">
+        <v>321</v>
+      </c>
+      <c r="CU55" t="s">
+        <v>321</v>
+      </c>
+      <c r="DA55" t="s">
+        <v>321</v>
+      </c>
+      <c r="DG55" t="s">
+        <v>321</v>
+      </c>
+      <c r="DH55" t="s">
+        <v>321</v>
+      </c>
+      <c r="DI55" t="s">
+        <v>353</v>
+      </c>
+      <c r="DO55" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="56" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="AA32" t="s">
-        <v>264</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>252</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>252</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>256</v>
-      </c>
-      <c r="AE32" t="s">
+      <c r="C56" t="s">
+        <v>322</v>
+      </c>
+      <c r="D56" t="s">
+        <v>322</v>
+      </c>
+      <c r="E56" t="s">
+        <v>322</v>
+      </c>
+      <c r="F56" t="s">
+        <v>322</v>
+      </c>
+      <c r="G56" t="s">
+        <v>322</v>
+      </c>
+      <c r="H56" t="s">
+        <v>322</v>
+      </c>
+      <c r="I56" t="s">
+        <v>322</v>
+      </c>
+      <c r="J56" t="s">
+        <v>322</v>
+      </c>
+      <c r="K56" t="s">
+        <v>322</v>
+      </c>
+      <c r="L56" t="s">
+        <v>322</v>
+      </c>
+      <c r="M56" t="s">
+        <v>322</v>
+      </c>
+      <c r="N56" t="s">
+        <v>322</v>
+      </c>
+      <c r="O56" t="s">
+        <v>322</v>
+      </c>
+      <c r="P56" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>322</v>
+      </c>
+      <c r="R56" t="s">
+        <v>322</v>
+      </c>
+      <c r="S56" t="s">
+        <v>322</v>
+      </c>
+      <c r="T56" t="s">
+        <v>322</v>
+      </c>
+      <c r="U56" t="s">
+        <v>322</v>
+      </c>
+      <c r="V56" t="s">
+        <v>322</v>
+      </c>
+      <c r="W56" t="s">
+        <v>322</v>
+      </c>
+      <c r="X56" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="57" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C57" t="s">
+        <v>323</v>
+      </c>
+      <c r="D57" t="s">
+        <v>323</v>
+      </c>
+      <c r="E57" t="s">
+        <v>323</v>
+      </c>
+      <c r="F57" t="s">
+        <v>323</v>
+      </c>
+      <c r="G57" t="s">
+        <v>323</v>
+      </c>
+      <c r="H57" t="s">
+        <v>323</v>
+      </c>
+      <c r="I57" t="s">
+        <v>323</v>
+      </c>
+      <c r="J57" t="s">
+        <v>323</v>
+      </c>
+      <c r="K57" t="s">
+        <v>323</v>
+      </c>
+      <c r="L57" t="s">
+        <v>323</v>
+      </c>
+      <c r="M57" t="s">
+        <v>323</v>
+      </c>
+      <c r="N57" t="s">
+        <v>323</v>
+      </c>
+      <c r="O57" t="s">
+        <v>323</v>
+      </c>
+      <c r="P57" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>323</v>
+      </c>
+      <c r="R57" t="s">
+        <v>323</v>
+      </c>
+      <c r="S57" t="s">
+        <v>323</v>
+      </c>
+      <c r="T57" t="s">
+        <v>323</v>
+      </c>
+      <c r="U57" t="s">
+        <v>323</v>
+      </c>
+      <c r="V57" t="s">
+        <v>323</v>
+      </c>
+      <c r="W57" t="s">
+        <v>323</v>
+      </c>
+      <c r="X57" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>323</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="58" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C58" t="s">
+        <v>322</v>
+      </c>
+      <c r="D58" t="s">
+        <v>322</v>
+      </c>
+      <c r="E58" t="s">
+        <v>322</v>
+      </c>
+      <c r="F58" t="s">
+        <v>322</v>
+      </c>
+      <c r="G58" t="s">
+        <v>322</v>
+      </c>
+      <c r="H58" t="s">
+        <v>322</v>
+      </c>
+      <c r="I58" t="s">
+        <v>322</v>
+      </c>
+      <c r="J58" t="s">
+        <v>322</v>
+      </c>
+      <c r="K58" t="s">
+        <v>322</v>
+      </c>
+      <c r="L58" t="s">
+        <v>322</v>
+      </c>
+      <c r="M58" t="s">
+        <v>322</v>
+      </c>
+      <c r="N58" t="s">
+        <v>322</v>
+      </c>
+      <c r="O58" t="s">
+        <v>322</v>
+      </c>
+      <c r="P58" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>322</v>
+      </c>
+      <c r="R58" t="s">
+        <v>322</v>
+      </c>
+      <c r="S58" t="s">
+        <v>322</v>
+      </c>
+      <c r="T58" t="s">
+        <v>322</v>
+      </c>
+      <c r="U58" t="s">
+        <v>322</v>
+      </c>
+      <c r="V58" t="s">
+        <v>322</v>
+      </c>
+      <c r="W58" t="s">
+        <v>322</v>
+      </c>
+      <c r="X58" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>322</v>
+      </c>
+      <c r="AM58" t="s">
+        <v>322</v>
+      </c>
+      <c r="AN58" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="59" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="AF32" t="s">
-        <v>262</v>
-      </c>
-      <c r="AG32" t="s">
-        <v>263</v>
-      </c>
-      <c r="AH32" t="s">
+      <c r="C59" t="s">
+        <v>324</v>
+      </c>
+      <c r="D59" t="s">
+        <v>324</v>
+      </c>
+      <c r="E59" t="s">
+        <v>324</v>
+      </c>
+      <c r="F59" t="s">
+        <v>324</v>
+      </c>
+      <c r="G59" t="s">
+        <v>324</v>
+      </c>
+      <c r="H59" t="s">
+        <v>324</v>
+      </c>
+      <c r="I59" t="s">
+        <v>324</v>
+      </c>
+      <c r="J59" t="s">
+        <v>324</v>
+      </c>
+      <c r="K59" t="s">
+        <v>324</v>
+      </c>
+      <c r="L59" t="s">
+        <v>324</v>
+      </c>
+      <c r="M59" t="s">
+        <v>324</v>
+      </c>
+      <c r="N59" t="s">
+        <v>324</v>
+      </c>
+      <c r="O59" t="s">
+        <v>324</v>
+      </c>
+      <c r="P59" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>324</v>
+      </c>
+      <c r="R59" t="s">
+        <v>324</v>
+      </c>
+      <c r="S59" t="s">
+        <v>324</v>
+      </c>
+      <c r="T59" t="s">
+        <v>324</v>
+      </c>
+      <c r="U59" t="s">
+        <v>324</v>
+      </c>
+      <c r="V59" t="s">
+        <v>324</v>
+      </c>
+      <c r="W59" t="s">
+        <v>324</v>
+      </c>
+      <c r="X59" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>324</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="60" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="AI32" t="s">
-        <v>252</v>
-      </c>
-      <c r="AJ32" t="s">
-        <v>252</v>
-      </c>
-      <c r="AK32" t="s">
+      <c r="C60" t="s">
+        <v>325</v>
+      </c>
+      <c r="D60" t="s">
+        <v>325</v>
+      </c>
+      <c r="E60" t="s">
+        <v>325</v>
+      </c>
+      <c r="F60" t="s">
+        <v>325</v>
+      </c>
+      <c r="G60" t="s">
+        <v>325</v>
+      </c>
+      <c r="H60" t="s">
+        <v>325</v>
+      </c>
+      <c r="I60" t="s">
+        <v>325</v>
+      </c>
+      <c r="J60" t="s">
+        <v>325</v>
+      </c>
+      <c r="K60" t="s">
+        <v>325</v>
+      </c>
+      <c r="L60" t="s">
+        <v>325</v>
+      </c>
+      <c r="M60" t="s">
+        <v>325</v>
+      </c>
+      <c r="N60" t="s">
+        <v>325</v>
+      </c>
+      <c r="O60" t="s">
+        <v>325</v>
+      </c>
+      <c r="P60" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>325</v>
+      </c>
+      <c r="R60" t="s">
+        <v>325</v>
+      </c>
+      <c r="S60" t="s">
+        <v>325</v>
+      </c>
+      <c r="T60" t="s">
+        <v>325</v>
+      </c>
+      <c r="U60" t="s">
+        <v>325</v>
+      </c>
+      <c r="V60" t="s">
+        <v>325</v>
+      </c>
+      <c r="W60" t="s">
+        <v>325</v>
+      </c>
+      <c r="X60" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="61" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C61" t="s">
+        <v>326</v>
+      </c>
+      <c r="D61" t="s">
+        <v>326</v>
+      </c>
+      <c r="E61" t="s">
+        <v>326</v>
+      </c>
+      <c r="F61" t="s">
+        <v>326</v>
+      </c>
+      <c r="G61" t="s">
+        <v>326</v>
+      </c>
+      <c r="H61" t="s">
+        <v>326</v>
+      </c>
+      <c r="I61" t="s">
+        <v>326</v>
+      </c>
+      <c r="J61" t="s">
+        <v>326</v>
+      </c>
+      <c r="K61" t="s">
+        <v>326</v>
+      </c>
+      <c r="L61" t="s">
+        <v>326</v>
+      </c>
+      <c r="M61" t="s">
+        <v>326</v>
+      </c>
+      <c r="N61" t="s">
+        <v>326</v>
+      </c>
+      <c r="O61" t="s">
+        <v>326</v>
+      </c>
+      <c r="P61" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>326</v>
+      </c>
+      <c r="R61" t="s">
+        <v>326</v>
+      </c>
+      <c r="S61" t="s">
+        <v>326</v>
+      </c>
+      <c r="T61" t="s">
+        <v>326</v>
+      </c>
+      <c r="U61" t="s">
+        <v>326</v>
+      </c>
+      <c r="V61" t="s">
+        <v>326</v>
+      </c>
+      <c r="W61" t="s">
+        <v>326</v>
+      </c>
+      <c r="X61" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>326</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>326</v>
+      </c>
+      <c r="CI61" t="s">
+        <v>326</v>
+      </c>
+      <c r="CJ61" t="s">
+        <v>326</v>
+      </c>
+      <c r="CK61" t="s">
+        <v>326</v>
+      </c>
+      <c r="CL61" t="s">
+        <v>326</v>
+      </c>
+      <c r="CM61" t="s">
+        <v>326</v>
+      </c>
+      <c r="CN61" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="62" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C62" t="s">
+        <v>327</v>
+      </c>
+      <c r="D62" t="s">
+        <v>327</v>
+      </c>
+      <c r="E62" t="s">
+        <v>327</v>
+      </c>
+      <c r="F62" t="s">
+        <v>327</v>
+      </c>
+      <c r="G62" t="s">
+        <v>327</v>
+      </c>
+      <c r="H62" t="s">
+        <v>327</v>
+      </c>
+      <c r="I62" t="s">
+        <v>327</v>
+      </c>
+      <c r="J62" t="s">
+        <v>327</v>
+      </c>
+      <c r="K62" t="s">
+        <v>327</v>
+      </c>
+      <c r="L62" t="s">
+        <v>327</v>
+      </c>
+      <c r="M62" t="s">
+        <v>327</v>
+      </c>
+      <c r="N62" t="s">
+        <v>327</v>
+      </c>
+      <c r="O62" t="s">
+        <v>327</v>
+      </c>
+      <c r="P62" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>327</v>
+      </c>
+      <c r="R62" t="s">
+        <v>327</v>
+      </c>
+      <c r="S62" t="s">
+        <v>327</v>
+      </c>
+      <c r="T62" t="s">
+        <v>327</v>
+      </c>
+      <c r="U62" t="s">
+        <v>327</v>
+      </c>
+      <c r="V62" t="s">
+        <v>327</v>
+      </c>
+      <c r="W62" t="s">
+        <v>327</v>
+      </c>
+      <c r="X62" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>327</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="63" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C63" t="s">
+        <v>328</v>
+      </c>
+      <c r="D63" t="s">
+        <v>328</v>
+      </c>
+      <c r="E63" t="s">
+        <v>332</v>
+      </c>
+      <c r="F63" t="s">
+        <v>328</v>
+      </c>
+      <c r="G63" t="s">
+        <v>328</v>
+      </c>
+      <c r="H63" t="s">
+        <v>332</v>
+      </c>
+      <c r="I63" t="s">
+        <v>328</v>
+      </c>
+      <c r="J63" t="s">
+        <v>328</v>
+      </c>
+      <c r="K63" t="s">
+        <v>332</v>
+      </c>
+      <c r="L63" t="s">
+        <v>328</v>
+      </c>
+      <c r="M63" t="s">
+        <v>328</v>
+      </c>
+      <c r="N63" t="s">
+        <v>332</v>
+      </c>
+      <c r="O63" t="s">
+        <v>328</v>
+      </c>
+      <c r="P63" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>332</v>
+      </c>
+      <c r="R63" t="s">
+        <v>328</v>
+      </c>
+      <c r="S63" t="s">
+        <v>328</v>
+      </c>
+      <c r="T63" t="s">
+        <v>328</v>
+      </c>
+      <c r="U63" t="s">
+        <v>328</v>
+      </c>
+      <c r="V63" t="s">
+        <v>332</v>
+      </c>
+      <c r="W63" t="s">
+        <v>328</v>
+      </c>
+      <c r="X63" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>328</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="64" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="AL32" t="s">
-        <v>256</v>
-      </c>
-      <c r="AM32" t="s">
+      <c r="AF64" t="s">
+        <v>345</v>
+      </c>
+      <c r="AG64" t="s">
+        <v>345</v>
+      </c>
+      <c r="DG64" t="s">
+        <v>367</v>
+      </c>
+      <c r="DH64" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="65" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="AN32" t="s">
-        <v>262</v>
-      </c>
-      <c r="AO32" t="s">
-        <v>252</v>
-      </c>
-      <c r="AP32" t="s">
-        <v>252</v>
-      </c>
-      <c r="AQ32" t="s">
-        <v>252</v>
-      </c>
-      <c r="AR32" t="s">
-        <v>252</v>
-      </c>
-      <c r="AS32" t="s">
+      <c r="AF65" t="s">
+        <v>318</v>
+      </c>
+      <c r="AG65" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="66" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="AM66" t="s">
+        <v>354</v>
+      </c>
+      <c r="AN66" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="67" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C67" t="s">
+        <v>320</v>
+      </c>
+      <c r="D67" t="s">
+        <v>320</v>
+      </c>
+      <c r="E67" t="s">
+        <v>320</v>
+      </c>
+      <c r="F67" t="s">
+        <v>320</v>
+      </c>
+      <c r="G67" t="s">
+        <v>320</v>
+      </c>
+      <c r="H67" t="s">
+        <v>320</v>
+      </c>
+      <c r="I67" t="s">
+        <v>320</v>
+      </c>
+      <c r="J67" t="s">
+        <v>320</v>
+      </c>
+      <c r="K67" t="s">
+        <v>320</v>
+      </c>
+      <c r="L67" t="s">
+        <v>320</v>
+      </c>
+      <c r="M67" t="s">
+        <v>320</v>
+      </c>
+      <c r="N67" t="s">
+        <v>320</v>
+      </c>
+      <c r="O67" t="s">
+        <v>320</v>
+      </c>
+      <c r="P67" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>320</v>
+      </c>
+      <c r="R67" t="s">
+        <v>320</v>
+      </c>
+      <c r="S67" t="s">
+        <v>320</v>
+      </c>
+      <c r="T67" t="s">
+        <v>320</v>
+      </c>
+      <c r="U67" t="s">
+        <v>320</v>
+      </c>
+      <c r="V67" t="s">
+        <v>320</v>
+      </c>
+      <c r="W67" t="s">
+        <v>320</v>
+      </c>
+      <c r="X67" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>320</v>
+      </c>
+      <c r="BR67" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="68" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C68" t="s">
+        <v>329</v>
+      </c>
+      <c r="D68" t="s">
+        <v>329</v>
+      </c>
+      <c r="E68" t="s">
+        <v>329</v>
+      </c>
+      <c r="F68" t="s">
+        <v>329</v>
+      </c>
+      <c r="G68" t="s">
+        <v>329</v>
+      </c>
+      <c r="H68" t="s">
+        <v>329</v>
+      </c>
+      <c r="I68" t="s">
+        <v>329</v>
+      </c>
+      <c r="J68" t="s">
+        <v>329</v>
+      </c>
+      <c r="K68" t="s">
+        <v>329</v>
+      </c>
+      <c r="L68" t="s">
+        <v>329</v>
+      </c>
+      <c r="M68" t="s">
+        <v>329</v>
+      </c>
+      <c r="N68" t="s">
+        <v>329</v>
+      </c>
+      <c r="O68" t="s">
+        <v>329</v>
+      </c>
+      <c r="P68" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>329</v>
+      </c>
+      <c r="R68" t="s">
+        <v>329</v>
+      </c>
+      <c r="S68" t="s">
+        <v>329</v>
+      </c>
+      <c r="T68" t="s">
+        <v>329</v>
+      </c>
+      <c r="U68" t="s">
+        <v>329</v>
+      </c>
+      <c r="V68" t="s">
+        <v>329</v>
+      </c>
+      <c r="W68" t="s">
+        <v>329</v>
+      </c>
+      <c r="X68" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>329</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="69" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="AT32" t="s">
-        <v>263</v>
-      </c>
-      <c r="AU32" t="s">
+      <c r="C69" t="s">
+        <v>330</v>
+      </c>
+      <c r="D69" t="s">
+        <v>330</v>
+      </c>
+      <c r="E69" t="s">
+        <v>330</v>
+      </c>
+      <c r="F69" t="s">
+        <v>330</v>
+      </c>
+      <c r="G69" t="s">
+        <v>330</v>
+      </c>
+      <c r="H69" t="s">
+        <v>330</v>
+      </c>
+      <c r="I69" t="s">
+        <v>330</v>
+      </c>
+      <c r="J69" t="s">
+        <v>330</v>
+      </c>
+      <c r="K69" t="s">
+        <v>330</v>
+      </c>
+      <c r="L69" t="s">
+        <v>330</v>
+      </c>
+      <c r="M69" t="s">
+        <v>330</v>
+      </c>
+      <c r="N69" t="s">
+        <v>330</v>
+      </c>
+      <c r="O69" t="s">
+        <v>330</v>
+      </c>
+      <c r="P69" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>330</v>
+      </c>
+      <c r="R69" t="s">
+        <v>330</v>
+      </c>
+      <c r="S69" t="s">
+        <v>330</v>
+      </c>
+      <c r="T69" t="s">
+        <v>330</v>
+      </c>
+      <c r="U69" t="s">
+        <v>330</v>
+      </c>
+      <c r="V69" t="s">
+        <v>330</v>
+      </c>
+      <c r="W69" t="s">
+        <v>330</v>
+      </c>
+      <c r="X69" t="s">
+        <v>330</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>330</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>330</v>
+      </c>
+      <c r="CU69" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="70" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="AV32" t="s">
-        <v>252</v>
-      </c>
-      <c r="AW32" t="s">
+      <c r="C70" t="s">
+        <v>331</v>
+      </c>
+      <c r="D70" t="s">
+        <v>331</v>
+      </c>
+      <c r="E70" t="s">
+        <v>331</v>
+      </c>
+      <c r="F70" t="s">
+        <v>331</v>
+      </c>
+      <c r="G70" t="s">
+        <v>331</v>
+      </c>
+      <c r="H70" t="s">
+        <v>331</v>
+      </c>
+      <c r="I70" t="s">
+        <v>331</v>
+      </c>
+      <c r="J70" t="s">
+        <v>331</v>
+      </c>
+      <c r="K70" t="s">
+        <v>331</v>
+      </c>
+      <c r="L70" t="s">
+        <v>331</v>
+      </c>
+      <c r="M70" t="s">
+        <v>331</v>
+      </c>
+      <c r="N70" t="s">
+        <v>331</v>
+      </c>
+      <c r="O70" t="s">
+        <v>331</v>
+      </c>
+      <c r="P70" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>331</v>
+      </c>
+      <c r="R70" t="s">
+        <v>331</v>
+      </c>
+      <c r="S70" t="s">
+        <v>331</v>
+      </c>
+      <c r="T70" t="s">
+        <v>331</v>
+      </c>
+      <c r="U70" t="s">
+        <v>331</v>
+      </c>
+      <c r="V70" t="s">
+        <v>331</v>
+      </c>
+      <c r="W70" t="s">
+        <v>331</v>
+      </c>
+      <c r="X70" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>331</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>331</v>
+      </c>
+      <c r="DM70" t="s">
+        <v>331</v>
+      </c>
+      <c r="DN70" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="71" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="AX32" t="s">
-        <v>256</v>
-      </c>
-      <c r="AY32" t="s">
+      <c r="BR71" t="s">
+        <v>377</v>
+      </c>
+      <c r="DI71" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="72" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="AZ32" t="s">
-        <v>262</v>
-      </c>
-      <c r="BA32" t="s">
+      <c r="DJ72" t="s">
+        <v>404</v>
+      </c>
+      <c r="DK72" t="s">
+        <v>404</v>
+      </c>
+      <c r="DL72" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="73" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="BB32" t="s">
-        <v>264</v>
-      </c>
-      <c r="BC32" t="s">
-        <v>252</v>
-      </c>
-      <c r="BD32" t="s">
-        <v>256</v>
-      </c>
-      <c r="BE32" t="s">
-        <v>279</v>
-      </c>
-      <c r="BF32" t="s">
-        <v>262</v>
-      </c>
-      <c r="BG32" t="s">
-        <v>263</v>
-      </c>
-      <c r="BH32" t="s">
-        <v>264</v>
-      </c>
-      <c r="BI32" t="s">
-        <v>252</v>
-      </c>
-      <c r="BJ32" t="s">
-        <v>256</v>
-      </c>
-      <c r="BK32" t="s">
+      <c r="DJ73" t="s">
+        <v>332</v>
+      </c>
+      <c r="DK73" t="s">
+        <v>332</v>
+      </c>
+      <c r="DL73" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="74" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="BL32" t="s">
+      <c r="DM74" t="s">
+        <v>326</v>
+      </c>
+      <c r="DN74" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="75" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="BM32" t="s">
+      <c r="CB75" t="s">
+        <v>387</v>
+      </c>
+      <c r="CC75" t="s">
+        <v>387</v>
+      </c>
+      <c r="CD75" t="s">
+        <v>387</v>
+      </c>
+      <c r="CE75" t="s">
+        <v>387</v>
+      </c>
+      <c r="DM75" t="s">
+        <v>387</v>
+      </c>
+      <c r="DN75" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="76" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="BN32" t="s">
-        <v>264</v>
-      </c>
-      <c r="BO32" t="s">
-        <v>252</v>
-      </c>
-      <c r="BP32" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="33" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B33" t="s">
-        <v>250</v>
-      </c>
-      <c r="D33" t="s">
-        <v>257</v>
-      </c>
-      <c r="E33" t="s">
-        <v>260</v>
-      </c>
-      <c r="F33" t="s">
-        <v>260</v>
-      </c>
-      <c r="G33" t="s">
-        <v>260</v>
-      </c>
-      <c r="H33" t="s">
-        <v>260</v>
-      </c>
-      <c r="I33" t="s">
-        <v>260</v>
-      </c>
-      <c r="J33" t="s">
-        <v>260</v>
-      </c>
-      <c r="K33" t="s">
-        <v>260</v>
-      </c>
-      <c r="L33" t="s">
-        <v>250</v>
-      </c>
-      <c r="M33" t="s">
-        <v>260</v>
-      </c>
-      <c r="N33" t="s">
-        <v>260</v>
-      </c>
-      <c r="O33" t="s">
-        <v>260</v>
-      </c>
-      <c r="P33" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>250</v>
-      </c>
-      <c r="R33" t="s">
-        <v>260</v>
-      </c>
-      <c r="S33" t="s">
-        <v>270</v>
-      </c>
-      <c r="T33" t="s">
-        <v>270</v>
-      </c>
-      <c r="U33" t="s">
-        <v>270</v>
-      </c>
-      <c r="V33" t="s">
-        <v>270</v>
-      </c>
-      <c r="W33" t="s">
-        <v>270</v>
-      </c>
-      <c r="X33" t="s">
-        <v>270</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>275</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AK33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AL33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AM33" t="s">
-        <v>250</v>
-      </c>
-      <c r="AN33" t="s">
-        <v>250</v>
-      </c>
-      <c r="AS33" t="s">
-        <v>250</v>
-      </c>
-      <c r="AT33" t="s">
-        <v>250</v>
-      </c>
-      <c r="AU33" t="s">
-        <v>250</v>
-      </c>
-      <c r="AW33" t="s">
-        <v>250</v>
-      </c>
-      <c r="AX33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AY33" t="s">
-        <v>250</v>
-      </c>
-      <c r="AZ33" t="s">
-        <v>260</v>
-      </c>
-      <c r="BA33" t="s">
-        <v>260</v>
-      </c>
-      <c r="BB33" t="s">
-        <v>260</v>
-      </c>
-      <c r="BC33" t="s">
-        <v>260</v>
-      </c>
-      <c r="BD33" t="s">
-        <v>260</v>
-      </c>
-      <c r="BE33" t="s">
-        <v>260</v>
-      </c>
-      <c r="BF33" t="s">
-        <v>250</v>
-      </c>
-      <c r="BG33" t="s">
-        <v>250</v>
-      </c>
-      <c r="BH33" t="s">
-        <v>250</v>
-      </c>
-      <c r="BI33" t="s">
-        <v>250</v>
-      </c>
-      <c r="BJ33" t="s">
-        <v>250</v>
-      </c>
-      <c r="BK33" t="s">
-        <v>250</v>
-      </c>
-      <c r="BL33" t="s">
-        <v>250</v>
-      </c>
-      <c r="BM33" t="s">
-        <v>250</v>
-      </c>
-      <c r="BN33" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="34" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B34" t="s">
-        <v>251</v>
-      </c>
-      <c r="D34" t="s">
-        <v>258</v>
-      </c>
-      <c r="E34" t="s">
-        <v>261</v>
-      </c>
-      <c r="F34" t="s">
-        <v>261</v>
-      </c>
-      <c r="G34" t="s">
-        <v>261</v>
-      </c>
-      <c r="H34" t="s">
-        <v>261</v>
-      </c>
-      <c r="I34" t="s">
-        <v>261</v>
-      </c>
-      <c r="J34" t="s">
-        <v>261</v>
-      </c>
-      <c r="K34" t="s">
-        <v>261</v>
-      </c>
-      <c r="L34" t="s">
-        <v>251</v>
-      </c>
-      <c r="M34" t="s">
-        <v>251</v>
-      </c>
-      <c r="N34" t="s">
-        <v>251</v>
-      </c>
-      <c r="O34" t="s">
-        <v>251</v>
-      </c>
-      <c r="P34" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>251</v>
-      </c>
-      <c r="R34" t="s">
-        <v>251</v>
-      </c>
-      <c r="S34" t="s">
-        <v>258</v>
-      </c>
-      <c r="T34" t="s">
-        <v>258</v>
-      </c>
-      <c r="U34" t="s">
-        <v>258</v>
-      </c>
-      <c r="V34" t="s">
-        <v>258</v>
-      </c>
-      <c r="W34" t="s">
-        <v>258</v>
-      </c>
-      <c r="X34" t="s">
-        <v>258</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>258</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>261</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>261</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>251</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>251</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>261</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>261</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>261</v>
-      </c>
-      <c r="AG34" t="s">
-        <v>251</v>
-      </c>
-      <c r="AH34" t="s">
-        <v>251</v>
-      </c>
-      <c r="AK34" t="s">
-        <v>251</v>
-      </c>
-      <c r="AL34" t="s">
-        <v>251</v>
-      </c>
-      <c r="AM34" t="s">
-        <v>251</v>
-      </c>
-      <c r="AN34" t="s">
-        <v>251</v>
-      </c>
-      <c r="AS34" t="s">
-        <v>251</v>
-      </c>
-      <c r="AT34" t="s">
-        <v>251</v>
-      </c>
-      <c r="AU34" t="s">
-        <v>251</v>
-      </c>
-      <c r="AW34" t="s">
-        <v>251</v>
-      </c>
-      <c r="AX34" t="s">
-        <v>251</v>
-      </c>
-      <c r="AY34" t="s">
-        <v>251</v>
-      </c>
-      <c r="AZ34" t="s">
-        <v>251</v>
-      </c>
-      <c r="BA34" t="s">
-        <v>251</v>
-      </c>
-      <c r="BB34" t="s">
-        <v>251</v>
-      </c>
-      <c r="BC34" t="s">
-        <v>251</v>
-      </c>
-      <c r="BD34" t="s">
-        <v>251</v>
-      </c>
-      <c r="BE34" t="s">
-        <v>251</v>
-      </c>
-      <c r="BF34" t="s">
-        <v>251</v>
-      </c>
-      <c r="BG34" t="s">
-        <v>251</v>
-      </c>
-      <c r="BH34" t="s">
-        <v>251</v>
-      </c>
-      <c r="BI34" t="s">
-        <v>251</v>
-      </c>
-      <c r="BJ34" t="s">
-        <v>251</v>
-      </c>
-      <c r="BK34" t="s">
-        <v>251</v>
-      </c>
-      <c r="BL34" t="s">
-        <v>251</v>
-      </c>
-      <c r="BM34" t="s">
-        <v>251</v>
-      </c>
-      <c r="BN34" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="35" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="36" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C36" t="s">
-        <v>253</v>
-      </c>
-      <c r="V36" t="s">
-        <v>272</v>
-      </c>
-      <c r="AB36" t="s">
-        <v>272</v>
-      </c>
-      <c r="AC36" t="s">
-        <v>272</v>
-      </c>
-      <c r="AI36" t="s">
-        <v>253</v>
-      </c>
-      <c r="AJ36" t="s">
-        <v>253</v>
-      </c>
-      <c r="AO36" t="s">
-        <v>286</v>
-      </c>
-      <c r="AP36" t="s">
-        <v>286</v>
-      </c>
-      <c r="AQ36" t="s">
-        <v>286</v>
-      </c>
-      <c r="AV36" t="s">
-        <v>253</v>
-      </c>
-      <c r="BI36" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="37" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C37" t="s">
-        <v>254</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>277</v>
-      </c>
-      <c r="AC37" t="s">
-        <v>277</v>
-      </c>
-      <c r="AI37" t="s">
-        <v>281</v>
-      </c>
-      <c r="AJ37" t="s">
-        <v>283</v>
-      </c>
-      <c r="AO37" t="s">
-        <v>287</v>
-      </c>
-      <c r="AR37" t="s">
-        <v>288</v>
-      </c>
-      <c r="BO37" t="s">
+      <c r="DO76" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="77" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="BP37" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="38" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C38" t="s">
-        <v>255</v>
-      </c>
-      <c r="I38" t="s">
-        <v>265</v>
-      </c>
-      <c r="J38" t="s">
-        <v>265</v>
-      </c>
-      <c r="V38" t="s">
-        <v>255</v>
-      </c>
-      <c r="AB38" t="s">
-        <v>278</v>
-      </c>
-      <c r="AC38" t="s">
-        <v>278</v>
-      </c>
-      <c r="AI38" t="s">
-        <v>282</v>
-      </c>
-      <c r="AJ38" t="s">
-        <v>282</v>
-      </c>
-      <c r="BC38" t="s">
-        <v>278</v>
+      <c r="DO77" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="78" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="CU78" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="79" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="CI79" t="s">
+        <v>315</v>
+      </c>
+      <c r="CJ79" t="s">
+        <v>315</v>
+      </c>
+      <c r="CK79" t="s">
+        <v>315</v>
+      </c>
+      <c r="CL79" t="s">
+        <v>315</v>
+      </c>
+      <c r="CM79" t="s">
+        <v>315</v>
+      </c>
+      <c r="CN79" t="s">
+        <v>315</v>
+      </c>
+      <c r="DA79" t="s">
+        <v>315</v>
+      </c>
+      <c r="DG79" t="s">
+        <v>331</v>
+      </c>
+      <c r="DH79" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="80" spans="1:119" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="CI80" t="s">
+        <v>365</v>
+      </c>
+      <c r="CJ80" t="s">
+        <v>365</v>
+      </c>
+      <c r="CK80" t="s">
+        <v>365</v>
+      </c>
+      <c r="CL80" t="s">
+        <v>365</v>
+      </c>
+      <c r="CM80" t="s">
+        <v>365</v>
+      </c>
+      <c r="CN80" t="s">
+        <v>365</v>
+      </c>
+      <c r="DA80" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="81" spans="1:113" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="DG81" t="s">
+        <v>382</v>
+      </c>
+      <c r="DH81" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="82" spans="1:113" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="DI82" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="83" spans="1:113" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="CB83" t="s">
+        <v>320</v>
+      </c>
+      <c r="CC83" t="s">
+        <v>320</v>
+      </c>
+      <c r="CD83" t="s">
+        <v>320</v>
+      </c>
+      <c r="CE83" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="84" spans="1:113" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="CB84" t="s">
+        <v>388</v>
+      </c>
+      <c r="CC84" t="s">
+        <v>388</v>
+      </c>
+      <c r="CD84" t="s">
+        <v>388</v>
+      </c>
+      <c r="CE84" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="85" spans="1:113" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="CB85" t="s">
+        <v>389</v>
+      </c>
+      <c r="CC85" t="s">
+        <v>389</v>
+      </c>
+      <c r="CD85" t="s">
+        <v>389</v>
+      </c>
+      <c r="CE85" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="86" spans="1:113" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="CI86" t="s">
+        <v>393</v>
+      </c>
+      <c r="CJ86" t="s">
+        <v>393</v>
+      </c>
+      <c r="CK86" t="s">
+        <v>393</v>
+      </c>
+      <c r="CL86" t="s">
+        <v>393</v>
+      </c>
+      <c r="CM86" t="s">
+        <v>393</v>
+      </c>
+      <c r="CN86" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="87" spans="1:113" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="CI87" t="s">
+        <v>366</v>
+      </c>
+      <c r="CJ87" t="s">
+        <v>366</v>
+      </c>
+      <c r="CK87" t="s">
+        <v>366</v>
+      </c>
+      <c r="CL87" t="s">
+        <v>366</v>
+      </c>
+      <c r="CM87" t="s">
+        <v>366</v>
+      </c>
+      <c r="CN87" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="88" spans="1:113" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="CU88" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="89" spans="1:113" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="CU89" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="90" spans="1:113" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="BK90" t="s">
+        <v>331</v>
+      </c>
+      <c r="BL90" t="s">
+        <v>331</v>
+      </c>
+      <c r="BM90" t="s">
+        <v>331</v>
       </c>
     </row>
   </sheetData>
